--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>399200</v>
+        <v>300600</v>
       </c>
       <c r="E8" s="3">
-        <v>663800</v>
+        <v>375300</v>
       </c>
       <c r="F8" s="3">
-        <v>289200</v>
+        <v>353500</v>
       </c>
       <c r="G8" s="3">
-        <v>350900</v>
+        <v>587900</v>
       </c>
       <c r="H8" s="3">
-        <v>392400</v>
+        <v>345800</v>
       </c>
       <c r="I8" s="3">
+        <v>347400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>347600</v>
+      </c>
+      <c r="K8" s="3">
         <v>637600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>318100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>505300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>148100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>131900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>140500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>103700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>265100</v>
+        <v>187500</v>
       </c>
       <c r="E9" s="3">
-        <v>403200</v>
+        <v>243100</v>
       </c>
       <c r="F9" s="3">
-        <v>189800</v>
+        <v>234800</v>
       </c>
       <c r="G9" s="3">
-        <v>207700</v>
+        <v>357100</v>
       </c>
       <c r="H9" s="3">
-        <v>231200</v>
+        <v>227000</v>
       </c>
       <c r="I9" s="3">
+        <v>212600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K9" s="3">
         <v>339000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>159500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>265700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>78600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>75200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>66300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>33900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>134000</v>
+        <v>113100</v>
       </c>
       <c r="E10" s="3">
-        <v>260600</v>
+        <v>132200</v>
       </c>
       <c r="F10" s="3">
-        <v>99300</v>
+        <v>118700</v>
       </c>
       <c r="G10" s="3">
-        <v>143100</v>
+        <v>230800</v>
       </c>
       <c r="H10" s="3">
-        <v>161300</v>
+        <v>118800</v>
       </c>
       <c r="I10" s="3">
+        <v>134800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K10" s="3">
         <v>298500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>158600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>239600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>69500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>56800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>74200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>69800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-32600</v>
+        <v>-23900</v>
       </c>
       <c r="E14" s="3">
-        <v>-107500</v>
+        <v>-38900</v>
       </c>
       <c r="F14" s="3">
-        <v>-59300</v>
+        <v>-28800</v>
       </c>
       <c r="G14" s="3">
-        <v>-138600</v>
+        <v>-95200</v>
       </c>
       <c r="H14" s="3">
-        <v>-67400</v>
+        <v>-71200</v>
       </c>
       <c r="I14" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-70900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-30200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-125300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-29500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>13800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>35500</v>
-      </c>
       <c r="H15" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M15" s="3">
+        <v>42200</v>
+      </c>
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="I15" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>11700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>42200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
       </c>
-      <c r="N15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>328600</v>
+        <v>253900</v>
       </c>
       <c r="E17" s="3">
-        <v>525100</v>
+        <v>344200</v>
       </c>
       <c r="F17" s="3">
-        <v>229500</v>
+        <v>291000</v>
       </c>
       <c r="G17" s="3">
-        <v>234800</v>
+        <v>465000</v>
       </c>
       <c r="H17" s="3">
-        <v>287300</v>
+        <v>274400</v>
       </c>
       <c r="I17" s="3">
+        <v>309300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>254400</v>
+      </c>
+      <c r="K17" s="3">
         <v>469400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>221800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>367000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>131300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>125100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>119100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>70200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70600</v>
+        <v>46700</v>
       </c>
       <c r="E18" s="3">
-        <v>138800</v>
+        <v>31100</v>
       </c>
       <c r="F18" s="3">
-        <v>59600</v>
+        <v>62500</v>
       </c>
       <c r="G18" s="3">
-        <v>116100</v>
+        <v>122900</v>
       </c>
       <c r="H18" s="3">
-        <v>105200</v>
+        <v>71300</v>
       </c>
       <c r="I18" s="3">
+        <v>38100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K18" s="3">
         <v>168100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>96400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>138300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>21400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>33500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38600</v>
+        <v>-11700</v>
       </c>
       <c r="E20" s="3">
-        <v>183500</v>
+        <v>20100</v>
       </c>
       <c r="F20" s="3">
-        <v>-28100</v>
+        <v>-34200</v>
       </c>
       <c r="G20" s="3">
-        <v>-42200</v>
+        <v>162500</v>
       </c>
       <c r="H20" s="3">
-        <v>-11000</v>
+        <v>-32600</v>
       </c>
       <c r="I20" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-70200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-20300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53600</v>
+        <v>54700</v>
       </c>
       <c r="E21" s="3">
-        <v>354000</v>
+        <v>74000</v>
       </c>
       <c r="F21" s="3">
-        <v>45300</v>
+        <v>47500</v>
       </c>
       <c r="G21" s="3">
-        <v>73000</v>
+        <v>313500</v>
       </c>
       <c r="H21" s="3">
-        <v>113000</v>
+        <v>56800</v>
       </c>
       <c r="I21" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="3">
         <v>122400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>93200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>160200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>14300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>22700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>32100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>22500</v>
-      </c>
       <c r="H22" s="3">
-        <v>5200</v>
+        <v>12700</v>
       </c>
       <c r="I22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>32000</v>
+        <v>22900</v>
       </c>
       <c r="E23" s="3">
-        <v>322300</v>
+        <v>20200</v>
       </c>
       <c r="F23" s="3">
-        <v>21800</v>
+        <v>28300</v>
       </c>
       <c r="G23" s="3">
-        <v>51400</v>
+        <v>285400</v>
       </c>
       <c r="H23" s="3">
-        <v>88900</v>
+        <v>26100</v>
       </c>
       <c r="I23" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K23" s="3">
         <v>95500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>76100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>107100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>25700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27700</v>
+        <v>12400</v>
       </c>
       <c r="E24" s="3">
-        <v>121100</v>
+        <v>24400</v>
       </c>
       <c r="F24" s="3">
-        <v>19400</v>
+        <v>24500</v>
       </c>
       <c r="G24" s="3">
-        <v>15100</v>
+        <v>107300</v>
       </c>
       <c r="H24" s="3">
-        <v>32400</v>
+        <v>23200</v>
       </c>
       <c r="I24" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K24" s="3">
         <v>34800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>24600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="E26" s="3">
-        <v>201100</v>
+        <v>-4300</v>
       </c>
       <c r="F26" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="G26" s="3">
-        <v>36300</v>
+        <v>178100</v>
       </c>
       <c r="H26" s="3">
-        <v>56600</v>
+        <v>2800</v>
       </c>
       <c r="I26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K26" s="3">
         <v>60700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>51500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>101400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>17100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="E27" s="3">
-        <v>201100</v>
+        <v>-4300</v>
       </c>
       <c r="F27" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="G27" s="3">
-        <v>36300</v>
+        <v>178100</v>
       </c>
       <c r="H27" s="3">
-        <v>56600</v>
+        <v>2800</v>
       </c>
       <c r="I27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K27" s="3">
         <v>60700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>51500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>101400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>17100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38600</v>
+        <v>11700</v>
       </c>
       <c r="E32" s="3">
-        <v>-183500</v>
+        <v>-20100</v>
       </c>
       <c r="F32" s="3">
-        <v>28100</v>
+        <v>34200</v>
       </c>
       <c r="G32" s="3">
-        <v>42200</v>
+        <v>-162500</v>
       </c>
       <c r="H32" s="3">
-        <v>11000</v>
+        <v>32600</v>
       </c>
       <c r="I32" s="3">
+        <v>38900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K32" s="3">
         <v>70200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>20300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="E33" s="3">
-        <v>201100</v>
+        <v>-4300</v>
       </c>
       <c r="F33" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="G33" s="3">
-        <v>36300</v>
+        <v>178100</v>
       </c>
       <c r="H33" s="3">
-        <v>56600</v>
+        <v>2800</v>
       </c>
       <c r="I33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K33" s="3">
         <v>60700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>51500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>101400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>17100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="E35" s="3">
-        <v>201100</v>
+        <v>-4300</v>
       </c>
       <c r="F35" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="G35" s="3">
-        <v>36300</v>
+        <v>178100</v>
       </c>
       <c r="H35" s="3">
-        <v>56600</v>
+        <v>2800</v>
       </c>
       <c r="I35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K35" s="3">
         <v>60700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>51500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>101400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>17100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,216 +2138,242 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52200</v>
+        <v>37200</v>
       </c>
       <c r="E41" s="3">
-        <v>54400</v>
+        <v>50300</v>
       </c>
       <c r="F41" s="3">
-        <v>2000</v>
+        <v>46200</v>
       </c>
       <c r="G41" s="3">
+        <v>48200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
-        <v>66100</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K41" s="3">
         <v>41200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>44600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>59000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>26900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>25000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>30500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>48800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>53900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>102200</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>68700</v>
+        <v>47800</v>
       </c>
       <c r="I42" s="3">
+        <v>101200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K42" s="3">
         <v>57400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>37600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>42400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>15900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>14600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>14900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>10200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>247600</v>
+        <v>221500</v>
       </c>
       <c r="E43" s="3">
-        <v>196000</v>
+        <v>198900</v>
       </c>
       <c r="F43" s="3">
-        <v>182000</v>
+        <v>219300</v>
       </c>
       <c r="G43" s="3">
-        <v>175500</v>
+        <v>173600</v>
       </c>
       <c r="H43" s="3">
-        <v>155400</v>
+        <v>161200</v>
       </c>
       <c r="I43" s="3">
+        <v>345200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K43" s="3">
         <v>125000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>134400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>197800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>113700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>111200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>124100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>106000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29900</v>
+        <v>26200</v>
       </c>
       <c r="E44" s="3">
-        <v>27900</v>
+        <v>30300</v>
       </c>
       <c r="F44" s="3">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="G44" s="3">
-        <v>28700</v>
+        <v>24700</v>
       </c>
       <c r="H44" s="3">
-        <v>13800</v>
+        <v>26600</v>
       </c>
       <c r="I44" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K44" s="3">
         <v>10100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>14900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>7500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="E45" s="3">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
@@ -2185,142 +2382,166 @@
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>331800</v>
+        <v>315000</v>
       </c>
       <c r="E46" s="3">
-        <v>281100</v>
+        <v>281300</v>
       </c>
       <c r="F46" s="3">
-        <v>269700</v>
+        <v>293900</v>
       </c>
       <c r="G46" s="3">
-        <v>311700</v>
+        <v>248900</v>
       </c>
       <c r="H46" s="3">
-        <v>305200</v>
+        <v>238900</v>
       </c>
       <c r="I46" s="3">
+        <v>308500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K46" s="3">
         <v>234800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>225600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>315400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>164800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>158200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>177300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>173400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>500</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
-        <v>13300</v>
-      </c>
       <c r="F47" s="3">
-        <v>13400</v>
+        <v>600</v>
       </c>
       <c r="G47" s="3">
-        <v>18400</v>
+        <v>11800</v>
       </c>
       <c r="H47" s="3">
-        <v>34800</v>
+        <v>11800</v>
       </c>
       <c r="I47" s="3">
+        <v>18200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1491800</v>
+        <v>1598700</v>
       </c>
       <c r="E48" s="3">
-        <v>1311400</v>
+        <v>1598200</v>
       </c>
       <c r="F48" s="3">
-        <v>1179600</v>
+        <v>1321200</v>
       </c>
       <c r="G48" s="3">
-        <v>1420800</v>
+        <v>1161500</v>
       </c>
       <c r="H48" s="3">
-        <v>304200</v>
+        <v>1044700</v>
       </c>
       <c r="I48" s="3">
+        <v>1406400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K48" s="3">
         <v>278500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>258100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1309000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>313000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>292000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>310400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>293100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2468,35 +2707,41 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>30800</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K52" s="3">
         <v>26300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>23000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>27200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>28300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>26500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>28500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1824200</v>
+        <v>1914200</v>
       </c>
       <c r="E54" s="3">
-        <v>1605900</v>
+        <v>1880000</v>
       </c>
       <c r="F54" s="3">
-        <v>1462700</v>
+        <v>1615700</v>
       </c>
       <c r="G54" s="3">
-        <v>1751000</v>
+        <v>1422200</v>
       </c>
       <c r="H54" s="3">
-        <v>675000</v>
+        <v>1295500</v>
       </c>
       <c r="I54" s="3">
+        <v>1733200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>597900</v>
+      </c>
+      <c r="K54" s="3">
         <v>540300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>507300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1626000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>507100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>477800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>517600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>495700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>207800</v>
+        <v>232900</v>
       </c>
       <c r="E57" s="3">
-        <v>216900</v>
+        <v>199900</v>
       </c>
       <c r="F57" s="3">
-        <v>307800</v>
+        <v>184000</v>
       </c>
       <c r="G57" s="3">
-        <v>332200</v>
+        <v>192100</v>
       </c>
       <c r="H57" s="3">
-        <v>247300</v>
+        <v>272600</v>
       </c>
       <c r="I57" s="3">
+        <v>328900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K57" s="3">
         <v>202200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>183300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>311500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>186600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>181900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>186800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>178600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33400</v>
+        <v>32800</v>
       </c>
       <c r="E58" s="3">
-        <v>21300</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>26500</v>
+        <v>29600</v>
       </c>
       <c r="G58" s="3">
-        <v>24500</v>
+        <v>18900</v>
       </c>
       <c r="H58" s="3">
-        <v>5800</v>
+        <v>23400</v>
       </c>
       <c r="I58" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1400</v>
       </c>
       <c r="P58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>134800</v>
+        <v>122200</v>
       </c>
       <c r="E59" s="3">
-        <v>126900</v>
+        <v>158800</v>
       </c>
       <c r="F59" s="3">
-        <v>76900</v>
+        <v>119400</v>
       </c>
       <c r="G59" s="3">
-        <v>120400</v>
+        <v>112400</v>
       </c>
       <c r="H59" s="3">
-        <v>77100</v>
+        <v>68100</v>
       </c>
       <c r="I59" s="3">
+        <v>119100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K59" s="3">
         <v>66700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>59100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>110900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>69400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>62700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>59800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>70400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>375900</v>
+        <v>387900</v>
       </c>
       <c r="E60" s="3">
-        <v>365200</v>
+        <v>386800</v>
       </c>
       <c r="F60" s="3">
-        <v>411200</v>
+        <v>332900</v>
       </c>
       <c r="G60" s="3">
-        <v>477100</v>
+        <v>323400</v>
       </c>
       <c r="H60" s="3">
-        <v>330200</v>
+        <v>364200</v>
       </c>
       <c r="I60" s="3">
+        <v>472200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K60" s="3">
         <v>270600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>245200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>424800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>259100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>245900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>249700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>250400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>167600</v>
+        <v>129200</v>
       </c>
       <c r="E61" s="3">
-        <v>123500</v>
+        <v>129000</v>
       </c>
       <c r="F61" s="3">
-        <v>135100</v>
+        <v>148500</v>
       </c>
       <c r="G61" s="3">
-        <v>163600</v>
+        <v>109400</v>
       </c>
       <c r="H61" s="3">
-        <v>153600</v>
+        <v>119700</v>
       </c>
       <c r="I61" s="3">
+        <v>161900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K61" s="3">
         <v>107300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>74800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>142000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>69300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>66600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>70200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>72500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379900</v>
+        <v>455800</v>
       </c>
       <c r="E62" s="3">
-        <v>319300</v>
+        <v>433400</v>
       </c>
       <c r="F62" s="3">
-        <v>348000</v>
+        <v>336400</v>
       </c>
       <c r="G62" s="3">
-        <v>406000</v>
+        <v>282800</v>
       </c>
       <c r="H62" s="3">
-        <v>151900</v>
+        <v>308200</v>
       </c>
       <c r="I62" s="3">
+        <v>401900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K62" s="3">
         <v>137000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>146600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>421700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>154700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>148400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>176600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>163300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>923400</v>
+        <v>972800</v>
       </c>
       <c r="E66" s="3">
-        <v>808000</v>
+        <v>949200</v>
       </c>
       <c r="F66" s="3">
-        <v>894300</v>
+        <v>817800</v>
       </c>
       <c r="G66" s="3">
-        <v>1046700</v>
+        <v>715600</v>
       </c>
       <c r="H66" s="3">
-        <v>635700</v>
+        <v>792000</v>
       </c>
       <c r="I66" s="3">
+        <v>1036000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>563000</v>
+      </c>
+      <c r="K66" s="3">
         <v>514900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>466600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>988400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>483100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>460800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>496500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>486200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>517800</v>
+        <v>533900</v>
       </c>
       <c r="E72" s="3">
-        <v>457000</v>
+        <v>523300</v>
       </c>
       <c r="F72" s="3">
-        <v>256000</v>
+        <v>458600</v>
       </c>
       <c r="G72" s="3">
-        <v>312400</v>
+        <v>404700</v>
       </c>
       <c r="H72" s="3">
-        <v>29500</v>
+        <v>226700</v>
       </c>
       <c r="I72" s="3">
+        <v>309200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K72" s="3">
         <v>15500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>217900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-24100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>900800</v>
+        <v>941400</v>
       </c>
       <c r="E76" s="3">
+        <v>930800</v>
+      </c>
+      <c r="F76" s="3">
         <v>797800</v>
       </c>
-      <c r="F76" s="3">
-        <v>568400</v>
-      </c>
       <c r="G76" s="3">
-        <v>704300</v>
+        <v>706600</v>
       </c>
       <c r="H76" s="3">
-        <v>39400</v>
+        <v>503400</v>
       </c>
       <c r="I76" s="3">
+        <v>697200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K76" s="3">
         <v>25400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>40700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>637600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4300</v>
+        <v>10500</v>
       </c>
       <c r="E81" s="3">
-        <v>201100</v>
+        <v>-4300</v>
       </c>
       <c r="F81" s="3">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="G81" s="3">
-        <v>36300</v>
+        <v>178100</v>
       </c>
       <c r="H81" s="3">
-        <v>56600</v>
+        <v>2800</v>
       </c>
       <c r="I81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K81" s="3">
         <v>60700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>51500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>101400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>17100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21600</v>
+        <v>19700</v>
       </c>
       <c r="E83" s="3">
-        <v>31800</v>
+        <v>22800</v>
       </c>
       <c r="F83" s="3">
-        <v>13800</v>
+        <v>19100</v>
       </c>
       <c r="G83" s="3">
-        <v>-900</v>
+        <v>28100</v>
       </c>
       <c r="H83" s="3">
-        <v>18800</v>
+        <v>18000</v>
       </c>
       <c r="I83" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K83" s="3">
         <v>24400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>42200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>23300</v>
+        <v>30700</v>
       </c>
       <c r="E89" s="3">
-        <v>93300</v>
+        <v>45400</v>
       </c>
       <c r="F89" s="3">
-        <v>10300</v>
+        <v>20600</v>
       </c>
       <c r="G89" s="3">
-        <v>-46200</v>
+        <v>82700</v>
       </c>
       <c r="H89" s="3">
-        <v>83000</v>
+        <v>13000</v>
       </c>
       <c r="I89" s="3">
+        <v>45500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K89" s="3">
         <v>131300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>69900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>121600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>19300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>27600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50600</v>
+        <v>-15500</v>
       </c>
       <c r="E91" s="3">
-        <v>-76800</v>
+        <v>-24300</v>
       </c>
       <c r="F91" s="3">
-        <v>-34500</v>
+        <v>-44800</v>
       </c>
       <c r="G91" s="3">
-        <v>-70300</v>
+        <v>-68100</v>
       </c>
       <c r="H91" s="3">
-        <v>-29100</v>
+        <v>-30600</v>
       </c>
       <c r="I91" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-37300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-24400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-24800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37100</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
-        <v>-47300</v>
+        <v>-800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-32900</v>
       </c>
       <c r="G94" s="3">
-        <v>-74900</v>
+        <v>-41900</v>
       </c>
       <c r="H94" s="3">
-        <v>-7200</v>
+        <v>-1900</v>
       </c>
       <c r="I94" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-55600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-43500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-43800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-25300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-21000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
-        <v>-28500</v>
+        <v>-47100</v>
       </c>
       <c r="F100" s="3">
-        <v>-8700</v>
+        <v>-1900</v>
       </c>
       <c r="G100" s="3">
-        <v>-19200</v>
+        <v>-25200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-7700</v>
       </c>
       <c r="I100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>22900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-3000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
-        <v>700</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15300</v>
+        <v>30700</v>
       </c>
       <c r="E102" s="3">
-        <v>18300</v>
+        <v>2800</v>
       </c>
       <c r="F102" s="3">
-        <v>700</v>
+        <v>-13600</v>
       </c>
       <c r="G102" s="3">
-        <v>-72900</v>
+        <v>16200</v>
       </c>
       <c r="H102" s="3">
-        <v>54300</v>
+        <v>900</v>
       </c>
       <c r="I102" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K102" s="3">
         <v>17000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300600</v>
+        <v>244000</v>
       </c>
       <c r="E8" s="3">
-        <v>375300</v>
+        <v>294700</v>
       </c>
       <c r="F8" s="3">
+        <v>347900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>327700</v>
+      </c>
+      <c r="H8" s="3">
         <v>353500</v>
       </c>
-      <c r="G8" s="3">
-        <v>587900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>345800</v>
-      </c>
       <c r="I8" s="3">
-        <v>347400</v>
+        <v>339000</v>
       </c>
       <c r="J8" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K8" s="3">
         <v>347600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>637600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>318100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>505300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>148100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>131900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>140500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>103700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>187500</v>
+        <v>160500</v>
       </c>
       <c r="E9" s="3">
-        <v>243100</v>
+        <v>183900</v>
       </c>
       <c r="F9" s="3">
-        <v>234800</v>
+        <v>225400</v>
       </c>
       <c r="G9" s="3">
-        <v>357100</v>
+        <v>217700</v>
       </c>
       <c r="H9" s="3">
-        <v>227000</v>
+        <v>198100</v>
       </c>
       <c r="I9" s="3">
-        <v>212600</v>
+        <v>222500</v>
       </c>
       <c r="J9" s="3">
+        <v>197000</v>
+      </c>
+      <c r="K9" s="3">
         <v>204700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>339000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>159500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>265700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>66300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>33900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>113100</v>
+        <v>83400</v>
       </c>
       <c r="E10" s="3">
-        <v>132200</v>
+        <v>110800</v>
       </c>
       <c r="F10" s="3">
-        <v>118700</v>
+        <v>122500</v>
       </c>
       <c r="G10" s="3">
-        <v>230800</v>
+        <v>110000</v>
       </c>
       <c r="H10" s="3">
-        <v>118800</v>
+        <v>155400</v>
       </c>
       <c r="I10" s="3">
-        <v>134800</v>
+        <v>116500</v>
       </c>
       <c r="J10" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K10" s="3">
         <v>142800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>298500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>158600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>239600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>69500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>56800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>74200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>69800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-23900</v>
+        <v>-20200</v>
       </c>
       <c r="E14" s="3">
-        <v>-38900</v>
+        <v>-23300</v>
       </c>
       <c r="F14" s="3">
-        <v>-28800</v>
+        <v>-36100</v>
       </c>
       <c r="G14" s="3">
-        <v>-95200</v>
+        <v>-26700</v>
       </c>
       <c r="H14" s="3">
-        <v>-71200</v>
+        <v>-42100</v>
       </c>
       <c r="I14" s="3">
-        <v>-65100</v>
+        <v>-69500</v>
       </c>
       <c r="J14" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-59700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-70900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-30200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-125300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
         <v>-29500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>19700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>24200</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>18300</v>
+      </c>
+      <c r="F15" s="3">
+        <v>22400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J15" s="3">
         <v>18000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2200</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
       </c>
       <c r="L15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M15" s="3">
         <v>11700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>42200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>253900</v>
+        <v>255900</v>
       </c>
       <c r="E17" s="3">
-        <v>344200</v>
+        <v>248900</v>
       </c>
       <c r="F17" s="3">
-        <v>291000</v>
+        <v>319100</v>
       </c>
       <c r="G17" s="3">
-        <v>465000</v>
+        <v>269700</v>
       </c>
       <c r="H17" s="3">
-        <v>274400</v>
+        <v>278700</v>
       </c>
       <c r="I17" s="3">
-        <v>309300</v>
+        <v>269100</v>
       </c>
       <c r="J17" s="3">
+        <v>286700</v>
+      </c>
+      <c r="K17" s="3">
         <v>254400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>469400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>221800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>367000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>131300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>119100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46700</v>
+        <v>-11900</v>
       </c>
       <c r="E18" s="3">
-        <v>31100</v>
+        <v>45800</v>
       </c>
       <c r="F18" s="3">
-        <v>62500</v>
+        <v>28800</v>
       </c>
       <c r="G18" s="3">
-        <v>122900</v>
+        <v>58000</v>
       </c>
       <c r="H18" s="3">
-        <v>71300</v>
+        <v>74900</v>
       </c>
       <c r="I18" s="3">
-        <v>38100</v>
+        <v>69900</v>
       </c>
       <c r="J18" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K18" s="3">
         <v>93100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>168100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11700</v>
+        <v>-27200</v>
       </c>
       <c r="E20" s="3">
-        <v>20100</v>
+        <v>-12200</v>
       </c>
       <c r="F20" s="3">
-        <v>-34200</v>
+        <v>18600</v>
       </c>
       <c r="G20" s="3">
-        <v>162500</v>
+        <v>-31700</v>
       </c>
       <c r="H20" s="3">
+        <v>235800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-32600</v>
       </c>
-      <c r="I20" s="3">
-        <v>-38900</v>
-      </c>
       <c r="J20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-70200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54700</v>
+        <v>-18600</v>
       </c>
       <c r="E21" s="3">
-        <v>74000</v>
+        <v>51900</v>
       </c>
       <c r="F21" s="3">
-        <v>47500</v>
+        <v>68600</v>
       </c>
       <c r="G21" s="3">
-        <v>313500</v>
+        <v>32800</v>
       </c>
       <c r="H21" s="3">
-        <v>56800</v>
+        <v>331200</v>
       </c>
       <c r="I21" s="3">
-        <v>18600</v>
+        <v>54000</v>
       </c>
       <c r="J21" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K21" s="3">
         <v>100000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>122400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>160200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>32100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>12000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>31000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>11100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>28700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>12700</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>23500</v>
+        <v>11800</v>
       </c>
       <c r="J22" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22900</v>
+        <v>-39100</v>
       </c>
       <c r="E23" s="3">
-        <v>20200</v>
+        <v>22500</v>
       </c>
       <c r="F23" s="3">
-        <v>28300</v>
+        <v>18700</v>
       </c>
       <c r="G23" s="3">
-        <v>285400</v>
+        <v>26300</v>
       </c>
       <c r="H23" s="3">
-        <v>26100</v>
+        <v>310700</v>
       </c>
       <c r="I23" s="3">
-        <v>-24300</v>
+        <v>25600</v>
       </c>
       <c r="J23" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K23" s="3">
         <v>78800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>25700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12400</v>
+        <v>-4400</v>
       </c>
       <c r="E24" s="3">
-        <v>24400</v>
+        <v>12200</v>
       </c>
       <c r="F24" s="3">
-        <v>24500</v>
+        <v>22600</v>
       </c>
       <c r="G24" s="3">
-        <v>107300</v>
+        <v>22700</v>
       </c>
       <c r="H24" s="3">
-        <v>23200</v>
+        <v>103600</v>
       </c>
       <c r="I24" s="3">
-        <v>-17200</v>
+        <v>22800</v>
       </c>
       <c r="J24" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K24" s="3">
         <v>28700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>24600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10500</v>
+        <v>-34700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4300</v>
+        <v>10300</v>
       </c>
       <c r="F26" s="3">
-        <v>3800</v>
+        <v>-4000</v>
       </c>
       <c r="G26" s="3">
-        <v>178100</v>
+        <v>3500</v>
       </c>
       <c r="H26" s="3">
+        <v>207000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K26" s="3">
         <v>50100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>51500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>101400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>17100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10500</v>
+        <v>-34700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4300</v>
+        <v>10300</v>
       </c>
       <c r="F27" s="3">
-        <v>3800</v>
+        <v>-4000</v>
       </c>
       <c r="G27" s="3">
-        <v>178100</v>
+        <v>3500</v>
       </c>
       <c r="H27" s="3">
+        <v>207000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K27" s="3">
         <v>50100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>51500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11700</v>
+        <v>27200</v>
       </c>
       <c r="E32" s="3">
-        <v>-20100</v>
+        <v>12200</v>
       </c>
       <c r="F32" s="3">
-        <v>34200</v>
+        <v>-18600</v>
       </c>
       <c r="G32" s="3">
-        <v>-162500</v>
+        <v>31700</v>
       </c>
       <c r="H32" s="3">
+        <v>-235800</v>
+      </c>
+      <c r="I32" s="3">
         <v>32600</v>
       </c>
-      <c r="I32" s="3">
-        <v>38900</v>
-      </c>
       <c r="J32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K32" s="3">
         <v>9800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>70200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10500</v>
+        <v>-34700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4300</v>
+        <v>10300</v>
       </c>
       <c r="F33" s="3">
-        <v>3800</v>
+        <v>-4000</v>
       </c>
       <c r="G33" s="3">
-        <v>178100</v>
+        <v>3500</v>
       </c>
       <c r="H33" s="3">
+        <v>207000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K33" s="3">
         <v>50100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>101400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10500</v>
+        <v>-34700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4300</v>
+        <v>10300</v>
       </c>
       <c r="F35" s="3">
-        <v>3800</v>
+        <v>-4000</v>
       </c>
       <c r="G35" s="3">
-        <v>178100</v>
+        <v>3500</v>
       </c>
       <c r="H35" s="3">
+        <v>207000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K35" s="3">
         <v>50100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>101400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,408 +2226,433 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>37200</v>
+        <v>77100</v>
       </c>
       <c r="E41" s="3">
-        <v>50300</v>
+        <v>34500</v>
       </c>
       <c r="F41" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="G41" s="3">
-        <v>48200</v>
+        <v>42800</v>
       </c>
       <c r="H41" s="3">
-        <v>1800</v>
+        <v>44700</v>
       </c>
       <c r="I41" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K41" s="3">
         <v>58600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>59000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>48800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>26200</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>47800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>101200</v>
+        <v>44300</v>
       </c>
       <c r="J42" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K42" s="3">
         <v>60800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>57400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>42400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>10200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>221500</v>
+        <v>194100</v>
       </c>
       <c r="E43" s="3">
-        <v>198900</v>
+        <v>205300</v>
       </c>
       <c r="F43" s="3">
-        <v>219300</v>
+        <v>195000</v>
       </c>
       <c r="G43" s="3">
-        <v>173600</v>
+        <v>203300</v>
       </c>
       <c r="H43" s="3">
-        <v>161200</v>
+        <v>160900</v>
       </c>
       <c r="I43" s="3">
-        <v>345200</v>
+        <v>149400</v>
       </c>
       <c r="J43" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K43" s="3">
         <v>137600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>134400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>197800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>113700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>124100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="E44" s="3">
-        <v>30300</v>
+        <v>24300</v>
       </c>
       <c r="F44" s="3">
-        <v>26500</v>
+        <v>29700</v>
       </c>
       <c r="G44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I44" s="3">
         <v>24700</v>
       </c>
-      <c r="H44" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>28400</v>
-      </c>
       <c r="J44" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K44" s="3">
         <v>12200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
         <v>1700</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G45" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="K45" s="3">
         <v>1100</v>
       </c>
       <c r="L45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>800</v>
       </c>
       <c r="R45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>315000</v>
+        <v>300500</v>
       </c>
       <c r="E46" s="3">
-        <v>281300</v>
+        <v>292000</v>
       </c>
       <c r="F46" s="3">
-        <v>293900</v>
+        <v>275800</v>
       </c>
       <c r="G46" s="3">
-        <v>248900</v>
+        <v>272400</v>
       </c>
       <c r="H46" s="3">
-        <v>238900</v>
+        <v>230700</v>
       </c>
       <c r="I46" s="3">
-        <v>308500</v>
+        <v>221400</v>
       </c>
       <c r="J46" s="3">
+        <v>286000</v>
+      </c>
+      <c r="K46" s="3">
         <v>270300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>234800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>225600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>315400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>164800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>158200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>177300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>173400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>500</v>
-      </c>
-      <c r="E47" s="3">
-        <v>600</v>
       </c>
       <c r="F47" s="3">
         <v>600</v>
       </c>
       <c r="G47" s="3">
-        <v>11800</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="I47" s="3">
-        <v>18200</v>
+        <v>11000</v>
       </c>
       <c r="J47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K47" s="3">
         <v>30800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1598700</v>
+        <v>1582100</v>
       </c>
       <c r="E48" s="3">
-        <v>1598200</v>
+        <v>1481800</v>
       </c>
       <c r="F48" s="3">
-        <v>1321200</v>
+        <v>1567000</v>
       </c>
       <c r="G48" s="3">
-        <v>1161500</v>
+        <v>1224700</v>
       </c>
       <c r="H48" s="3">
-        <v>1044700</v>
+        <v>1076600</v>
       </c>
       <c r="I48" s="3">
-        <v>1406400</v>
+        <v>968400</v>
       </c>
       <c r="J48" s="3">
+        <v>1303600</v>
+      </c>
+      <c r="K48" s="3">
         <v>269400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>278500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>258100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1309000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>313000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>292000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>310400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>293100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2713,35 +2833,38 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>27300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1914200</v>
+        <v>1883300</v>
       </c>
       <c r="E54" s="3">
-        <v>1880000</v>
+        <v>1774300</v>
       </c>
       <c r="F54" s="3">
-        <v>1615700</v>
+        <v>1843400</v>
       </c>
       <c r="G54" s="3">
-        <v>1422200</v>
+        <v>1497600</v>
       </c>
       <c r="H54" s="3">
-        <v>1295500</v>
+        <v>1318300</v>
       </c>
       <c r="I54" s="3">
-        <v>1733200</v>
+        <v>1200800</v>
       </c>
       <c r="J54" s="3">
+        <v>1606500</v>
+      </c>
+      <c r="K54" s="3">
         <v>597900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>540300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>507300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1626000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>507100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>477800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>517600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>495700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>232900</v>
+        <v>292500</v>
       </c>
       <c r="E57" s="3">
-        <v>199900</v>
+        <v>215800</v>
       </c>
       <c r="F57" s="3">
-        <v>184000</v>
+        <v>196000</v>
       </c>
       <c r="G57" s="3">
-        <v>192100</v>
+        <v>170600</v>
       </c>
       <c r="H57" s="3">
-        <v>272600</v>
+        <v>178100</v>
       </c>
       <c r="I57" s="3">
-        <v>328900</v>
+        <v>252700</v>
       </c>
       <c r="J57" s="3">
+        <v>304800</v>
+      </c>
+      <c r="K57" s="3">
         <v>219000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>202200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>183300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>311500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>186600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>181900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>186800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>178600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32800</v>
+        <v>17600</v>
       </c>
       <c r="E58" s="3">
-        <v>28200</v>
+        <v>30400</v>
       </c>
       <c r="F58" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="G58" s="3">
-        <v>18900</v>
+        <v>27400</v>
       </c>
       <c r="H58" s="3">
-        <v>23400</v>
+        <v>17500</v>
       </c>
       <c r="I58" s="3">
-        <v>24300</v>
+        <v>21700</v>
       </c>
       <c r="J58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122200</v>
+        <v>104500</v>
       </c>
       <c r="E59" s="3">
-        <v>158800</v>
+        <v>113300</v>
       </c>
       <c r="F59" s="3">
-        <v>119400</v>
+        <v>155700</v>
       </c>
       <c r="G59" s="3">
-        <v>112400</v>
+        <v>110600</v>
       </c>
       <c r="H59" s="3">
-        <v>68100</v>
+        <v>104200</v>
       </c>
       <c r="I59" s="3">
-        <v>119100</v>
+        <v>63100</v>
       </c>
       <c r="J59" s="3">
+        <v>110400</v>
+      </c>
+      <c r="K59" s="3">
         <v>68300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>69400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>62700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>387900</v>
+        <v>414600</v>
       </c>
       <c r="E60" s="3">
-        <v>386800</v>
+        <v>359500</v>
       </c>
       <c r="F60" s="3">
-        <v>332900</v>
+        <v>379300</v>
       </c>
       <c r="G60" s="3">
-        <v>323400</v>
+        <v>308600</v>
       </c>
       <c r="H60" s="3">
-        <v>364200</v>
+        <v>299800</v>
       </c>
       <c r="I60" s="3">
-        <v>472200</v>
+        <v>337600</v>
       </c>
       <c r="J60" s="3">
+        <v>437700</v>
+      </c>
+      <c r="K60" s="3">
         <v>292400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>270600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>245200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>424800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>259100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>245900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>249700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>250400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>129200</v>
+        <v>129400</v>
       </c>
       <c r="E61" s="3">
-        <v>129000</v>
+        <v>119800</v>
       </c>
       <c r="F61" s="3">
-        <v>148500</v>
+        <v>126500</v>
       </c>
       <c r="G61" s="3">
-        <v>109400</v>
+        <v>137600</v>
       </c>
       <c r="H61" s="3">
-        <v>119700</v>
+        <v>101400</v>
       </c>
       <c r="I61" s="3">
-        <v>161900</v>
+        <v>110900</v>
       </c>
       <c r="J61" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K61" s="3">
         <v>136000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>107300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>74800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>142000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>66600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>70200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>72500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>455800</v>
+        <v>451000</v>
       </c>
       <c r="E62" s="3">
-        <v>433400</v>
+        <v>422400</v>
       </c>
       <c r="F62" s="3">
-        <v>336400</v>
+        <v>424900</v>
       </c>
       <c r="G62" s="3">
-        <v>282800</v>
+        <v>311800</v>
       </c>
       <c r="H62" s="3">
-        <v>308200</v>
+        <v>262100</v>
       </c>
       <c r="I62" s="3">
-        <v>401900</v>
+        <v>285700</v>
       </c>
       <c r="J62" s="3">
+        <v>372500</v>
+      </c>
+      <c r="K62" s="3">
         <v>134600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>146600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>421700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>154700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>148400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>176600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>163300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>972800</v>
+        <v>995000</v>
       </c>
       <c r="E66" s="3">
-        <v>949200</v>
+        <v>901700</v>
       </c>
       <c r="F66" s="3">
-        <v>817800</v>
+        <v>930700</v>
       </c>
       <c r="G66" s="3">
-        <v>715600</v>
+        <v>758100</v>
       </c>
       <c r="H66" s="3">
-        <v>792000</v>
+        <v>663300</v>
       </c>
       <c r="I66" s="3">
-        <v>1036000</v>
+        <v>734200</v>
       </c>
       <c r="J66" s="3">
+        <v>960300</v>
+      </c>
+      <c r="K66" s="3">
         <v>563000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>514900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>466600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>988400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>483100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>460800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>496500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>486200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>533900</v>
+        <v>488800</v>
       </c>
       <c r="E72" s="3">
-        <v>523300</v>
+        <v>494900</v>
       </c>
       <c r="F72" s="3">
-        <v>458600</v>
+        <v>513100</v>
       </c>
       <c r="G72" s="3">
-        <v>404700</v>
+        <v>425100</v>
       </c>
       <c r="H72" s="3">
-        <v>226700</v>
+        <v>375200</v>
       </c>
       <c r="I72" s="3">
-        <v>309200</v>
+        <v>210100</v>
       </c>
       <c r="J72" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K72" s="3">
         <v>26100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>217900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>941400</v>
+        <v>888300</v>
       </c>
       <c r="E76" s="3">
-        <v>930800</v>
+        <v>872600</v>
       </c>
       <c r="F76" s="3">
-        <v>797800</v>
+        <v>912700</v>
       </c>
       <c r="G76" s="3">
-        <v>706600</v>
+        <v>739500</v>
       </c>
       <c r="H76" s="3">
-        <v>503400</v>
+        <v>655000</v>
       </c>
       <c r="I76" s="3">
-        <v>697200</v>
+        <v>466600</v>
       </c>
       <c r="J76" s="3">
+        <v>646200</v>
+      </c>
+      <c r="K76" s="3">
         <v>34900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>637600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10500</v>
+        <v>-34700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4300</v>
+        <v>10300</v>
       </c>
       <c r="F81" s="3">
-        <v>3800</v>
+        <v>-4000</v>
       </c>
       <c r="G81" s="3">
-        <v>178100</v>
+        <v>3500</v>
       </c>
       <c r="H81" s="3">
+        <v>207000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
-        <v>-7100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K81" s="3">
         <v>50100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>101400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19700</v>
+        <v>20600</v>
       </c>
       <c r="E83" s="3">
-        <v>22800</v>
+        <v>18300</v>
       </c>
       <c r="F83" s="3">
-        <v>19100</v>
+        <v>21200</v>
       </c>
       <c r="G83" s="3">
-        <v>28100</v>
+        <v>6600</v>
       </c>
       <c r="H83" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J83" s="3">
         <v>18000</v>
       </c>
-      <c r="I83" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>16700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>42200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30700</v>
+        <v>70200</v>
       </c>
       <c r="E89" s="3">
-        <v>45400</v>
+        <v>28500</v>
       </c>
       <c r="F89" s="3">
-        <v>20600</v>
+        <v>42100</v>
       </c>
       <c r="G89" s="3">
-        <v>82700</v>
+        <v>-13700</v>
       </c>
       <c r="H89" s="3">
-        <v>13000</v>
+        <v>97300</v>
       </c>
       <c r="I89" s="3">
-        <v>45500</v>
+        <v>12100</v>
       </c>
       <c r="J89" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K89" s="3">
         <v>73600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>131300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>69900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>121600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15500</v>
+        <v>-33100</v>
       </c>
       <c r="E91" s="3">
-        <v>-24300</v>
+        <v>-14300</v>
       </c>
       <c r="F91" s="3">
-        <v>-44800</v>
+        <v>-22600</v>
       </c>
       <c r="G91" s="3">
-        <v>-68100</v>
+        <v>-41500</v>
       </c>
       <c r="H91" s="3">
-        <v>-30600</v>
+        <v>-34800</v>
       </c>
       <c r="I91" s="3">
-        <v>-62300</v>
+        <v>-28300</v>
       </c>
       <c r="J91" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1300</v>
+        <v>-4600</v>
       </c>
       <c r="E94" s="3">
-        <v>-800</v>
+        <v>1200</v>
       </c>
       <c r="F94" s="3">
-        <v>-32900</v>
+        <v>-700</v>
       </c>
       <c r="G94" s="3">
-        <v>-41900</v>
+        <v>-30500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1900</v>
+        <v>-37000</v>
       </c>
       <c r="I94" s="3">
-        <v>-66300</v>
+        <v>-1700</v>
       </c>
       <c r="J94" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-21000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,91 +5058,97 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>-22500</v>
       </c>
       <c r="E100" s="3">
-        <v>-47100</v>
+        <v>-900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1900</v>
+        <v>-43600</v>
       </c>
       <c r="G100" s="3">
-        <v>-25200</v>
+        <v>-1800</v>
       </c>
       <c r="H100" s="3">
-        <v>-7700</v>
+        <v>-16200</v>
       </c>
       <c r="I100" s="3">
-        <v>-17000</v>
+        <v>-7100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-15500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>22900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-3000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>5300</v>
-      </c>
       <c r="F101" s="3">
-        <v>600</v>
+        <v>4900</v>
       </c>
       <c r="G101" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
-        <v>1600</v>
+        <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>-2100</v>
+        <v>1500</v>
       </c>
       <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>5200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4907,62 +5156,68 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30700</v>
+        <v>42200</v>
       </c>
       <c r="E102" s="3">
-        <v>2800</v>
+        <v>28500</v>
       </c>
       <c r="F102" s="3">
-        <v>-13600</v>
+        <v>2600</v>
       </c>
       <c r="G102" s="3">
-        <v>16200</v>
+        <v>-19000</v>
       </c>
       <c r="H102" s="3">
-        <v>900</v>
+        <v>20600</v>
       </c>
       <c r="I102" s="3">
-        <v>-64500</v>
+        <v>800</v>
       </c>
       <c r="J102" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K102" s="3">
         <v>48100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>244000</v>
+        <v>284200</v>
       </c>
       <c r="E8" s="3">
-        <v>294700</v>
+        <v>529200</v>
       </c>
       <c r="F8" s="3">
-        <v>347900</v>
+        <v>268000</v>
       </c>
       <c r="G8" s="3">
-        <v>327700</v>
+        <v>316400</v>
       </c>
       <c r="H8" s="3">
-        <v>353500</v>
+        <v>376000</v>
       </c>
       <c r="I8" s="3">
-        <v>339000</v>
+        <v>713500</v>
       </c>
       <c r="J8" s="3">
+        <v>308300</v>
+      </c>
+      <c r="K8" s="3">
         <v>322000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>347600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>637600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>318100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>505300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>148100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>131900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>140500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>103700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>160500</v>
+        <v>176500</v>
       </c>
       <c r="E9" s="3">
-        <v>183900</v>
+        <v>338400</v>
       </c>
       <c r="F9" s="3">
-        <v>225400</v>
+        <v>167200</v>
       </c>
       <c r="G9" s="3">
-        <v>217700</v>
+        <v>204900</v>
       </c>
       <c r="H9" s="3">
-        <v>198100</v>
+        <v>238600</v>
       </c>
       <c r="I9" s="3">
-        <v>222500</v>
+        <v>446400</v>
       </c>
       <c r="J9" s="3">
+        <v>202400</v>
+      </c>
+      <c r="K9" s="3">
         <v>197000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>204700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>339000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>159500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>265700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>75200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>66300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83400</v>
+        <v>107700</v>
       </c>
       <c r="E10" s="3">
-        <v>110800</v>
+        <v>190900</v>
       </c>
       <c r="F10" s="3">
-        <v>122500</v>
+        <v>100800</v>
       </c>
       <c r="G10" s="3">
-        <v>110000</v>
+        <v>111400</v>
       </c>
       <c r="H10" s="3">
-        <v>155400</v>
+        <v>137400</v>
       </c>
       <c r="I10" s="3">
-        <v>116500</v>
+        <v>267100</v>
       </c>
       <c r="J10" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K10" s="3">
         <v>125000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>142800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>298500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>158600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>239600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>69500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>74200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>69800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-20200</v>
+        <v>-30600</v>
       </c>
       <c r="E14" s="3">
-        <v>-23300</v>
+        <v>-43500</v>
       </c>
       <c r="F14" s="3">
-        <v>-36100</v>
+        <v>-21400</v>
       </c>
       <c r="G14" s="3">
-        <v>-26700</v>
+        <v>-32800</v>
       </c>
       <c r="H14" s="3">
-        <v>-42100</v>
+        <v>-33400</v>
       </c>
       <c r="I14" s="3">
-        <v>-69500</v>
+        <v>-110300</v>
       </c>
       <c r="J14" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-60300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-59700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-70900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-30200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-125300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>-29500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>18300</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>22400</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>16600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>20400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>16700</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K15" s="3">
         <v>18000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>2200</v>
       </c>
       <c r="L15" s="3">
         <v>2200</v>
       </c>
       <c r="M15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N15" s="3">
         <v>11700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>255900</v>
+        <v>245300</v>
       </c>
       <c r="E17" s="3">
-        <v>248900</v>
+        <v>487700</v>
       </c>
       <c r="F17" s="3">
-        <v>319100</v>
+        <v>226400</v>
       </c>
       <c r="G17" s="3">
-        <v>269700</v>
+        <v>290100</v>
       </c>
       <c r="H17" s="3">
-        <v>278700</v>
+        <v>298900</v>
       </c>
       <c r="I17" s="3">
-        <v>269100</v>
+        <v>564000</v>
       </c>
       <c r="J17" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K17" s="3">
         <v>286700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>254400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>469400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>221800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>367000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>119100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>70200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11900</v>
+        <v>38900</v>
       </c>
       <c r="E18" s="3">
-        <v>45800</v>
+        <v>41500</v>
       </c>
       <c r="F18" s="3">
-        <v>28800</v>
+        <v>41600</v>
       </c>
       <c r="G18" s="3">
-        <v>58000</v>
+        <v>26200</v>
       </c>
       <c r="H18" s="3">
-        <v>74900</v>
+        <v>77100</v>
       </c>
       <c r="I18" s="3">
-        <v>69900</v>
+        <v>149500</v>
       </c>
       <c r="J18" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K18" s="3">
         <v>35300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>93100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>168100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>138300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27200</v>
+        <v>-30100</v>
       </c>
       <c r="E20" s="3">
-        <v>-12200</v>
+        <v>-57900</v>
       </c>
       <c r="F20" s="3">
-        <v>18600</v>
+        <v>-11100</v>
       </c>
       <c r="G20" s="3">
-        <v>-31700</v>
+        <v>16900</v>
       </c>
       <c r="H20" s="3">
-        <v>235800</v>
+        <v>-44400</v>
       </c>
       <c r="I20" s="3">
-        <v>-32600</v>
+        <v>180800</v>
       </c>
       <c r="J20" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-70200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18600</v>
+        <v>30800</v>
       </c>
       <c r="E21" s="3">
-        <v>51900</v>
+        <v>19000</v>
       </c>
       <c r="F21" s="3">
-        <v>68600</v>
+        <v>47200</v>
       </c>
       <c r="G21" s="3">
-        <v>32800</v>
+        <v>47500</v>
       </c>
       <c r="H21" s="3">
-        <v>331200</v>
+        <v>53600</v>
       </c>
       <c r="I21" s="3">
-        <v>54000</v>
+        <v>364200</v>
       </c>
       <c r="J21" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K21" s="3">
         <v>17200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>122400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>93200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>160200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>32100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>11100</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>10100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>26100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>11800</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K22" s="3">
         <v>21800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-39100</v>
+        <v>8900</v>
       </c>
       <c r="E23" s="3">
-        <v>22500</v>
+        <v>-16400</v>
       </c>
       <c r="F23" s="3">
-        <v>18700</v>
+        <v>20500</v>
       </c>
       <c r="G23" s="3">
-        <v>26300</v>
+        <v>17000</v>
       </c>
       <c r="H23" s="3">
-        <v>310700</v>
+        <v>32700</v>
       </c>
       <c r="I23" s="3">
-        <v>25600</v>
+        <v>330300</v>
       </c>
       <c r="J23" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>95500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>25700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4400</v>
+        <v>7600</v>
       </c>
       <c r="E24" s="3">
-        <v>12200</v>
+        <v>7600</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>11100</v>
       </c>
       <c r="G24" s="3">
-        <v>22700</v>
+        <v>20600</v>
       </c>
       <c r="H24" s="3">
-        <v>103600</v>
+        <v>28400</v>
       </c>
       <c r="I24" s="3">
-        <v>22800</v>
+        <v>124200</v>
       </c>
       <c r="J24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-15900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>24600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-34700</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
-        <v>10300</v>
+        <v>-23900</v>
       </c>
       <c r="F26" s="3">
-        <v>-4000</v>
+        <v>9400</v>
       </c>
       <c r="G26" s="3">
-        <v>3500</v>
+        <v>-3600</v>
       </c>
       <c r="H26" s="3">
-        <v>207000</v>
+        <v>4400</v>
       </c>
       <c r="I26" s="3">
-        <v>2800</v>
+        <v>206100</v>
       </c>
       <c r="J26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>101400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>17100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-34700</v>
+        <v>1200</v>
       </c>
       <c r="E27" s="3">
-        <v>10300</v>
+        <v>-23900</v>
       </c>
       <c r="F27" s="3">
-        <v>-4000</v>
+        <v>9400</v>
       </c>
       <c r="G27" s="3">
-        <v>3500</v>
+        <v>-3600</v>
       </c>
       <c r="H27" s="3">
-        <v>207000</v>
+        <v>4400</v>
       </c>
       <c r="I27" s="3">
-        <v>2800</v>
+        <v>206100</v>
       </c>
       <c r="J27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>51500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>17100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27200</v>
+        <v>30100</v>
       </c>
       <c r="E32" s="3">
-        <v>12200</v>
+        <v>57900</v>
       </c>
       <c r="F32" s="3">
-        <v>-18600</v>
+        <v>11100</v>
       </c>
       <c r="G32" s="3">
-        <v>31700</v>
+        <v>-16900</v>
       </c>
       <c r="H32" s="3">
-        <v>-235800</v>
+        <v>44400</v>
       </c>
       <c r="I32" s="3">
-        <v>32600</v>
+        <v>-180800</v>
       </c>
       <c r="J32" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K32" s="3">
         <v>36000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>70200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34700</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="3">
-        <v>10300</v>
+        <v>-23900</v>
       </c>
       <c r="F33" s="3">
-        <v>-4000</v>
+        <v>9400</v>
       </c>
       <c r="G33" s="3">
-        <v>3500</v>
+        <v>-3600</v>
       </c>
       <c r="H33" s="3">
-        <v>207000</v>
+        <v>4400</v>
       </c>
       <c r="I33" s="3">
-        <v>2800</v>
+        <v>206100</v>
       </c>
       <c r="J33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>101400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>17100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34700</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="3">
-        <v>10300</v>
+        <v>-23900</v>
       </c>
       <c r="F35" s="3">
-        <v>-4000</v>
+        <v>9400</v>
       </c>
       <c r="G35" s="3">
-        <v>3500</v>
+        <v>-3600</v>
       </c>
       <c r="H35" s="3">
-        <v>207000</v>
+        <v>4400</v>
       </c>
       <c r="I35" s="3">
-        <v>2800</v>
+        <v>206100</v>
       </c>
       <c r="J35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>101400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>17100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77100</v>
+        <v>111100</v>
       </c>
       <c r="E41" s="3">
-        <v>34500</v>
+        <v>70100</v>
       </c>
       <c r="F41" s="3">
-        <v>47000</v>
+        <v>31300</v>
       </c>
       <c r="G41" s="3">
-        <v>42800</v>
+        <v>43200</v>
       </c>
       <c r="H41" s="3">
-        <v>44700</v>
+        <v>39000</v>
       </c>
       <c r="I41" s="3">
-        <v>1600</v>
+        <v>40600</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>59000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>26900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>48800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2289,370 +2379,391 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>26200</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>43000</v>
+        <v>23800</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>42300</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>44300</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K42" s="3">
         <v>93800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>60800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>57400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>42400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>10200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>194100</v>
+        <v>212600</v>
       </c>
       <c r="E43" s="3">
-        <v>205300</v>
+        <v>176500</v>
       </c>
       <c r="F43" s="3">
-        <v>195000</v>
+        <v>186700</v>
       </c>
       <c r="G43" s="3">
-        <v>203300</v>
+        <v>191600</v>
       </c>
       <c r="H43" s="3">
-        <v>160900</v>
+        <v>184800</v>
       </c>
       <c r="I43" s="3">
-        <v>149400</v>
+        <v>146300</v>
       </c>
       <c r="J43" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K43" s="3">
         <v>319900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>137600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>134400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>197800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>113700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>124100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>106000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>26700</v>
+        <v>22300</v>
       </c>
       <c r="E44" s="3">
         <v>24300</v>
       </c>
       <c r="F44" s="3">
-        <v>29700</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>24500</v>
+        <v>29200</v>
       </c>
       <c r="H44" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="I44" s="3">
-        <v>24700</v>
+        <v>20800</v>
       </c>
       <c r="J44" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K44" s="3">
         <v>26300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G45" s="3">
         <v>1700</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
       </c>
       <c r="L45" s="3">
         <v>1100</v>
       </c>
       <c r="M45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>800</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300500</v>
+        <v>348300</v>
       </c>
       <c r="E46" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="F46" s="3">
-        <v>275800</v>
+        <v>265500</v>
       </c>
       <c r="G46" s="3">
-        <v>272400</v>
+        <v>271000</v>
       </c>
       <c r="H46" s="3">
-        <v>230700</v>
+        <v>247700</v>
       </c>
       <c r="I46" s="3">
-        <v>221400</v>
+        <v>209800</v>
       </c>
       <c r="J46" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K46" s="3">
         <v>286000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>270300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>234800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>225600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>315400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>164800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>158200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>177300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>173400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
+        <v>400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>600</v>
+      </c>
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="L47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
-        <v>500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>600</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1582100</v>
+        <v>1570400</v>
       </c>
       <c r="E48" s="3">
-        <v>1481800</v>
+        <v>1438700</v>
       </c>
       <c r="F48" s="3">
-        <v>1567000</v>
+        <v>1347500</v>
       </c>
       <c r="G48" s="3">
-        <v>1224700</v>
+        <v>1539500</v>
       </c>
       <c r="H48" s="3">
-        <v>1076600</v>
+        <v>1113700</v>
       </c>
       <c r="I48" s="3">
-        <v>968400</v>
+        <v>979000</v>
       </c>
       <c r="J48" s="3">
+        <v>880600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1303600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>269400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>278500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>258100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1309000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>313000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>292000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>310400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>293100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>27200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1883300</v>
+        <v>1919100</v>
       </c>
       <c r="E54" s="3">
-        <v>1774300</v>
+        <v>1712600</v>
       </c>
       <c r="F54" s="3">
-        <v>1843400</v>
+        <v>1613400</v>
       </c>
       <c r="G54" s="3">
-        <v>1497600</v>
+        <v>1811000</v>
       </c>
       <c r="H54" s="3">
-        <v>1318300</v>
+        <v>1361800</v>
       </c>
       <c r="I54" s="3">
-        <v>1200800</v>
+        <v>1198800</v>
       </c>
       <c r="J54" s="3">
+        <v>1091900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1606500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>597900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>540300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>507300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1626000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>507100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>477800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>517600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>495700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>292500</v>
+        <v>396500</v>
       </c>
       <c r="E57" s="3">
-        <v>215800</v>
+        <v>266000</v>
       </c>
       <c r="F57" s="3">
-        <v>196000</v>
+        <v>196300</v>
       </c>
       <c r="G57" s="3">
-        <v>170600</v>
+        <v>192500</v>
       </c>
       <c r="H57" s="3">
-        <v>178100</v>
+        <v>155100</v>
       </c>
       <c r="I57" s="3">
-        <v>252700</v>
+        <v>161900</v>
       </c>
       <c r="J57" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K57" s="3">
         <v>304800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>219000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>202200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>183300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>311500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>186600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>181900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>186800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>178600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17600</v>
+        <v>19600</v>
       </c>
       <c r="E58" s="3">
-        <v>30400</v>
+        <v>16000</v>
       </c>
       <c r="F58" s="3">
-        <v>27700</v>
+        <v>27600</v>
       </c>
       <c r="G58" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="H58" s="3">
-        <v>17500</v>
+        <v>24900</v>
       </c>
       <c r="I58" s="3">
-        <v>21700</v>
+        <v>15900</v>
       </c>
       <c r="J58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K58" s="3">
         <v>22500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104500</v>
+        <v>91100</v>
       </c>
       <c r="E59" s="3">
-        <v>113300</v>
+        <v>95000</v>
       </c>
       <c r="F59" s="3">
-        <v>155700</v>
+        <v>103000</v>
       </c>
       <c r="G59" s="3">
-        <v>110600</v>
+        <v>152900</v>
       </c>
       <c r="H59" s="3">
-        <v>104200</v>
+        <v>100600</v>
       </c>
       <c r="I59" s="3">
-        <v>63100</v>
+        <v>94800</v>
       </c>
       <c r="J59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K59" s="3">
         <v>110400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>68300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>66700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>110900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>69400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>62700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>70400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>414600</v>
+        <v>507300</v>
       </c>
       <c r="E60" s="3">
-        <v>359500</v>
+        <v>377000</v>
       </c>
       <c r="F60" s="3">
-        <v>379300</v>
+        <v>326900</v>
       </c>
       <c r="G60" s="3">
-        <v>308600</v>
+        <v>372600</v>
       </c>
       <c r="H60" s="3">
-        <v>299800</v>
+        <v>280600</v>
       </c>
       <c r="I60" s="3">
-        <v>337600</v>
+        <v>272600</v>
       </c>
       <c r="J60" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K60" s="3">
         <v>437700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>292400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>270600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>245200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>424800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>259100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>245900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>249700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>250400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>129400</v>
+        <v>92300</v>
       </c>
       <c r="E61" s="3">
-        <v>119800</v>
+        <v>117700</v>
       </c>
       <c r="F61" s="3">
-        <v>126500</v>
+        <v>108900</v>
       </c>
       <c r="G61" s="3">
-        <v>137600</v>
+        <v>124300</v>
       </c>
       <c r="H61" s="3">
-        <v>101400</v>
+        <v>125100</v>
       </c>
       <c r="I61" s="3">
-        <v>110900</v>
+        <v>92200</v>
       </c>
       <c r="J61" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K61" s="3">
         <v>150100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>136000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>107300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>74800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>142000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>66600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>70200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>72500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>451000</v>
+        <v>445600</v>
       </c>
       <c r="E62" s="3">
-        <v>422400</v>
+        <v>410100</v>
       </c>
       <c r="F62" s="3">
-        <v>424900</v>
+        <v>384200</v>
       </c>
       <c r="G62" s="3">
-        <v>311800</v>
+        <v>417500</v>
       </c>
       <c r="H62" s="3">
-        <v>262100</v>
+        <v>283600</v>
       </c>
       <c r="I62" s="3">
-        <v>285700</v>
+        <v>238400</v>
       </c>
       <c r="J62" s="3">
+        <v>259800</v>
+      </c>
+      <c r="K62" s="3">
         <v>372500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>137000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>146600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>421700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>154700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>148400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>176600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>163300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>995000</v>
+        <v>1045200</v>
       </c>
       <c r="E66" s="3">
-        <v>901700</v>
+        <v>904800</v>
       </c>
       <c r="F66" s="3">
-        <v>930700</v>
+        <v>820000</v>
       </c>
       <c r="G66" s="3">
-        <v>758100</v>
+        <v>914400</v>
       </c>
       <c r="H66" s="3">
-        <v>663300</v>
+        <v>689400</v>
       </c>
       <c r="I66" s="3">
-        <v>734200</v>
+        <v>603200</v>
       </c>
       <c r="J66" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K66" s="3">
         <v>960300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>563000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>514900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>466600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>988400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>483100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>460800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>496500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>486200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>488800</v>
+        <v>481400</v>
       </c>
       <c r="E72" s="3">
-        <v>494900</v>
+        <v>444500</v>
       </c>
       <c r="F72" s="3">
-        <v>513100</v>
+        <v>450000</v>
       </c>
       <c r="G72" s="3">
-        <v>425100</v>
+        <v>504100</v>
       </c>
       <c r="H72" s="3">
-        <v>375200</v>
+        <v>386500</v>
       </c>
       <c r="I72" s="3">
-        <v>210100</v>
+        <v>341100</v>
       </c>
       <c r="J72" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K72" s="3">
         <v>286600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>217900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>888300</v>
+        <v>873900</v>
       </c>
       <c r="E76" s="3">
-        <v>872600</v>
+        <v>807800</v>
       </c>
       <c r="F76" s="3">
-        <v>912700</v>
+        <v>793500</v>
       </c>
       <c r="G76" s="3">
-        <v>739500</v>
+        <v>896600</v>
       </c>
       <c r="H76" s="3">
-        <v>655000</v>
+        <v>672500</v>
       </c>
       <c r="I76" s="3">
-        <v>466600</v>
+        <v>595600</v>
       </c>
       <c r="J76" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K76" s="3">
         <v>646200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>637600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34700</v>
+        <v>1200</v>
       </c>
       <c r="E81" s="3">
-        <v>10300</v>
+        <v>-23900</v>
       </c>
       <c r="F81" s="3">
-        <v>-4000</v>
+        <v>9400</v>
       </c>
       <c r="G81" s="3">
-        <v>3500</v>
+        <v>-3600</v>
       </c>
       <c r="H81" s="3">
-        <v>207000</v>
+        <v>4400</v>
       </c>
       <c r="I81" s="3">
-        <v>2800</v>
+        <v>206100</v>
       </c>
       <c r="J81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>101400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>17100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20600</v>
+        <v>22000</v>
       </c>
       <c r="E83" s="3">
-        <v>18300</v>
+        <v>35300</v>
       </c>
       <c r="F83" s="3">
-        <v>21200</v>
+        <v>16600</v>
       </c>
       <c r="G83" s="3">
-        <v>6600</v>
+        <v>4400</v>
       </c>
       <c r="H83" s="3">
-        <v>20500</v>
+        <v>20800</v>
       </c>
       <c r="I83" s="3">
+        <v>33800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L83" s="3">
         <v>16700</v>
       </c>
-      <c r="J83" s="3">
-        <v>18000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>16700</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>42200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>70200</v>
+        <v>123200</v>
       </c>
       <c r="E89" s="3">
-        <v>28500</v>
+        <v>89700</v>
       </c>
       <c r="F89" s="3">
-        <v>42100</v>
+        <v>25900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13700</v>
+        <v>5800</v>
       </c>
       <c r="H89" s="3">
-        <v>97300</v>
+        <v>20000</v>
       </c>
       <c r="I89" s="3">
-        <v>12100</v>
+        <v>99500</v>
       </c>
       <c r="J89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K89" s="3">
         <v>42200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>73600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>69900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>121600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>25200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33100</v>
+        <v>-36500</v>
       </c>
       <c r="E91" s="3">
-        <v>-14300</v>
+        <v>-43100</v>
       </c>
       <c r="F91" s="3">
-        <v>-22600</v>
+        <v>-13000</v>
       </c>
       <c r="G91" s="3">
-        <v>-41500</v>
+        <v>-20500</v>
       </c>
       <c r="H91" s="3">
-        <v>-34800</v>
+        <v>-37800</v>
       </c>
       <c r="I91" s="3">
-        <v>-28300</v>
+        <v>-57400</v>
       </c>
       <c r="J91" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-57700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4600</v>
+        <v>-39500</v>
       </c>
       <c r="E94" s="3">
-        <v>1200</v>
+        <v>-3100</v>
       </c>
       <c r="F94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-30500</v>
-      </c>
       <c r="H94" s="3">
-        <v>-37000</v>
+        <v>-27700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1700</v>
+        <v>-35300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-61500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-21000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22500</v>
+        <v>-42400</v>
       </c>
       <c r="E100" s="3">
-        <v>-900</v>
+        <v>-21300</v>
       </c>
       <c r="F100" s="3">
-        <v>-43600</v>
+        <v>-800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1800</v>
+        <v>-39700</v>
       </c>
       <c r="H100" s="3">
-        <v>-16200</v>
+        <v>-1600</v>
       </c>
       <c r="I100" s="3">
-        <v>-7100</v>
+        <v>-21300</v>
       </c>
       <c r="J100" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-15500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>22900</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,35 +5372,35 @@
         <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="F101" s="3">
-        <v>4900</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-700</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="J101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5159,65 +5408,71 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42200</v>
+        <v>40600</v>
       </c>
       <c r="E102" s="3">
-        <v>28500</v>
+        <v>64300</v>
       </c>
       <c r="F102" s="3">
-        <v>2600</v>
+        <v>25900</v>
       </c>
       <c r="G102" s="3">
-        <v>-19000</v>
+        <v>1500</v>
       </c>
       <c r="H102" s="3">
-        <v>20600</v>
+        <v>-16500</v>
       </c>
       <c r="I102" s="3">
-        <v>800</v>
+        <v>19500</v>
       </c>
       <c r="J102" s="3">
+        <v>700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-59800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>284200</v>
+        <v>277300</v>
       </c>
       <c r="E8" s="3">
-        <v>529200</v>
+        <v>251500</v>
       </c>
       <c r="F8" s="3">
-        <v>268000</v>
+        <v>468300</v>
       </c>
       <c r="G8" s="3">
-        <v>316400</v>
+        <v>237200</v>
       </c>
       <c r="H8" s="3">
-        <v>376000</v>
+        <v>372900</v>
       </c>
       <c r="I8" s="3">
-        <v>713500</v>
+        <v>332700</v>
       </c>
       <c r="J8" s="3">
+        <v>631400</v>
+      </c>
+      <c r="K8" s="3">
         <v>308300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>322000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>347600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>637600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>318100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>505300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>148100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>131900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>140500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>103700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>176500</v>
+        <v>176900</v>
       </c>
       <c r="E9" s="3">
-        <v>338400</v>
+        <v>156200</v>
       </c>
       <c r="F9" s="3">
-        <v>167200</v>
+        <v>299400</v>
       </c>
       <c r="G9" s="3">
-        <v>204900</v>
+        <v>148000</v>
       </c>
       <c r="H9" s="3">
-        <v>238600</v>
+        <v>241800</v>
       </c>
       <c r="I9" s="3">
-        <v>446400</v>
+        <v>211200</v>
       </c>
       <c r="J9" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K9" s="3">
         <v>202400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>197000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>204700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>339000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>159500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>75200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>66300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>33900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>107700</v>
+        <v>100400</v>
       </c>
       <c r="E10" s="3">
-        <v>190900</v>
+        <v>95300</v>
       </c>
       <c r="F10" s="3">
-        <v>100800</v>
+        <v>168900</v>
       </c>
       <c r="G10" s="3">
-        <v>111400</v>
+        <v>89200</v>
       </c>
       <c r="H10" s="3">
-        <v>137400</v>
+        <v>131200</v>
       </c>
       <c r="I10" s="3">
-        <v>267100</v>
+        <v>121500</v>
       </c>
       <c r="J10" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K10" s="3">
         <v>105900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>125000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>142800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>298500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>158600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>239600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>69500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>74200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>69800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-30600</v>
+        <v>149500</v>
       </c>
       <c r="E14" s="3">
-        <v>-43500</v>
+        <v>-27100</v>
       </c>
       <c r="F14" s="3">
-        <v>-21400</v>
+        <v>-38500</v>
       </c>
       <c r="G14" s="3">
-        <v>-32800</v>
+        <v>-18900</v>
       </c>
       <c r="H14" s="3">
-        <v>-33400</v>
+        <v>-38400</v>
       </c>
       <c r="I14" s="3">
-        <v>-110300</v>
+        <v>-29500</v>
       </c>
       <c r="J14" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-63200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-60300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-59700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-70900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-30200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-125300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>-29500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>23800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>16600</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>20400</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>14700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>15200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2200</v>
       </c>
       <c r="M15" s="3">
         <v>2200</v>
       </c>
       <c r="N15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O15" s="3">
         <v>11700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>245300</v>
+        <v>459300</v>
       </c>
       <c r="E17" s="3">
-        <v>487700</v>
+        <v>217100</v>
       </c>
       <c r="F17" s="3">
-        <v>226400</v>
+        <v>431600</v>
       </c>
       <c r="G17" s="3">
-        <v>290100</v>
+        <v>200300</v>
       </c>
       <c r="H17" s="3">
-        <v>298900</v>
+        <v>336500</v>
       </c>
       <c r="I17" s="3">
-        <v>564000</v>
+        <v>264500</v>
       </c>
       <c r="J17" s="3">
+        <v>499100</v>
+      </c>
+      <c r="K17" s="3">
         <v>244700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>286700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>254400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>469400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>221800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>367000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>131300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>125100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>119100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>70200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38900</v>
+        <v>-182000</v>
       </c>
       <c r="E18" s="3">
-        <v>41500</v>
+        <v>34400</v>
       </c>
       <c r="F18" s="3">
-        <v>41600</v>
+        <v>36800</v>
       </c>
       <c r="G18" s="3">
-        <v>26200</v>
+        <v>36800</v>
       </c>
       <c r="H18" s="3">
-        <v>77100</v>
+        <v>36400</v>
       </c>
       <c r="I18" s="3">
-        <v>149500</v>
+        <v>68200</v>
       </c>
       <c r="J18" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K18" s="3">
         <v>63600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>93100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>168100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>138300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>21400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30100</v>
+        <v>-32000</v>
       </c>
       <c r="E20" s="3">
-        <v>-57900</v>
+        <v>-26600</v>
       </c>
       <c r="F20" s="3">
-        <v>-11100</v>
+        <v>-51200</v>
       </c>
       <c r="G20" s="3">
-        <v>16900</v>
+        <v>-9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-44400</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
-        <v>180800</v>
+        <v>-39300</v>
       </c>
       <c r="J20" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-70200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>30800</v>
+        <v>-190200</v>
       </c>
       <c r="E21" s="3">
-        <v>19000</v>
+        <v>27300</v>
       </c>
       <c r="F21" s="3">
-        <v>47200</v>
+        <v>16800</v>
       </c>
       <c r="G21" s="3">
-        <v>47500</v>
+        <v>41800</v>
       </c>
       <c r="H21" s="3">
-        <v>53600</v>
+        <v>71800</v>
       </c>
       <c r="I21" s="3">
-        <v>364200</v>
+        <v>47400</v>
       </c>
       <c r="J21" s="3">
+        <v>322300</v>
+      </c>
+      <c r="K21" s="3">
         <v>49100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>122400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>93200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>160200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>32100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>11500</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>10100</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>26100</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>8900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>31200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>10700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8900</v>
+        <v>-225500</v>
       </c>
       <c r="E23" s="3">
-        <v>-16400</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
-        <v>20500</v>
+        <v>-14500</v>
       </c>
       <c r="G23" s="3">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>32700</v>
+        <v>17800</v>
       </c>
       <c r="I23" s="3">
-        <v>330300</v>
+        <v>29000</v>
       </c>
       <c r="J23" s="3">
+        <v>292300</v>
+      </c>
+      <c r="K23" s="3">
         <v>23200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>95500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>107100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>25700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>-52300</v>
       </c>
       <c r="E24" s="3">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="F24" s="3">
-        <v>11100</v>
+        <v>6700</v>
       </c>
       <c r="G24" s="3">
-        <v>20600</v>
+        <v>9800</v>
       </c>
       <c r="H24" s="3">
-        <v>28400</v>
+        <v>23700</v>
       </c>
       <c r="I24" s="3">
-        <v>124200</v>
+        <v>25100</v>
       </c>
       <c r="J24" s="3">
+        <v>109900</v>
+      </c>
+      <c r="K24" s="3">
         <v>20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-15900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>24600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>-173200</v>
       </c>
       <c r="E26" s="3">
-        <v>-23900</v>
+        <v>1100</v>
       </c>
       <c r="F26" s="3">
-        <v>9400</v>
+        <v>-21200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3600</v>
+        <v>8300</v>
       </c>
       <c r="H26" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="I26" s="3">
-        <v>206100</v>
+        <v>3900</v>
       </c>
       <c r="J26" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>60700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>101400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>17100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1200</v>
+        <v>-173200</v>
       </c>
       <c r="E27" s="3">
-        <v>-23900</v>
+        <v>1100</v>
       </c>
       <c r="F27" s="3">
-        <v>9400</v>
+        <v>-21200</v>
       </c>
       <c r="G27" s="3">
-        <v>-3600</v>
+        <v>8300</v>
       </c>
       <c r="H27" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="I27" s="3">
-        <v>206100</v>
+        <v>3900</v>
       </c>
       <c r="J27" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>50100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>60700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>17100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30100</v>
+        <v>32000</v>
       </c>
       <c r="E32" s="3">
-        <v>57900</v>
+        <v>26600</v>
       </c>
       <c r="F32" s="3">
-        <v>11100</v>
+        <v>51200</v>
       </c>
       <c r="G32" s="3">
-        <v>-16900</v>
+        <v>9800</v>
       </c>
       <c r="H32" s="3">
-        <v>44400</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
-        <v>-180800</v>
+        <v>39300</v>
       </c>
       <c r="J32" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="K32" s="3">
         <v>29700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>70200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1200</v>
+        <v>-173200</v>
       </c>
       <c r="E33" s="3">
-        <v>-23900</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="3">
-        <v>9400</v>
+        <v>-21200</v>
       </c>
       <c r="G33" s="3">
-        <v>-3600</v>
+        <v>8300</v>
       </c>
       <c r="H33" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="I33" s="3">
-        <v>206100</v>
+        <v>3900</v>
       </c>
       <c r="J33" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>50100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>60700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>101400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>17100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>-173200</v>
       </c>
       <c r="E35" s="3">
-        <v>-23900</v>
+        <v>1100</v>
       </c>
       <c r="F35" s="3">
-        <v>9400</v>
+        <v>-21200</v>
       </c>
       <c r="G35" s="3">
-        <v>-3600</v>
+        <v>8300</v>
       </c>
       <c r="H35" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="I35" s="3">
-        <v>206100</v>
+        <v>3900</v>
       </c>
       <c r="J35" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>50100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>60700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>101400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>17100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,78 +2399,82 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>111100</v>
+        <v>47600</v>
       </c>
       <c r="E41" s="3">
-        <v>70100</v>
+        <v>98300</v>
       </c>
       <c r="F41" s="3">
-        <v>31300</v>
+        <v>62000</v>
       </c>
       <c r="G41" s="3">
-        <v>43200</v>
+        <v>27700</v>
       </c>
       <c r="H41" s="3">
-        <v>39000</v>
+        <v>47600</v>
       </c>
       <c r="I41" s="3">
-        <v>40600</v>
+        <v>34500</v>
       </c>
       <c r="J41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>59000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>26900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>30500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>48800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>25100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>42300</v>
+        <v>21100</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2394,376 +2483,397 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>40300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>60800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>57400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>42400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>10200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212600</v>
+        <v>158800</v>
       </c>
       <c r="E43" s="3">
-        <v>176500</v>
+        <v>188100</v>
       </c>
       <c r="F43" s="3">
-        <v>186700</v>
+        <v>156200</v>
       </c>
       <c r="G43" s="3">
-        <v>191600</v>
+        <v>165200</v>
       </c>
       <c r="H43" s="3">
-        <v>184800</v>
+        <v>187900</v>
       </c>
       <c r="I43" s="3">
-        <v>146300</v>
+        <v>163600</v>
       </c>
       <c r="J43" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K43" s="3">
         <v>135800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>319900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>137600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>134400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>197800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>113700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>111200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>124100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>106000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22300</v>
+        <v>20500</v>
       </c>
       <c r="E44" s="3">
-        <v>24300</v>
+        <v>19700</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>21500</v>
       </c>
       <c r="G44" s="3">
-        <v>29200</v>
+        <v>19600</v>
       </c>
       <c r="H44" s="3">
-        <v>22300</v>
+        <v>28600</v>
       </c>
       <c r="I44" s="3">
-        <v>20800</v>
+        <v>19700</v>
       </c>
       <c r="J44" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K44" s="3">
         <v>22400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>1600</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1100</v>
       </c>
       <c r="M45" s="3">
         <v>1100</v>
       </c>
       <c r="N45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>348300</v>
+        <v>254500</v>
       </c>
       <c r="E46" s="3">
-        <v>273300</v>
+        <v>308200</v>
       </c>
       <c r="F46" s="3">
-        <v>265500</v>
+        <v>241800</v>
       </c>
       <c r="G46" s="3">
-        <v>271000</v>
+        <v>235000</v>
       </c>
       <c r="H46" s="3">
-        <v>247700</v>
+        <v>265700</v>
       </c>
       <c r="I46" s="3">
-        <v>209800</v>
+        <v>219200</v>
       </c>
       <c r="J46" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K46" s="3">
         <v>201400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>286000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>270300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>234800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>225600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>315400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>164800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>158200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>177300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>173400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>600</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
+        <v>600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="M47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>600</v>
+      </c>
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
-        <v>400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="L47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="M47" s="3">
-        <v>600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>700</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1570400</v>
+        <v>1367100</v>
       </c>
       <c r="E48" s="3">
-        <v>1438700</v>
+        <v>1389700</v>
       </c>
       <c r="F48" s="3">
-        <v>1347500</v>
+        <v>1273100</v>
       </c>
       <c r="G48" s="3">
-        <v>1539500</v>
+        <v>1192400</v>
       </c>
       <c r="H48" s="3">
-        <v>1113700</v>
+        <v>1509700</v>
       </c>
       <c r="I48" s="3">
-        <v>979000</v>
+        <v>985500</v>
       </c>
       <c r="J48" s="3">
+        <v>866400</v>
+      </c>
+      <c r="K48" s="3">
         <v>880600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1303600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>269400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>278500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>258100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1309000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>313000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>292000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>310400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>293100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2956,38 +3075,41 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>27200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>28500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1919100</v>
+        <v>1624900</v>
       </c>
       <c r="E54" s="3">
-        <v>1712600</v>
+        <v>1698300</v>
       </c>
       <c r="F54" s="3">
-        <v>1613400</v>
+        <v>1515500</v>
       </c>
       <c r="G54" s="3">
-        <v>1811000</v>
+        <v>1427800</v>
       </c>
       <c r="H54" s="3">
-        <v>1361800</v>
+        <v>1776000</v>
       </c>
       <c r="I54" s="3">
-        <v>1198800</v>
+        <v>1205100</v>
       </c>
       <c r="J54" s="3">
+        <v>1060900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1091900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1606500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>597900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>540300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>507300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1626000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>507100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>477800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>517600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>495700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>396500</v>
+        <v>360600</v>
       </c>
       <c r="E57" s="3">
-        <v>266000</v>
+        <v>350900</v>
       </c>
       <c r="F57" s="3">
-        <v>196300</v>
+        <v>235400</v>
       </c>
       <c r="G57" s="3">
-        <v>192500</v>
+        <v>173700</v>
       </c>
       <c r="H57" s="3">
-        <v>155100</v>
+        <v>188800</v>
       </c>
       <c r="I57" s="3">
-        <v>161900</v>
+        <v>137300</v>
       </c>
       <c r="J57" s="3">
+        <v>143300</v>
+      </c>
+      <c r="K57" s="3">
         <v>229800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>219000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>202200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>183300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>311500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>186600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>181900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>186800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>178600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19600</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
-        <v>16000</v>
+        <v>17400</v>
       </c>
       <c r="F58" s="3">
-        <v>27600</v>
+        <v>14200</v>
       </c>
       <c r="G58" s="3">
-        <v>27200</v>
+        <v>24400</v>
       </c>
       <c r="H58" s="3">
-        <v>24900</v>
+        <v>26700</v>
       </c>
       <c r="I58" s="3">
-        <v>15900</v>
+        <v>22000</v>
       </c>
       <c r="J58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K58" s="3">
         <v>19800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91100</v>
+        <v>95100</v>
       </c>
       <c r="E59" s="3">
-        <v>95000</v>
+        <v>80600</v>
       </c>
       <c r="F59" s="3">
-        <v>103000</v>
+        <v>84100</v>
       </c>
       <c r="G59" s="3">
-        <v>152900</v>
+        <v>91200</v>
       </c>
       <c r="H59" s="3">
-        <v>100600</v>
+        <v>150000</v>
       </c>
       <c r="I59" s="3">
-        <v>94800</v>
+        <v>89000</v>
       </c>
       <c r="J59" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K59" s="3">
         <v>57400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>68300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>69400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>70400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>507300</v>
+        <v>460500</v>
       </c>
       <c r="E60" s="3">
-        <v>377000</v>
+        <v>448900</v>
       </c>
       <c r="F60" s="3">
-        <v>326900</v>
+        <v>333600</v>
       </c>
       <c r="G60" s="3">
-        <v>372600</v>
+        <v>289300</v>
       </c>
       <c r="H60" s="3">
-        <v>280600</v>
+        <v>365400</v>
       </c>
       <c r="I60" s="3">
-        <v>272600</v>
+        <v>248300</v>
       </c>
       <c r="J60" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K60" s="3">
         <v>307000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>437700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>292400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>270600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>245200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>424800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>259100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>245900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>249700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>250400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92300</v>
+        <v>90200</v>
       </c>
       <c r="E61" s="3">
-        <v>117700</v>
+        <v>81600</v>
       </c>
       <c r="F61" s="3">
-        <v>108900</v>
+        <v>104100</v>
       </c>
       <c r="G61" s="3">
-        <v>124300</v>
+        <v>96400</v>
       </c>
       <c r="H61" s="3">
-        <v>125100</v>
+        <v>121900</v>
       </c>
       <c r="I61" s="3">
-        <v>92200</v>
+        <v>110700</v>
       </c>
       <c r="J61" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K61" s="3">
         <v>100900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>150100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>136000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>107300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>74800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>142000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>69300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>66600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>70200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>72500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>445600</v>
+        <v>387300</v>
       </c>
       <c r="E62" s="3">
-        <v>410100</v>
+        <v>394400</v>
       </c>
       <c r="F62" s="3">
-        <v>384200</v>
+        <v>362900</v>
       </c>
       <c r="G62" s="3">
-        <v>417500</v>
+        <v>339900</v>
       </c>
       <c r="H62" s="3">
-        <v>283600</v>
+        <v>409400</v>
       </c>
       <c r="I62" s="3">
-        <v>238400</v>
+        <v>250900</v>
       </c>
       <c r="J62" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K62" s="3">
         <v>259800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>372500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>137000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>146600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>421700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>154700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>148400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>176600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>163300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1045200</v>
+        <v>938000</v>
       </c>
       <c r="E66" s="3">
-        <v>904800</v>
+        <v>924900</v>
       </c>
       <c r="F66" s="3">
-        <v>820000</v>
+        <v>800700</v>
       </c>
       <c r="G66" s="3">
-        <v>914400</v>
+        <v>725600</v>
       </c>
       <c r="H66" s="3">
-        <v>689400</v>
+        <v>896700</v>
       </c>
       <c r="I66" s="3">
-        <v>603200</v>
+        <v>610000</v>
       </c>
       <c r="J66" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K66" s="3">
         <v>667600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>960300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>563000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>514900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>466600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>988400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>483100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>460800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>496500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>486200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>481400</v>
+        <v>301100</v>
       </c>
       <c r="E72" s="3">
-        <v>444500</v>
+        <v>426000</v>
       </c>
       <c r="F72" s="3">
-        <v>450000</v>
+        <v>393300</v>
       </c>
       <c r="G72" s="3">
-        <v>504100</v>
+        <v>398200</v>
       </c>
       <c r="H72" s="3">
-        <v>386500</v>
+        <v>494400</v>
       </c>
       <c r="I72" s="3">
-        <v>341100</v>
+        <v>342100</v>
       </c>
       <c r="J72" s="3">
+        <v>301900</v>
+      </c>
+      <c r="K72" s="3">
         <v>191100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>286600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>217900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>873900</v>
+        <v>686800</v>
       </c>
       <c r="E76" s="3">
-        <v>807800</v>
+        <v>773400</v>
       </c>
       <c r="F76" s="3">
-        <v>793500</v>
+        <v>714800</v>
       </c>
       <c r="G76" s="3">
-        <v>896600</v>
+        <v>702200</v>
       </c>
       <c r="H76" s="3">
-        <v>672500</v>
+        <v>879300</v>
       </c>
       <c r="I76" s="3">
-        <v>595600</v>
+        <v>595100</v>
       </c>
       <c r="J76" s="3">
+        <v>527100</v>
+      </c>
+      <c r="K76" s="3">
         <v>424300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>646200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>637600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1200</v>
+        <v>-173200</v>
       </c>
       <c r="E81" s="3">
-        <v>-23900</v>
+        <v>1100</v>
       </c>
       <c r="F81" s="3">
-        <v>9400</v>
+        <v>-21200</v>
       </c>
       <c r="G81" s="3">
-        <v>-3600</v>
+        <v>8300</v>
       </c>
       <c r="H81" s="3">
-        <v>4400</v>
+        <v>-5900</v>
       </c>
       <c r="I81" s="3">
-        <v>206100</v>
+        <v>3900</v>
       </c>
       <c r="J81" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>50100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>60700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>101400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>17100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22000</v>
+        <v>23800</v>
       </c>
       <c r="E83" s="3">
-        <v>35300</v>
+        <v>19500</v>
       </c>
       <c r="F83" s="3">
-        <v>16600</v>
+        <v>31300</v>
       </c>
       <c r="G83" s="3">
-        <v>4400</v>
+        <v>14700</v>
       </c>
       <c r="H83" s="3">
-        <v>20800</v>
+        <v>22800</v>
       </c>
       <c r="I83" s="3">
-        <v>33800</v>
+        <v>18400</v>
       </c>
       <c r="J83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K83" s="3">
         <v>15200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>18000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>16700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>42200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>123200</v>
+        <v>3100</v>
       </c>
       <c r="E89" s="3">
-        <v>89700</v>
+        <v>109000</v>
       </c>
       <c r="F89" s="3">
-        <v>25900</v>
+        <v>79400</v>
       </c>
       <c r="G89" s="3">
-        <v>5800</v>
+        <v>22900</v>
       </c>
       <c r="H89" s="3">
-        <v>20000</v>
+        <v>45200</v>
       </c>
       <c r="I89" s="3">
-        <v>99500</v>
+        <v>17700</v>
       </c>
       <c r="J89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>73600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>131300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>69900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>121600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>25200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-36500</v>
+        <v>-37100</v>
       </c>
       <c r="E91" s="3">
-        <v>-43100</v>
+        <v>-32300</v>
       </c>
       <c r="F91" s="3">
-        <v>-13000</v>
+        <v>-38100</v>
       </c>
       <c r="G91" s="3">
-        <v>-20500</v>
+        <v>-11500</v>
       </c>
       <c r="H91" s="3">
-        <v>-37800</v>
+        <v>-18200</v>
       </c>
       <c r="I91" s="3">
-        <v>-57400</v>
+        <v>-33400</v>
       </c>
       <c r="J91" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-57700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39500</v>
+        <v>-41100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3100</v>
+        <v>-34900</v>
       </c>
       <c r="F94" s="3">
-        <v>1100</v>
+        <v>-2800</v>
       </c>
       <c r="G94" s="3">
-        <v>-700</v>
+        <v>900</v>
       </c>
       <c r="H94" s="3">
-        <v>-27700</v>
+        <v>-600</v>
       </c>
       <c r="I94" s="3">
-        <v>-35300</v>
+        <v>-24500</v>
       </c>
       <c r="J94" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-61500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,103 +5549,109 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-42400</v>
+        <v>-10800</v>
       </c>
       <c r="E100" s="3">
-        <v>-21300</v>
+        <v>-37500</v>
       </c>
       <c r="F100" s="3">
-        <v>-800</v>
+        <v>-18900</v>
       </c>
       <c r="G100" s="3">
-        <v>-39700</v>
+        <v>-700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1600</v>
+        <v>-35100</v>
       </c>
       <c r="I100" s="3">
-        <v>-21300</v>
+        <v>-1400</v>
       </c>
       <c r="J100" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-15500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>22900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-3000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-3400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>4100</v>
-      </c>
       <c r="H101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
-        <v>700</v>
-      </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5411,68 +5659,74 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40600</v>
+        <v>-51300</v>
       </c>
       <c r="E102" s="3">
-        <v>64300</v>
+        <v>35900</v>
       </c>
       <c r="F102" s="3">
-        <v>25900</v>
+        <v>56900</v>
       </c>
       <c r="G102" s="3">
-        <v>1500</v>
+        <v>22900</v>
       </c>
       <c r="H102" s="3">
-        <v>-16500</v>
+        <v>2800</v>
       </c>
       <c r="I102" s="3">
-        <v>19500</v>
+        <v>-14600</v>
       </c>
       <c r="J102" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>277300</v>
+        <v>223100</v>
       </c>
       <c r="E8" s="3">
-        <v>251500</v>
+        <v>269400</v>
       </c>
       <c r="F8" s="3">
-        <v>468300</v>
+        <v>244400</v>
       </c>
       <c r="G8" s="3">
-        <v>237200</v>
+        <v>455000</v>
       </c>
       <c r="H8" s="3">
-        <v>372900</v>
+        <v>311600</v>
       </c>
       <c r="I8" s="3">
-        <v>332700</v>
+        <v>362300</v>
       </c>
       <c r="J8" s="3">
+        <v>323300</v>
+      </c>
+      <c r="K8" s="3">
         <v>631400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>308300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>322000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>347600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>637600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>318100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>505300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>148100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>131900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>140500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>103700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>176900</v>
+        <v>135200</v>
       </c>
       <c r="E9" s="3">
-        <v>156200</v>
+        <v>171900</v>
       </c>
       <c r="F9" s="3">
-        <v>299400</v>
+        <v>151800</v>
       </c>
       <c r="G9" s="3">
-        <v>148000</v>
+        <v>290900</v>
       </c>
       <c r="H9" s="3">
-        <v>241800</v>
+        <v>194400</v>
       </c>
       <c r="I9" s="3">
-        <v>211200</v>
+        <v>234900</v>
       </c>
       <c r="J9" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K9" s="3">
         <v>395000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>202400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>197000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>204700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>339000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>159500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>66300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>33900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100400</v>
+        <v>87800</v>
       </c>
       <c r="E10" s="3">
-        <v>95300</v>
+        <v>97500</v>
       </c>
       <c r="F10" s="3">
-        <v>168900</v>
+        <v>92600</v>
       </c>
       <c r="G10" s="3">
-        <v>89200</v>
+        <v>164100</v>
       </c>
       <c r="H10" s="3">
-        <v>131200</v>
+        <v>117200</v>
       </c>
       <c r="I10" s="3">
-        <v>121500</v>
+        <v>127400</v>
       </c>
       <c r="J10" s="3">
+        <v>118100</v>
+      </c>
+      <c r="K10" s="3">
         <v>236400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>105900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>125000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>142800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>298500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>158600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>239600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>69500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>74200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>69800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>149500</v>
+        <v>-57100</v>
       </c>
       <c r="E14" s="3">
-        <v>-27100</v>
+        <v>145200</v>
       </c>
       <c r="F14" s="3">
-        <v>-38500</v>
+        <v>-26300</v>
       </c>
       <c r="G14" s="3">
-        <v>-18900</v>
+        <v>-37400</v>
       </c>
       <c r="H14" s="3">
-        <v>-38400</v>
+        <v>-24800</v>
       </c>
       <c r="I14" s="3">
-        <v>-29500</v>
+        <v>-37400</v>
       </c>
       <c r="J14" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-97700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-63200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-60300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-59700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-70900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-30200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-125300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>-29500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>23800</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>19300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>14700</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>22800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>20500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>15200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>2200</v>
       </c>
       <c r="N15" s="3">
         <v>2200</v>
       </c>
       <c r="O15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P15" s="3">
         <v>11700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>459300</v>
+        <v>175100</v>
       </c>
       <c r="E17" s="3">
-        <v>217100</v>
+        <v>446300</v>
       </c>
       <c r="F17" s="3">
-        <v>431600</v>
+        <v>210900</v>
       </c>
       <c r="G17" s="3">
-        <v>200300</v>
+        <v>419300</v>
       </c>
       <c r="H17" s="3">
-        <v>336500</v>
+        <v>258100</v>
       </c>
       <c r="I17" s="3">
-        <v>264500</v>
+        <v>326900</v>
       </c>
       <c r="J17" s="3">
+        <v>257000</v>
+      </c>
+      <c r="K17" s="3">
         <v>499100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>244700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>286700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>254400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>469400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>221800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>367000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>131300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>125100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>119100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>70200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-182000</v>
+        <v>48000</v>
       </c>
       <c r="E18" s="3">
-        <v>34400</v>
+        <v>-176900</v>
       </c>
       <c r="F18" s="3">
-        <v>36800</v>
+        <v>33500</v>
       </c>
       <c r="G18" s="3">
-        <v>36800</v>
+        <v>35700</v>
       </c>
       <c r="H18" s="3">
-        <v>36400</v>
+        <v>53500</v>
       </c>
       <c r="I18" s="3">
-        <v>68200</v>
+        <v>35400</v>
       </c>
       <c r="J18" s="3">
+        <v>66300</v>
+      </c>
+      <c r="K18" s="3">
         <v>132300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>93100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>168100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>138300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>21400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32000</v>
+        <v>-35200</v>
       </c>
       <c r="E20" s="3">
-        <v>-26600</v>
+        <v>-31100</v>
       </c>
       <c r="F20" s="3">
-        <v>-51200</v>
+        <v>-25800</v>
       </c>
       <c r="G20" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>160000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-9800</v>
       </c>
-      <c r="H20" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-39300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>160000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-36000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-70200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-190200</v>
+        <v>32100</v>
       </c>
       <c r="E21" s="3">
-        <v>27300</v>
+        <v>-184800</v>
       </c>
       <c r="F21" s="3">
-        <v>16800</v>
+        <v>26500</v>
       </c>
       <c r="G21" s="3">
-        <v>41800</v>
+        <v>16300</v>
       </c>
       <c r="H21" s="3">
-        <v>71800</v>
+        <v>56700</v>
       </c>
       <c r="I21" s="3">
-        <v>47400</v>
+        <v>69700</v>
       </c>
       <c r="J21" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K21" s="3">
         <v>322300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>49100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>122400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>160200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>32100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11500</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>8900</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>31200</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>12400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>30400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>10700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-225500</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="3">
-        <v>7800</v>
+        <v>-219100</v>
       </c>
       <c r="F23" s="3">
-        <v>-14500</v>
+        <v>7600</v>
       </c>
       <c r="G23" s="3">
-        <v>18100</v>
+        <v>-14100</v>
       </c>
       <c r="H23" s="3">
-        <v>17800</v>
+        <v>23800</v>
       </c>
       <c r="I23" s="3">
-        <v>29000</v>
+        <v>17300</v>
       </c>
       <c r="J23" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K23" s="3">
         <v>292300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>95500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>107100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>25700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-52300</v>
+        <v>8900</v>
       </c>
       <c r="E24" s="3">
-        <v>6700</v>
+        <v>-50900</v>
       </c>
       <c r="F24" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G24" s="3">
-        <v>9800</v>
+        <v>6500</v>
       </c>
       <c r="H24" s="3">
-        <v>23700</v>
+        <v>12800</v>
       </c>
       <c r="I24" s="3">
-        <v>25100</v>
+        <v>23000</v>
       </c>
       <c r="J24" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K24" s="3">
         <v>109900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>20700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-173200</v>
+        <v>-7000</v>
       </c>
       <c r="E26" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-21200</v>
-      </c>
       <c r="G26" s="3">
-        <v>8300</v>
+        <v>-20600</v>
       </c>
       <c r="H26" s="3">
-        <v>-5900</v>
+        <v>10900</v>
       </c>
       <c r="I26" s="3">
-        <v>3900</v>
+        <v>-5700</v>
       </c>
       <c r="J26" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K26" s="3">
         <v>182400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>101400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>17100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-173200</v>
+        <v>-7000</v>
       </c>
       <c r="E27" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-21200</v>
-      </c>
       <c r="G27" s="3">
-        <v>8300</v>
+        <v>-20600</v>
       </c>
       <c r="H27" s="3">
-        <v>-5900</v>
+        <v>10900</v>
       </c>
       <c r="I27" s="3">
-        <v>3900</v>
+        <v>-5700</v>
       </c>
       <c r="J27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K27" s="3">
         <v>182400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>101400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>17100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32000</v>
+        <v>35200</v>
       </c>
       <c r="E32" s="3">
-        <v>26600</v>
+        <v>31100</v>
       </c>
       <c r="F32" s="3">
-        <v>51200</v>
+        <v>25800</v>
       </c>
       <c r="G32" s="3">
+        <v>49800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>29700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="N32" s="3">
         <v>9800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>39300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-160000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>29700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>36000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>9800</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>70200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-173200</v>
+        <v>-7000</v>
       </c>
       <c r="E33" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-21200</v>
-      </c>
       <c r="G33" s="3">
-        <v>8300</v>
+        <v>-20600</v>
       </c>
       <c r="H33" s="3">
-        <v>-5900</v>
+        <v>10900</v>
       </c>
       <c r="I33" s="3">
-        <v>3900</v>
+        <v>-5700</v>
       </c>
       <c r="J33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K33" s="3">
         <v>182400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>60700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>101400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>17100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-173200</v>
+        <v>-7000</v>
       </c>
       <c r="E35" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-21200</v>
-      </c>
       <c r="G35" s="3">
-        <v>8300</v>
+        <v>-20600</v>
       </c>
       <c r="H35" s="3">
-        <v>-5900</v>
+        <v>10900</v>
       </c>
       <c r="I35" s="3">
-        <v>3900</v>
+        <v>-5700</v>
       </c>
       <c r="J35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K35" s="3">
         <v>182400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>60700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>101400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>17100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,84 +2486,88 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47600</v>
+        <v>76400</v>
       </c>
       <c r="E41" s="3">
-        <v>98300</v>
+        <v>52300</v>
       </c>
       <c r="F41" s="3">
-        <v>62000</v>
+        <v>95500</v>
       </c>
       <c r="G41" s="3">
-        <v>27700</v>
+        <v>60200</v>
       </c>
       <c r="H41" s="3">
-        <v>47600</v>
+        <v>27000</v>
       </c>
       <c r="I41" s="3">
-        <v>34500</v>
+        <v>46200</v>
       </c>
       <c r="J41" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K41" s="3">
         <v>36000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>59000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>30500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>48800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>27600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>20500</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2486,394 +2576,415 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>40300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>57400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>42400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>10200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158800</v>
+        <v>159600</v>
       </c>
       <c r="E43" s="3">
-        <v>188100</v>
+        <v>174300</v>
       </c>
       <c r="F43" s="3">
-        <v>156200</v>
+        <v>182800</v>
       </c>
       <c r="G43" s="3">
-        <v>165200</v>
+        <v>151800</v>
       </c>
       <c r="H43" s="3">
-        <v>187900</v>
+        <v>160500</v>
       </c>
       <c r="I43" s="3">
-        <v>163600</v>
+        <v>182600</v>
       </c>
       <c r="J43" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K43" s="3">
         <v>129500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>319900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>137600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>125000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>134400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>197800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>113700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>111200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>124100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>106000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20500</v>
+        <v>22100</v>
       </c>
       <c r="E44" s="3">
-        <v>19700</v>
+        <v>22400</v>
       </c>
       <c r="F44" s="3">
-        <v>21500</v>
+        <v>19200</v>
       </c>
       <c r="G44" s="3">
-        <v>19600</v>
+        <v>20900</v>
       </c>
       <c r="H44" s="3">
-        <v>28600</v>
+        <v>19000</v>
       </c>
       <c r="I44" s="3">
-        <v>19700</v>
+        <v>27800</v>
       </c>
       <c r="J44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K44" s="3">
         <v>18400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1100</v>
       </c>
       <c r="N45" s="3">
         <v>1100</v>
       </c>
       <c r="O45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>800</v>
       </c>
       <c r="U45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254500</v>
+        <v>285600</v>
       </c>
       <c r="E46" s="3">
-        <v>308200</v>
+        <v>279300</v>
       </c>
       <c r="F46" s="3">
-        <v>241800</v>
+        <v>299500</v>
       </c>
       <c r="G46" s="3">
-        <v>235000</v>
+        <v>234900</v>
       </c>
       <c r="H46" s="3">
-        <v>265700</v>
+        <v>228300</v>
       </c>
       <c r="I46" s="3">
-        <v>219200</v>
+        <v>258200</v>
       </c>
       <c r="J46" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K46" s="3">
         <v>185700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>201400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>286000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>270300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>234800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>225600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>315400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>164800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>158200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>177300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>173400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="E47" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1367100</v>
+        <v>1508000</v>
       </c>
       <c r="E48" s="3">
-        <v>1389700</v>
+        <v>1500200</v>
       </c>
       <c r="F48" s="3">
-        <v>1273100</v>
+        <v>1350300</v>
       </c>
       <c r="G48" s="3">
-        <v>1192400</v>
+        <v>1237000</v>
       </c>
       <c r="H48" s="3">
-        <v>1509700</v>
+        <v>1158600</v>
       </c>
       <c r="I48" s="3">
-        <v>985500</v>
+        <v>1466800</v>
       </c>
       <c r="J48" s="3">
+        <v>957500</v>
+      </c>
+      <c r="K48" s="3">
         <v>866400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>880600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1303600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>269400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>278500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>258100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1309000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>313000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>292000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>310400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>293100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3078,38 +3198,41 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>23000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>28500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1624900</v>
+        <v>1795800</v>
       </c>
       <c r="E54" s="3">
-        <v>1698300</v>
+        <v>1783000</v>
       </c>
       <c r="F54" s="3">
-        <v>1515500</v>
+        <v>1650100</v>
       </c>
       <c r="G54" s="3">
-        <v>1427800</v>
+        <v>1472500</v>
       </c>
       <c r="H54" s="3">
-        <v>1776000</v>
+        <v>1387300</v>
       </c>
       <c r="I54" s="3">
-        <v>1205100</v>
+        <v>1725500</v>
       </c>
       <c r="J54" s="3">
+        <v>1170900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1060900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1091900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1606500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>597900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>540300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>507300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1626000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>507100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>477800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>517600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>495700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>360600</v>
+        <v>416900</v>
       </c>
       <c r="E57" s="3">
-        <v>350900</v>
+        <v>395700</v>
       </c>
       <c r="F57" s="3">
-        <v>235400</v>
+        <v>340900</v>
       </c>
       <c r="G57" s="3">
-        <v>173700</v>
+        <v>228700</v>
       </c>
       <c r="H57" s="3">
-        <v>188800</v>
+        <v>168800</v>
       </c>
       <c r="I57" s="3">
-        <v>137300</v>
+        <v>183400</v>
       </c>
       <c r="J57" s="3">
+        <v>133400</v>
+      </c>
+      <c r="K57" s="3">
         <v>143300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>229800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>304800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>219000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>202200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>183300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>311500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>186600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>181900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>186800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>178600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
+        <v>6900</v>
       </c>
       <c r="E58" s="3">
-        <v>17400</v>
+        <v>5300</v>
       </c>
       <c r="F58" s="3">
-        <v>14200</v>
+        <v>16900</v>
       </c>
       <c r="G58" s="3">
-        <v>24400</v>
+        <v>13800</v>
       </c>
       <c r="H58" s="3">
-        <v>26700</v>
+        <v>23700</v>
       </c>
       <c r="I58" s="3">
-        <v>22000</v>
+        <v>25900</v>
       </c>
       <c r="J58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95100</v>
+        <v>103100</v>
       </c>
       <c r="E59" s="3">
-        <v>80600</v>
+        <v>104400</v>
       </c>
       <c r="F59" s="3">
-        <v>84100</v>
+        <v>78300</v>
       </c>
       <c r="G59" s="3">
-        <v>91200</v>
+        <v>81700</v>
       </c>
       <c r="H59" s="3">
-        <v>150000</v>
+        <v>88600</v>
       </c>
       <c r="I59" s="3">
-        <v>89000</v>
+        <v>145700</v>
       </c>
       <c r="J59" s="3">
+        <v>86500</v>
+      </c>
+      <c r="K59" s="3">
         <v>83900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>68300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>69400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>70400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>460500</v>
+        <v>526900</v>
       </c>
       <c r="E60" s="3">
-        <v>448900</v>
+        <v>505300</v>
       </c>
       <c r="F60" s="3">
-        <v>333600</v>
+        <v>436200</v>
       </c>
       <c r="G60" s="3">
-        <v>289300</v>
+        <v>324200</v>
       </c>
       <c r="H60" s="3">
-        <v>365400</v>
+        <v>281100</v>
       </c>
       <c r="I60" s="3">
-        <v>248300</v>
+        <v>355000</v>
       </c>
       <c r="J60" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K60" s="3">
         <v>241200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>307000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>437700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>292400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>270600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>245200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>424800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>259100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>245900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>249700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>250400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90200</v>
+        <v>95700</v>
       </c>
       <c r="E61" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>79300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>101200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>93600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>118400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K61" s="3">
         <v>81600</v>
       </c>
-      <c r="F61" s="3">
-        <v>104100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>96400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>121900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>110700</v>
-      </c>
-      <c r="J61" s="3">
-        <v>81600</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>150100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>136000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>107300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>74800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>142000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>69300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>66600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>70200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>72500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>387300</v>
+        <v>426400</v>
       </c>
       <c r="E62" s="3">
-        <v>394400</v>
+        <v>425000</v>
       </c>
       <c r="F62" s="3">
-        <v>362900</v>
+        <v>383200</v>
       </c>
       <c r="G62" s="3">
-        <v>339900</v>
+        <v>352600</v>
       </c>
       <c r="H62" s="3">
-        <v>409400</v>
+        <v>330300</v>
       </c>
       <c r="I62" s="3">
-        <v>250900</v>
+        <v>397800</v>
       </c>
       <c r="J62" s="3">
+        <v>243800</v>
+      </c>
+      <c r="K62" s="3">
         <v>210900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>259800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>372500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>137000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>146600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>421700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>148400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>176600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>163300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>938000</v>
+        <v>1049000</v>
       </c>
       <c r="E66" s="3">
-        <v>924900</v>
+        <v>1029300</v>
       </c>
       <c r="F66" s="3">
-        <v>800700</v>
+        <v>898600</v>
       </c>
       <c r="G66" s="3">
-        <v>725600</v>
+        <v>778000</v>
       </c>
       <c r="H66" s="3">
-        <v>896700</v>
+        <v>705000</v>
       </c>
       <c r="I66" s="3">
-        <v>610000</v>
+        <v>871200</v>
       </c>
       <c r="J66" s="3">
+        <v>592700</v>
+      </c>
+      <c r="K66" s="3">
         <v>533800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>667600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>960300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>563000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>514900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>466600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>988400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>483100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>460800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>496500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>486200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>301100</v>
+        <v>323400</v>
       </c>
       <c r="E72" s="3">
-        <v>426000</v>
+        <v>330400</v>
       </c>
       <c r="F72" s="3">
-        <v>393300</v>
+        <v>413900</v>
       </c>
       <c r="G72" s="3">
-        <v>398200</v>
+        <v>382200</v>
       </c>
       <c r="H72" s="3">
-        <v>494400</v>
+        <v>386900</v>
       </c>
       <c r="I72" s="3">
-        <v>342100</v>
+        <v>480300</v>
       </c>
       <c r="J72" s="3">
+        <v>332300</v>
+      </c>
+      <c r="K72" s="3">
         <v>301900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>191100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>286600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>217900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-24100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686800</v>
+        <v>746700</v>
       </c>
       <c r="E76" s="3">
-        <v>773400</v>
+        <v>753700</v>
       </c>
       <c r="F76" s="3">
-        <v>714800</v>
+        <v>751400</v>
       </c>
       <c r="G76" s="3">
-        <v>702200</v>
+        <v>694500</v>
       </c>
       <c r="H76" s="3">
-        <v>879300</v>
+        <v>682200</v>
       </c>
       <c r="I76" s="3">
-        <v>595100</v>
+        <v>854300</v>
       </c>
       <c r="J76" s="3">
+        <v>578200</v>
+      </c>
+      <c r="K76" s="3">
         <v>527100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>424300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>646200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>637600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>24000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-173200</v>
+        <v>-7000</v>
       </c>
       <c r="E81" s="3">
+        <v>-168300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-21200</v>
-      </c>
       <c r="G81" s="3">
-        <v>8300</v>
+        <v>-20600</v>
       </c>
       <c r="H81" s="3">
-        <v>-5900</v>
+        <v>10900</v>
       </c>
       <c r="I81" s="3">
-        <v>3900</v>
+        <v>-5700</v>
       </c>
       <c r="J81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K81" s="3">
         <v>182400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>60700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>101400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>17100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23800</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>19500</v>
+        <v>23200</v>
       </c>
       <c r="F83" s="3">
-        <v>31300</v>
+        <v>18900</v>
       </c>
       <c r="G83" s="3">
-        <v>14700</v>
+        <v>30400</v>
       </c>
       <c r="H83" s="3">
-        <v>22800</v>
+        <v>20500</v>
       </c>
       <c r="I83" s="3">
-        <v>18400</v>
+        <v>22100</v>
       </c>
       <c r="J83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K83" s="3">
         <v>30000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>18000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>16700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>24400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>42200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3100</v>
+        <v>42900</v>
       </c>
       <c r="E89" s="3">
-        <v>109000</v>
+        <v>3000</v>
       </c>
       <c r="F89" s="3">
-        <v>79400</v>
+        <v>105900</v>
       </c>
       <c r="G89" s="3">
-        <v>22900</v>
+        <v>77200</v>
       </c>
       <c r="H89" s="3">
-        <v>45200</v>
+        <v>31900</v>
       </c>
       <c r="I89" s="3">
-        <v>17700</v>
+        <v>43900</v>
       </c>
       <c r="J89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>73600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>131300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>69900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>121600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>25200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-37100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-32300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-11500</v>
-      </c>
       <c r="H91" s="3">
-        <v>-18200</v>
+        <v>-11200</v>
       </c>
       <c r="I91" s="3">
-        <v>-33400</v>
+        <v>-17600</v>
       </c>
       <c r="J91" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-57700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41100</v>
+        <v>-22400</v>
       </c>
       <c r="E94" s="3">
-        <v>-34900</v>
+        <v>-39900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2800</v>
+        <v>-34000</v>
       </c>
       <c r="G94" s="3">
-        <v>900</v>
+        <v>-2700</v>
       </c>
       <c r="H94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>-24500</v>
-      </c>
       <c r="J94" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-61500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,109 +5795,115 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10800</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>-37500</v>
+        <v>-10500</v>
       </c>
       <c r="F100" s="3">
-        <v>-18900</v>
+        <v>-36400</v>
       </c>
       <c r="G100" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-35100</v>
-      </c>
       <c r="I100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-15500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>22900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-3000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2400</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>5300</v>
-      </c>
       <c r="I101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>500</v>
+      </c>
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
-        <v>600</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5662,71 +5911,77 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-51300</v>
+        <v>20900</v>
       </c>
       <c r="E102" s="3">
-        <v>35900</v>
+        <v>-49800</v>
       </c>
       <c r="F102" s="3">
-        <v>56900</v>
+        <v>34900</v>
       </c>
       <c r="G102" s="3">
-        <v>22900</v>
+        <v>55300</v>
       </c>
       <c r="H102" s="3">
-        <v>2800</v>
+        <v>31900</v>
       </c>
       <c r="I102" s="3">
-        <v>-14600</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K102" s="3">
         <v>17200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>223100</v>
+        <v>216100</v>
       </c>
       <c r="E8" s="3">
-        <v>269400</v>
+        <v>261100</v>
       </c>
       <c r="F8" s="3">
-        <v>244400</v>
+        <v>236800</v>
       </c>
       <c r="G8" s="3">
-        <v>455000</v>
+        <v>440900</v>
       </c>
       <c r="H8" s="3">
-        <v>311600</v>
+        <v>301900</v>
       </c>
       <c r="I8" s="3">
-        <v>362300</v>
+        <v>351100</v>
       </c>
       <c r="J8" s="3">
-        <v>323300</v>
+        <v>313200</v>
       </c>
       <c r="K8" s="3">
         <v>631400</v>
@@ -821,25 +821,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>135200</v>
+        <v>131000</v>
       </c>
       <c r="E9" s="3">
-        <v>171900</v>
+        <v>166600</v>
       </c>
       <c r="F9" s="3">
-        <v>151800</v>
+        <v>147100</v>
       </c>
       <c r="G9" s="3">
-        <v>290900</v>
+        <v>281900</v>
       </c>
       <c r="H9" s="3">
-        <v>194400</v>
+        <v>188300</v>
       </c>
       <c r="I9" s="3">
-        <v>234900</v>
+        <v>227600</v>
       </c>
       <c r="J9" s="3">
-        <v>205200</v>
+        <v>198800</v>
       </c>
       <c r="K9" s="3">
         <v>395000</v>
@@ -883,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>87800</v>
+        <v>85100</v>
       </c>
       <c r="E10" s="3">
-        <v>97500</v>
+        <v>94500</v>
       </c>
       <c r="F10" s="3">
-        <v>92600</v>
+        <v>89700</v>
       </c>
       <c r="G10" s="3">
-        <v>164100</v>
+        <v>159000</v>
       </c>
       <c r="H10" s="3">
-        <v>117200</v>
+        <v>113500</v>
       </c>
       <c r="I10" s="3">
-        <v>127400</v>
+        <v>123500</v>
       </c>
       <c r="J10" s="3">
-        <v>118100</v>
+        <v>114400</v>
       </c>
       <c r="K10" s="3">
         <v>236400</v>
@@ -1093,25 +1093,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-57100</v>
+        <v>-55300</v>
       </c>
       <c r="E14" s="3">
-        <v>145200</v>
+        <v>140700</v>
       </c>
       <c r="F14" s="3">
-        <v>-26300</v>
+        <v>-25500</v>
       </c>
       <c r="G14" s="3">
-        <v>-37400</v>
+        <v>-36200</v>
       </c>
       <c r="H14" s="3">
-        <v>-24800</v>
+        <v>-24000</v>
       </c>
       <c r="I14" s="3">
-        <v>-37400</v>
+        <v>-36200</v>
       </c>
       <c r="J14" s="3">
-        <v>-28700</v>
+        <v>-27800</v>
       </c>
       <c r="K14" s="3">
         <v>-97700</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="E15" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
@@ -1167,10 +1167,10 @@
         <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="I15" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>175100</v>
+        <v>169600</v>
       </c>
       <c r="E17" s="3">
-        <v>446300</v>
+        <v>432400</v>
       </c>
       <c r="F17" s="3">
-        <v>210900</v>
+        <v>204400</v>
       </c>
       <c r="G17" s="3">
-        <v>419300</v>
+        <v>406300</v>
       </c>
       <c r="H17" s="3">
-        <v>258100</v>
+        <v>250100</v>
       </c>
       <c r="I17" s="3">
-        <v>326900</v>
+        <v>316800</v>
       </c>
       <c r="J17" s="3">
-        <v>257000</v>
+        <v>249000</v>
       </c>
       <c r="K17" s="3">
         <v>499100</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48000</v>
+        <v>46500</v>
       </c>
       <c r="E18" s="3">
-        <v>-176900</v>
+        <v>-171400</v>
       </c>
       <c r="F18" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="G18" s="3">
-        <v>35700</v>
+        <v>34600</v>
       </c>
       <c r="H18" s="3">
-        <v>53500</v>
+        <v>51800</v>
       </c>
       <c r="I18" s="3">
-        <v>35400</v>
+        <v>34300</v>
       </c>
       <c r="J18" s="3">
-        <v>66300</v>
+        <v>64200</v>
       </c>
       <c r="K18" s="3">
         <v>132300</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35200</v>
+        <v>-34100</v>
       </c>
       <c r="E20" s="3">
-        <v>-31100</v>
+        <v>-30100</v>
       </c>
       <c r="F20" s="3">
-        <v>-25800</v>
+        <v>-25000</v>
       </c>
       <c r="G20" s="3">
-        <v>-49800</v>
+        <v>-48200</v>
       </c>
       <c r="H20" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="I20" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
-        <v>-38200</v>
+        <v>-37000</v>
       </c>
       <c r="K20" s="3">
         <v>160000</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="E21" s="3">
-        <v>-184800</v>
+        <v>-179100</v>
       </c>
       <c r="F21" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="G21" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="H21" s="3">
-        <v>56700</v>
+        <v>54900</v>
       </c>
       <c r="I21" s="3">
-        <v>69700</v>
+        <v>67600</v>
       </c>
       <c r="J21" s="3">
-        <v>46100</v>
+        <v>44600</v>
       </c>
       <c r="K21" s="3">
         <v>322300</v>
@@ -1510,10 +1510,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="E22" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1522,10 +1522,10 @@
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="I22" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-219100</v>
+        <v>-212300</v>
       </c>
       <c r="F23" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G23" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="H23" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="I23" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="J23" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="K23" s="3">
         <v>292300</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="E24" s="3">
-        <v>-50900</v>
+        <v>-49300</v>
       </c>
       <c r="F24" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G24" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H24" s="3">
-        <v>12800</v>
+        <v>12400</v>
       </c>
       <c r="I24" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="J24" s="3">
-        <v>24400</v>
+        <v>23600</v>
       </c>
       <c r="K24" s="3">
         <v>109900</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E26" s="3">
-        <v>-168300</v>
+        <v>-163000</v>
       </c>
       <c r="F26" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="H26" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I26" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J26" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K26" s="3">
         <v>182400</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E27" s="3">
-        <v>-168300</v>
+        <v>-163000</v>
       </c>
       <c r="F27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="H27" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I27" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J27" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K27" s="3">
         <v>182400</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="E32" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="F32" s="3">
-        <v>25800</v>
+        <v>25000</v>
       </c>
       <c r="G32" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="H32" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="I32" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="K32" s="3">
         <v>-160000</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E33" s="3">
-        <v>-168300</v>
+        <v>-163000</v>
       </c>
       <c r="F33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="H33" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I33" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J33" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K33" s="3">
         <v>182400</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E35" s="3">
-        <v>-168300</v>
+        <v>-163000</v>
       </c>
       <c r="F35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="H35" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I35" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J35" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K35" s="3">
         <v>182400</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>76400</v>
+        <v>74000</v>
       </c>
       <c r="E41" s="3">
-        <v>52300</v>
+        <v>50600</v>
       </c>
       <c r="F41" s="3">
-        <v>95500</v>
+        <v>92500</v>
       </c>
       <c r="G41" s="3">
-        <v>60200</v>
+        <v>58400</v>
       </c>
       <c r="H41" s="3">
-        <v>27000</v>
+        <v>26100</v>
       </c>
       <c r="I41" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="J41" s="3">
-        <v>33500</v>
+        <v>32400</v>
       </c>
       <c r="K41" s="3">
         <v>36000</v>
@@ -2555,10 +2555,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25300</v>
+        <v>24600</v>
       </c>
       <c r="E42" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>159600</v>
+        <v>154600</v>
       </c>
       <c r="E43" s="3">
-        <v>174300</v>
+        <v>168800</v>
       </c>
       <c r="F43" s="3">
-        <v>182800</v>
+        <v>177100</v>
       </c>
       <c r="G43" s="3">
-        <v>151800</v>
+        <v>147100</v>
       </c>
       <c r="H43" s="3">
-        <v>160500</v>
+        <v>155500</v>
       </c>
       <c r="I43" s="3">
-        <v>182600</v>
+        <v>176900</v>
       </c>
       <c r="J43" s="3">
-        <v>158900</v>
+        <v>154000</v>
       </c>
       <c r="K43" s="3">
         <v>129500</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="E44" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="F44" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="G44" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="H44" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="I44" s="3">
-        <v>27800</v>
+        <v>27000</v>
       </c>
       <c r="J44" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="K44" s="3">
         <v>18400</v>
@@ -2741,13 +2741,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
         <v>2000</v>
@@ -2756,10 +2756,10 @@
         <v>1300</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1800</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>285600</v>
+        <v>276700</v>
       </c>
       <c r="E46" s="3">
-        <v>279300</v>
+        <v>270600</v>
       </c>
       <c r="F46" s="3">
-        <v>299500</v>
+        <v>290200</v>
       </c>
       <c r="G46" s="3">
-        <v>234900</v>
+        <v>227600</v>
       </c>
       <c r="H46" s="3">
-        <v>228300</v>
+        <v>221200</v>
       </c>
       <c r="I46" s="3">
-        <v>258200</v>
+        <v>250200</v>
       </c>
       <c r="J46" s="3">
-        <v>213000</v>
+        <v>206300</v>
       </c>
       <c r="K46" s="3">
         <v>185700</v>
@@ -2865,16 +2865,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E47" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>400</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1508000</v>
+        <v>1461100</v>
       </c>
       <c r="E48" s="3">
-        <v>1500200</v>
+        <v>1453500</v>
       </c>
       <c r="F48" s="3">
-        <v>1350300</v>
+        <v>1308300</v>
       </c>
       <c r="G48" s="3">
-        <v>1237000</v>
+        <v>1198500</v>
       </c>
       <c r="H48" s="3">
-        <v>1158600</v>
+        <v>1122600</v>
       </c>
       <c r="I48" s="3">
-        <v>1466800</v>
+        <v>1421200</v>
       </c>
       <c r="J48" s="3">
-        <v>957500</v>
+        <v>927800</v>
       </c>
       <c r="K48" s="3">
         <v>866400</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1795800</v>
+        <v>1739900</v>
       </c>
       <c r="E54" s="3">
-        <v>1783000</v>
+        <v>1727500</v>
       </c>
       <c r="F54" s="3">
-        <v>1650100</v>
+        <v>1598700</v>
       </c>
       <c r="G54" s="3">
-        <v>1472500</v>
+        <v>1426700</v>
       </c>
       <c r="H54" s="3">
-        <v>1387300</v>
+        <v>1344100</v>
       </c>
       <c r="I54" s="3">
-        <v>1725500</v>
+        <v>1671900</v>
       </c>
       <c r="J54" s="3">
-        <v>1170900</v>
+        <v>1134500</v>
       </c>
       <c r="K54" s="3">
         <v>1060900</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416900</v>
+        <v>403900</v>
       </c>
       <c r="E57" s="3">
-        <v>395700</v>
+        <v>383400</v>
       </c>
       <c r="F57" s="3">
-        <v>340900</v>
+        <v>330300</v>
       </c>
       <c r="G57" s="3">
-        <v>228700</v>
+        <v>221600</v>
       </c>
       <c r="H57" s="3">
-        <v>168800</v>
+        <v>163500</v>
       </c>
       <c r="I57" s="3">
-        <v>183400</v>
+        <v>177700</v>
       </c>
       <c r="J57" s="3">
-        <v>133400</v>
+        <v>129200</v>
       </c>
       <c r="K57" s="3">
         <v>143300</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="E58" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F58" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="G58" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="H58" s="3">
-        <v>23700</v>
+        <v>23000</v>
       </c>
       <c r="I58" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="J58" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="K58" s="3">
         <v>14100</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103100</v>
+        <v>99900</v>
       </c>
       <c r="E59" s="3">
-        <v>104400</v>
+        <v>101100</v>
       </c>
       <c r="F59" s="3">
-        <v>78300</v>
+        <v>75900</v>
       </c>
       <c r="G59" s="3">
-        <v>81700</v>
+        <v>79200</v>
       </c>
       <c r="H59" s="3">
-        <v>88600</v>
+        <v>85800</v>
       </c>
       <c r="I59" s="3">
-        <v>145700</v>
+        <v>141200</v>
       </c>
       <c r="J59" s="3">
-        <v>86500</v>
+        <v>83800</v>
       </c>
       <c r="K59" s="3">
         <v>83900</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>526900</v>
+        <v>510500</v>
       </c>
       <c r="E60" s="3">
-        <v>505300</v>
+        <v>489600</v>
       </c>
       <c r="F60" s="3">
-        <v>436200</v>
+        <v>422600</v>
       </c>
       <c r="G60" s="3">
-        <v>324200</v>
+        <v>314100</v>
       </c>
       <c r="H60" s="3">
-        <v>281100</v>
+        <v>272300</v>
       </c>
       <c r="I60" s="3">
-        <v>355000</v>
+        <v>344000</v>
       </c>
       <c r="J60" s="3">
-        <v>241300</v>
+        <v>233800</v>
       </c>
       <c r="K60" s="3">
         <v>241200</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95700</v>
+        <v>92800</v>
       </c>
       <c r="E61" s="3">
-        <v>99000</v>
+        <v>95900</v>
       </c>
       <c r="F61" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="G61" s="3">
-        <v>101200</v>
+        <v>98000</v>
       </c>
       <c r="H61" s="3">
-        <v>93600</v>
+        <v>90700</v>
       </c>
       <c r="I61" s="3">
-        <v>118400</v>
+        <v>114700</v>
       </c>
       <c r="J61" s="3">
-        <v>107600</v>
+        <v>104300</v>
       </c>
       <c r="K61" s="3">
         <v>81600</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>426400</v>
+        <v>413100</v>
       </c>
       <c r="E62" s="3">
-        <v>425000</v>
+        <v>411800</v>
       </c>
       <c r="F62" s="3">
-        <v>383200</v>
+        <v>371200</v>
       </c>
       <c r="G62" s="3">
-        <v>352600</v>
+        <v>341600</v>
       </c>
       <c r="H62" s="3">
-        <v>330300</v>
+        <v>320000</v>
       </c>
       <c r="I62" s="3">
-        <v>397800</v>
+        <v>385400</v>
       </c>
       <c r="J62" s="3">
-        <v>243800</v>
+        <v>236200</v>
       </c>
       <c r="K62" s="3">
         <v>210900</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1049000</v>
+        <v>1016400</v>
       </c>
       <c r="E66" s="3">
-        <v>1029300</v>
+        <v>997300</v>
       </c>
       <c r="F66" s="3">
-        <v>898600</v>
+        <v>870700</v>
       </c>
       <c r="G66" s="3">
-        <v>778000</v>
+        <v>753800</v>
       </c>
       <c r="H66" s="3">
-        <v>705000</v>
+        <v>683100</v>
       </c>
       <c r="I66" s="3">
-        <v>871200</v>
+        <v>844100</v>
       </c>
       <c r="J66" s="3">
-        <v>592700</v>
+        <v>574300</v>
       </c>
       <c r="K66" s="3">
         <v>533800</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>323400</v>
+        <v>313400</v>
       </c>
       <c r="E72" s="3">
-        <v>330400</v>
+        <v>320100</v>
       </c>
       <c r="F72" s="3">
-        <v>413900</v>
+        <v>401100</v>
       </c>
       <c r="G72" s="3">
-        <v>382200</v>
+        <v>370300</v>
       </c>
       <c r="H72" s="3">
-        <v>386900</v>
+        <v>374900</v>
       </c>
       <c r="I72" s="3">
-        <v>480300</v>
+        <v>465400</v>
       </c>
       <c r="J72" s="3">
-        <v>332300</v>
+        <v>322000</v>
       </c>
       <c r="K72" s="3">
         <v>301900</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>746700</v>
+        <v>723500</v>
       </c>
       <c r="E76" s="3">
-        <v>753700</v>
+        <v>730200</v>
       </c>
       <c r="F76" s="3">
-        <v>751400</v>
+        <v>728000</v>
       </c>
       <c r="G76" s="3">
-        <v>694500</v>
+        <v>672900</v>
       </c>
       <c r="H76" s="3">
-        <v>682200</v>
+        <v>661000</v>
       </c>
       <c r="I76" s="3">
-        <v>854300</v>
+        <v>827700</v>
       </c>
       <c r="J76" s="3">
-        <v>578200</v>
+        <v>560200</v>
       </c>
       <c r="K76" s="3">
         <v>527100</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="E81" s="3">
-        <v>-168300</v>
+        <v>-163000</v>
       </c>
       <c r="F81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="H81" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="I81" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="J81" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K81" s="3">
         <v>182400</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="E83" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="F83" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="G83" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="H83" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="I83" s="3">
-        <v>22100</v>
+        <v>21400</v>
       </c>
       <c r="J83" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="K83" s="3">
         <v>30000</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42900</v>
+        <v>41500</v>
       </c>
       <c r="E89" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F89" s="3">
-        <v>105900</v>
+        <v>102600</v>
       </c>
       <c r="G89" s="3">
-        <v>77200</v>
+        <v>74800</v>
       </c>
       <c r="H89" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="I89" s="3">
-        <v>43900</v>
+        <v>42600</v>
       </c>
       <c r="J89" s="3">
-        <v>17200</v>
+        <v>16700</v>
       </c>
       <c r="K89" s="3">
         <v>88000</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19900</v>
+        <v>-19200</v>
       </c>
       <c r="E91" s="3">
-        <v>-36000</v>
+        <v>-34900</v>
       </c>
       <c r="F91" s="3">
-        <v>-31400</v>
+        <v>-30400</v>
       </c>
       <c r="G91" s="3">
-        <v>-37100</v>
+        <v>-35900</v>
       </c>
       <c r="H91" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="I91" s="3">
-        <v>-17600</v>
+        <v>-17100</v>
       </c>
       <c r="J91" s="3">
-        <v>-32500</v>
+        <v>-31500</v>
       </c>
       <c r="K91" s="3">
         <v>-50800</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-22400</v>
+        <v>-21700</v>
       </c>
       <c r="E94" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="F94" s="3">
-        <v>-34000</v>
+        <v>-32900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H94" s="3">
         <v>1300</v>
       </c>
       <c r="I94" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J94" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="K94" s="3">
         <v>-31200</v>
@@ -5807,19 +5807,19 @@
         <v>-1200</v>
       </c>
       <c r="E100" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="F100" s="3">
-        <v>-36400</v>
+        <v>-35300</v>
       </c>
       <c r="G100" s="3">
-        <v>-18300</v>
+        <v>-17700</v>
       </c>
       <c r="H100" s="3">
         <v>-700</v>
       </c>
       <c r="I100" s="3">
-        <v>-34100</v>
+        <v>-33100</v>
       </c>
       <c r="J100" s="3">
         <v>-1400</v>
@@ -5866,7 +5866,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
         <v>-2300</v>
@@ -5881,7 +5881,7 @@
         <v>-200</v>
       </c>
       <c r="I101" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="J101" s="3">
         <v>500</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="E102" s="3">
-        <v>-49800</v>
+        <v>-48300</v>
       </c>
       <c r="F102" s="3">
-        <v>34900</v>
+        <v>33800</v>
       </c>
       <c r="G102" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="H102" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="I102" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J102" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="K102" s="3">
         <v>17200</v>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>216100</v>
+        <v>290000</v>
       </c>
       <c r="E8" s="3">
-        <v>261100</v>
+        <v>511500</v>
       </c>
       <c r="F8" s="3">
-        <v>236800</v>
+        <v>231200</v>
       </c>
       <c r="G8" s="3">
-        <v>440900</v>
+        <v>251900</v>
       </c>
       <c r="H8" s="3">
-        <v>301900</v>
+        <v>346800</v>
       </c>
       <c r="I8" s="3">
+        <v>645700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>323000</v>
+      </c>
+      <c r="K8" s="3">
         <v>351100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>313200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>631400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>308300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>322000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>347600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>637600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>318100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>505300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>148100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>131900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>140500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>103700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>131000</v>
+        <v>169000</v>
       </c>
       <c r="E9" s="3">
-        <v>166600</v>
+        <v>320700</v>
       </c>
       <c r="F9" s="3">
-        <v>147100</v>
+        <v>140200</v>
       </c>
       <c r="G9" s="3">
-        <v>281900</v>
+        <v>160700</v>
       </c>
       <c r="H9" s="3">
-        <v>188300</v>
+        <v>215400</v>
       </c>
       <c r="I9" s="3">
+        <v>412800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>201500</v>
+      </c>
+      <c r="K9" s="3">
         <v>227600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>198800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>395000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>202400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>197000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>204700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>339000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>159500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>265700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>78600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>75200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>66300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>33900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>85100</v>
+        <v>121000</v>
       </c>
       <c r="E10" s="3">
-        <v>94500</v>
+        <v>190900</v>
       </c>
       <c r="F10" s="3">
-        <v>89700</v>
+        <v>91000</v>
       </c>
       <c r="G10" s="3">
-        <v>159000</v>
+        <v>91200</v>
       </c>
       <c r="H10" s="3">
-        <v>113500</v>
+        <v>131400</v>
       </c>
       <c r="I10" s="3">
+        <v>232900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>121500</v>
+      </c>
+      <c r="K10" s="3">
         <v>123500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>114400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>236400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>105900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>125000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>142800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>298500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>158600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>239600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>69500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>56800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>74200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>69800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="E14" s="3">
-        <v>140700</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>-25500</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3">
+        <v>173100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="3">
         <v>-36200</v>
       </c>
-      <c r="H14" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-36200</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-27800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-97700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-63200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-60300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-59700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-70900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-125300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-29500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>18700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="F15" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K15" s="3">
         <v>21400</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>15200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>18000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>11700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>42200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>169600</v>
+        <v>277300</v>
       </c>
       <c r="E17" s="3">
-        <v>432400</v>
+        <v>529300</v>
       </c>
       <c r="F17" s="3">
-        <v>204400</v>
+        <v>241000</v>
       </c>
       <c r="G17" s="3">
-        <v>406300</v>
+        <v>454600</v>
       </c>
       <c r="H17" s="3">
-        <v>250100</v>
+        <v>336700</v>
       </c>
       <c r="I17" s="3">
+        <v>648100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>294000</v>
+      </c>
+      <c r="K17" s="3">
         <v>316800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>249000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>499100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>244700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>286700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>254400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>469400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>221800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>367000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>131300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>125100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>119100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>70200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46500</v>
+        <v>12700</v>
       </c>
       <c r="E18" s="3">
-        <v>-171400</v>
+        <v>-17800</v>
       </c>
       <c r="F18" s="3">
-        <v>32400</v>
+        <v>-9800</v>
       </c>
       <c r="G18" s="3">
-        <v>34600</v>
+        <v>-202700</v>
       </c>
       <c r="H18" s="3">
-        <v>51800</v>
+        <v>10200</v>
       </c>
       <c r="I18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K18" s="3">
         <v>34300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>64200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>132300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>63600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>35300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>93100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>168100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>96400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>138300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>16800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>21400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>33500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34100</v>
+        <v>-4900</v>
       </c>
       <c r="E20" s="3">
-        <v>-30100</v>
+        <v>21400</v>
       </c>
       <c r="F20" s="3">
-        <v>-25000</v>
+        <v>22000</v>
       </c>
       <c r="G20" s="3">
-        <v>-48200</v>
+        <v>8300</v>
       </c>
       <c r="H20" s="3">
-        <v>-16700</v>
+        <v>600</v>
       </c>
       <c r="I20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K20" s="3">
         <v>11800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-37000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>160000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-29700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-36000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-9800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-70200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-20300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31100</v>
+        <v>33600</v>
       </c>
       <c r="E21" s="3">
-        <v>-179100</v>
+        <v>43700</v>
       </c>
       <c r="F21" s="3">
-        <v>25700</v>
+        <v>30300</v>
       </c>
       <c r="G21" s="3">
-        <v>15800</v>
+        <v>-196600</v>
       </c>
       <c r="H21" s="3">
-        <v>54900</v>
+        <v>38100</v>
       </c>
       <c r="I21" s="3">
+        <v>22600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K21" s="3">
         <v>67600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>44600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>322300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>49100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>17200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>122400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>93200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>160200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>14300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>22700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>32100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>10500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="F22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K22" s="3">
         <v>29400</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>10700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>21800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>10900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>7800</v>
       </c>
       <c r="E23" s="3">
-        <v>-212300</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="3">
-        <v>7400</v>
+        <v>2000</v>
       </c>
       <c r="G23" s="3">
-        <v>-13600</v>
+        <v>-204900</v>
       </c>
       <c r="H23" s="3">
-        <v>23000</v>
+        <v>10800</v>
       </c>
       <c r="I23" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K23" s="3">
         <v>16700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>292300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>23200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>78800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>95500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>76100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>107100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>17200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>25700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>129800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>109900</v>
+      </c>
+      <c r="N24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="P24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>34800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>22300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>23600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>109900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>20700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>28700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>34800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>24600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="R24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>6200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>8600</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="E26" s="3">
-        <v>-163000</v>
+        <v>-126200</v>
       </c>
       <c r="F26" s="3">
-        <v>1000</v>
+        <v>-7200</v>
       </c>
       <c r="G26" s="3">
-        <v>-19900</v>
+        <v>-157300</v>
       </c>
       <c r="H26" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="I26" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>182400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>50100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>101400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>11000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>17100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="E27" s="3">
-        <v>-163000</v>
+        <v>-126200</v>
       </c>
       <c r="F27" s="3">
-        <v>1000</v>
+        <v>-7200</v>
       </c>
       <c r="G27" s="3">
-        <v>-19900</v>
+        <v>-157300</v>
       </c>
       <c r="H27" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="I27" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>182400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>50100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>101400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>11000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>17100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34100</v>
+        <v>4900</v>
       </c>
       <c r="E32" s="3">
-        <v>30100</v>
+        <v>-21400</v>
       </c>
       <c r="F32" s="3">
-        <v>25000</v>
+        <v>-22000</v>
       </c>
       <c r="G32" s="3">
-        <v>48200</v>
+        <v>-8300</v>
       </c>
       <c r="H32" s="3">
-        <v>16700</v>
+        <v>-600</v>
       </c>
       <c r="I32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>37000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-160000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>29700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>36000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>9800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>70200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>14800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>20300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="E33" s="3">
-        <v>-163000</v>
+        <v>-126200</v>
       </c>
       <c r="F33" s="3">
-        <v>1000</v>
+        <v>-7200</v>
       </c>
       <c r="G33" s="3">
-        <v>-19900</v>
+        <v>-157300</v>
       </c>
       <c r="H33" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="I33" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>182400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>50100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>60700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>101400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>17100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="E35" s="3">
-        <v>-163000</v>
+        <v>-126200</v>
       </c>
       <c r="F35" s="3">
-        <v>1000</v>
+        <v>-7200</v>
       </c>
       <c r="G35" s="3">
-        <v>-19900</v>
+        <v>-157300</v>
       </c>
       <c r="H35" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="I35" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>182400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>50100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>60700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>101400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>17100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,306 +2659,332 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74000</v>
+        <v>128300</v>
       </c>
       <c r="E41" s="3">
-        <v>50600</v>
+        <v>104700</v>
       </c>
       <c r="F41" s="3">
-        <v>92500</v>
+        <v>71400</v>
       </c>
       <c r="G41" s="3">
-        <v>58400</v>
+        <v>59300</v>
       </c>
       <c r="H41" s="3">
-        <v>26100</v>
+        <v>89300</v>
       </c>
       <c r="I41" s="3">
+        <v>56300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K41" s="3">
         <v>44800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>32400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>58600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>41200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>44600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>59000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>26900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>25000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>30500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>48800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24600</v>
+        <v>50000</v>
       </c>
       <c r="E42" s="3">
-        <v>26700</v>
+        <v>28200</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>23700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="H42" s="3">
-        <v>19900</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>40300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>93800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>60800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>57400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>37600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>42400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>15900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>14600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>14900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>10200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>154600</v>
+        <v>200000</v>
       </c>
       <c r="E43" s="3">
-        <v>168800</v>
+        <v>172800</v>
       </c>
       <c r="F43" s="3">
-        <v>177100</v>
+        <v>149200</v>
       </c>
       <c r="G43" s="3">
-        <v>147100</v>
+        <v>197600</v>
       </c>
       <c r="H43" s="3">
-        <v>155500</v>
+        <v>170900</v>
       </c>
       <c r="I43" s="3">
+        <v>141900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>150100</v>
+      </c>
+      <c r="K43" s="3">
         <v>176900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>154000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>129500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>135800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>319900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>137600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>125000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>134400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>197800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>113700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>111200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>124100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>106000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21400</v>
+        <v>27700</v>
       </c>
       <c r="E44" s="3">
-        <v>21700</v>
+        <v>25700</v>
       </c>
       <c r="F44" s="3">
+        <v>20700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>25400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>17900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L44" s="3">
         <v>18600</v>
       </c>
-      <c r="G44" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="M44" s="3">
         <v>18400</v>
       </c>
-      <c r="I44" s="3">
-        <v>27000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>18600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>18400</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>22400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>26300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>12200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>10100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>8000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>14900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>7400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>6500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>6900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>7500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1300</v>
-      </c>
       <c r="I45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1800</v>
       </c>
       <c r="L45" s="3">
         <v>1300</v>
       </c>
       <c r="M45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>900</v>
@@ -2795,196 +2993,220 @@
         <v>800</v>
       </c>
       <c r="V45" s="3">
+        <v>900</v>
+      </c>
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>276700</v>
+        <v>409200</v>
       </c>
       <c r="E46" s="3">
-        <v>270600</v>
+        <v>334200</v>
       </c>
       <c r="F46" s="3">
-        <v>290200</v>
+        <v>267000</v>
       </c>
       <c r="G46" s="3">
-        <v>227600</v>
+        <v>316700</v>
       </c>
       <c r="H46" s="3">
-        <v>221200</v>
+        <v>280000</v>
       </c>
       <c r="I46" s="3">
+        <v>219700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>213400</v>
+      </c>
+      <c r="K46" s="3">
         <v>250200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>206300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>185700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>201400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>286000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>270300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>234800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>225600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>315400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>164800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>158200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>177300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>173400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2100</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>25500</v>
+        <v>1300</v>
       </c>
       <c r="F47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>600</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="P47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
-        <v>400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="N47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>600</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1461100</v>
+        <v>1740600</v>
       </c>
       <c r="E48" s="3">
-        <v>1453500</v>
+        <v>1578000</v>
       </c>
       <c r="F48" s="3">
-        <v>1308300</v>
+        <v>1409900</v>
       </c>
       <c r="G48" s="3">
-        <v>1198500</v>
+        <v>1700900</v>
       </c>
       <c r="H48" s="3">
-        <v>1122600</v>
+        <v>1262500</v>
       </c>
       <c r="I48" s="3">
+        <v>1156500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1083200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1421200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>927800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>866400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>880600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1303600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>269400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>278500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>258100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1309000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>313000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>292000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>310400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>293100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3201,38 +3441,44 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>27300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>26300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>23000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>27200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>26500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>28500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>26700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1739900</v>
+        <v>2149900</v>
       </c>
       <c r="E54" s="3">
-        <v>1727500</v>
+        <v>1913500</v>
       </c>
       <c r="F54" s="3">
-        <v>1598700</v>
+        <v>1679000</v>
       </c>
       <c r="G54" s="3">
-        <v>1426700</v>
+        <v>2021600</v>
       </c>
       <c r="H54" s="3">
-        <v>1344100</v>
+        <v>1542800</v>
       </c>
       <c r="I54" s="3">
+        <v>1376700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1297000</v>
+      </c>
+      <c r="K54" s="3">
         <v>1671900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1134500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1060900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1091900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1606500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>597900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>540300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>507300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1626000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>507100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>477800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>517600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>495700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>403900</v>
+        <v>602400</v>
       </c>
       <c r="E57" s="3">
-        <v>383400</v>
+        <v>505900</v>
       </c>
       <c r="F57" s="3">
-        <v>330300</v>
+        <v>389800</v>
       </c>
       <c r="G57" s="3">
-        <v>221600</v>
+        <v>448600</v>
       </c>
       <c r="H57" s="3">
-        <v>163500</v>
+        <v>318800</v>
       </c>
       <c r="I57" s="3">
+        <v>213800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>157800</v>
+      </c>
+      <c r="K57" s="3">
         <v>177700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>129200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>143300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>229800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>304800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>219000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>202200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>183300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>311500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>186600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>181900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>186800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>178600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="E58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>25100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="O58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="P58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
-        <v>16400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>13300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>25100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>20800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>14100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>19800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1300</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1400</v>
       </c>
       <c r="V58" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X58" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99900</v>
+        <v>117000</v>
       </c>
       <c r="E59" s="3">
-        <v>101100</v>
+        <v>94600</v>
       </c>
       <c r="F59" s="3">
-        <v>75900</v>
+        <v>96400</v>
       </c>
       <c r="G59" s="3">
-        <v>79200</v>
+        <v>118300</v>
       </c>
       <c r="H59" s="3">
-        <v>85800</v>
+        <v>73300</v>
       </c>
       <c r="I59" s="3">
+        <v>76400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K59" s="3">
         <v>141200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>83800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>83900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>57400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>110400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>68300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>66700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>59100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>110900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>69400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>62700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>59800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>70400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>510500</v>
+        <v>726500</v>
       </c>
       <c r="E60" s="3">
-        <v>489600</v>
+        <v>605400</v>
       </c>
       <c r="F60" s="3">
-        <v>422600</v>
+        <v>492700</v>
       </c>
       <c r="G60" s="3">
-        <v>314100</v>
+        <v>572900</v>
       </c>
       <c r="H60" s="3">
-        <v>272300</v>
+        <v>407800</v>
       </c>
       <c r="I60" s="3">
+        <v>303100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>262800</v>
+      </c>
+      <c r="K60" s="3">
         <v>344000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>233800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>241200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>307000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>437700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>292400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>270600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>245200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>424800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>259100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>245900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>249700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>250400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92800</v>
+        <v>96000</v>
       </c>
       <c r="E61" s="3">
-        <v>95900</v>
+        <v>93000</v>
       </c>
       <c r="F61" s="3">
-        <v>76900</v>
+        <v>89500</v>
       </c>
       <c r="G61" s="3">
-        <v>98000</v>
+        <v>112200</v>
       </c>
       <c r="H61" s="3">
-        <v>90700</v>
+        <v>74200</v>
       </c>
       <c r="I61" s="3">
+        <v>94600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>87600</v>
+      </c>
+      <c r="K61" s="3">
         <v>114700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>104300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>81600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>150100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>136000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>107300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>74800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>142000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>69300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>66600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>70200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>72500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413100</v>
+        <v>605200</v>
       </c>
       <c r="E62" s="3">
-        <v>411800</v>
+        <v>549100</v>
       </c>
       <c r="F62" s="3">
-        <v>371200</v>
+        <v>398600</v>
       </c>
       <c r="G62" s="3">
-        <v>341600</v>
+        <v>481900</v>
       </c>
       <c r="H62" s="3">
-        <v>320000</v>
+        <v>358200</v>
       </c>
       <c r="I62" s="3">
+        <v>329700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>308800</v>
+      </c>
+      <c r="K62" s="3">
         <v>385400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>236200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>210900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>259800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>372500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>134600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>137000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>146600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>421700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>154700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>148400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>176600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>163300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1016400</v>
+        <v>1427700</v>
       </c>
       <c r="E66" s="3">
-        <v>997300</v>
+        <v>1247500</v>
       </c>
       <c r="F66" s="3">
-        <v>870700</v>
+        <v>980800</v>
       </c>
       <c r="G66" s="3">
-        <v>753800</v>
+        <v>1167000</v>
       </c>
       <c r="H66" s="3">
-        <v>683100</v>
+        <v>840200</v>
       </c>
       <c r="I66" s="3">
+        <v>727400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>659200</v>
+      </c>
+      <c r="K66" s="3">
         <v>844100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>574300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>533800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>667600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>960300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>563000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>514900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>466600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>988400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>483100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>460800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>496500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>486200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>313400</v>
+        <v>242300</v>
       </c>
       <c r="E72" s="3">
-        <v>320100</v>
+        <v>227100</v>
       </c>
       <c r="F72" s="3">
-        <v>401100</v>
+        <v>302400</v>
       </c>
       <c r="G72" s="3">
-        <v>370300</v>
+        <v>374600</v>
       </c>
       <c r="H72" s="3">
-        <v>374900</v>
+        <v>387000</v>
       </c>
       <c r="I72" s="3">
+        <v>357300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K72" s="3">
         <v>465400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>322000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>301900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>191100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>286600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>26100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>18700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>217900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-24100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>723500</v>
+        <v>722300</v>
       </c>
       <c r="E76" s="3">
-        <v>730200</v>
+        <v>666000</v>
       </c>
       <c r="F76" s="3">
-        <v>728000</v>
+        <v>698200</v>
       </c>
       <c r="G76" s="3">
-        <v>672900</v>
+        <v>854500</v>
       </c>
       <c r="H76" s="3">
-        <v>661000</v>
+        <v>702600</v>
       </c>
       <c r="I76" s="3">
+        <v>649400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>637900</v>
+      </c>
+      <c r="K76" s="3">
         <v>827700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>560200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>527100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>424300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>646200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>34900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>25400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>40700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>637600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>24000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>16900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>9500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="E81" s="3">
-        <v>-163000</v>
+        <v>-126200</v>
       </c>
       <c r="F81" s="3">
-        <v>1000</v>
+        <v>-7200</v>
       </c>
       <c r="G81" s="3">
-        <v>-19900</v>
+        <v>-157300</v>
       </c>
       <c r="H81" s="3">
-        <v>10600</v>
+        <v>1500</v>
       </c>
       <c r="I81" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>182400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>50100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>60700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>101400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>17100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>18700</v>
+        <v>25800</v>
       </c>
       <c r="E83" s="3">
-        <v>22400</v>
+        <v>40200</v>
       </c>
       <c r="F83" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="G83" s="3">
-        <v>29400</v>
+        <v>-2200</v>
       </c>
       <c r="H83" s="3">
-        <v>19800</v>
+        <v>27300</v>
       </c>
       <c r="I83" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K83" s="3">
         <v>21400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>30000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>18000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>16700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>24400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>42200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>2500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>41500</v>
+        <v>62900</v>
       </c>
       <c r="E89" s="3">
-        <v>2900</v>
+        <v>108400</v>
       </c>
       <c r="F89" s="3">
-        <v>102600</v>
+        <v>40100</v>
       </c>
       <c r="G89" s="3">
-        <v>74800</v>
+        <v>-85800</v>
       </c>
       <c r="H89" s="3">
-        <v>30900</v>
+        <v>151700</v>
       </c>
       <c r="I89" s="3">
+        <v>108100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K89" s="3">
         <v>42600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>16700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>88000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>42200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>73600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>131300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>69900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>121600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>25200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>19300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>3700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>27600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-19200</v>
+        <v>-41900</v>
       </c>
       <c r="E91" s="3">
-        <v>-34900</v>
+        <v>-55200</v>
       </c>
       <c r="F91" s="3">
-        <v>-30400</v>
+        <v>-18600</v>
       </c>
       <c r="G91" s="3">
-        <v>-35900</v>
+        <v>-33700</v>
       </c>
       <c r="H91" s="3">
-        <v>-10900</v>
+        <v>-29300</v>
       </c>
       <c r="I91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-17100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-31500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-50800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-57700</v>
       </c>
       <c r="N91" s="3">
         <v>-25800</v>
       </c>
       <c r="O91" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-37300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-21900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-24400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-20000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-19500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-24800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21700</v>
+        <v>-78100</v>
       </c>
       <c r="E94" s="3">
-        <v>-38700</v>
+        <v>-72400</v>
       </c>
       <c r="F94" s="3">
-        <v>-32900</v>
+        <v>-21000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2600</v>
+        <v>-37300</v>
       </c>
       <c r="H94" s="3">
-        <v>1300</v>
+        <v>-31700</v>
       </c>
       <c r="I94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-31200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-61500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-55600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-43800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-25300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-21000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1200</v>
+        <v>-1600</v>
       </c>
       <c r="E100" s="3">
-        <v>-10200</v>
+        <v>-7000</v>
       </c>
       <c r="F100" s="3">
-        <v>-35300</v>
+        <v>-1100</v>
       </c>
       <c r="G100" s="3">
-        <v>-17700</v>
+        <v>-9900</v>
       </c>
       <c r="H100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-33100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-18800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-15500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>22900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-3000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F101" s="3">
-        <v>-700</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20300</v>
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>-48300</v>
+        <v>30700</v>
       </c>
       <c r="F102" s="3">
-        <v>33800</v>
+        <v>19600</v>
       </c>
       <c r="G102" s="3">
-        <v>53600</v>
+        <v>-46600</v>
       </c>
       <c r="H102" s="3">
-        <v>30900</v>
+        <v>6800</v>
       </c>
       <c r="I102" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>17200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-59800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>48100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-5000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>4400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>290000</v>
+        <v>268700</v>
       </c>
       <c r="E8" s="3">
-        <v>511500</v>
+        <v>473900</v>
       </c>
       <c r="F8" s="3">
-        <v>231200</v>
+        <v>214200</v>
       </c>
       <c r="G8" s="3">
-        <v>251900</v>
+        <v>233400</v>
       </c>
       <c r="H8" s="3">
-        <v>346800</v>
+        <v>321300</v>
       </c>
       <c r="I8" s="3">
-        <v>645700</v>
+        <v>598200</v>
       </c>
       <c r="J8" s="3">
-        <v>323000</v>
+        <v>299200</v>
       </c>
       <c r="K8" s="3">
         <v>351100</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169000</v>
+        <v>156600</v>
       </c>
       <c r="E9" s="3">
-        <v>320700</v>
+        <v>297100</v>
       </c>
       <c r="F9" s="3">
-        <v>140200</v>
+        <v>129900</v>
       </c>
       <c r="G9" s="3">
-        <v>160700</v>
+        <v>148900</v>
       </c>
       <c r="H9" s="3">
-        <v>215400</v>
+        <v>199600</v>
       </c>
       <c r="I9" s="3">
-        <v>412800</v>
+        <v>382500</v>
       </c>
       <c r="J9" s="3">
-        <v>201500</v>
+        <v>186700</v>
       </c>
       <c r="K9" s="3">
         <v>227600</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>121000</v>
+        <v>112100</v>
       </c>
       <c r="E10" s="3">
-        <v>190900</v>
+        <v>176800</v>
       </c>
       <c r="F10" s="3">
-        <v>91000</v>
+        <v>84300</v>
       </c>
       <c r="G10" s="3">
-        <v>91200</v>
+        <v>84500</v>
       </c>
       <c r="H10" s="3">
-        <v>131400</v>
+        <v>121700</v>
       </c>
       <c r="I10" s="3">
-        <v>232900</v>
+        <v>215700</v>
       </c>
       <c r="J10" s="3">
-        <v>121500</v>
+        <v>112500</v>
       </c>
       <c r="K10" s="3">
         <v>123500</v>
@@ -1139,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>173100</v>
+        <v>160400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1207,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>18100</v>
+        <v>16700</v>
       </c>
       <c r="G15" s="3">
-        <v>21600</v>
+        <v>20100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1219,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="K15" s="3">
         <v>21400</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>277300</v>
+        <v>256900</v>
       </c>
       <c r="E17" s="3">
-        <v>529300</v>
+        <v>490400</v>
       </c>
       <c r="F17" s="3">
-        <v>241000</v>
+        <v>223300</v>
       </c>
       <c r="G17" s="3">
-        <v>454600</v>
+        <v>421200</v>
       </c>
       <c r="H17" s="3">
-        <v>336700</v>
+        <v>311900</v>
       </c>
       <c r="I17" s="3">
-        <v>648100</v>
+        <v>600400</v>
       </c>
       <c r="J17" s="3">
-        <v>294000</v>
+        <v>272300</v>
       </c>
       <c r="K17" s="3">
         <v>316800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="E18" s="3">
-        <v>-17800</v>
+        <v>-16500</v>
       </c>
       <c r="F18" s="3">
-        <v>-9800</v>
+        <v>-9100</v>
       </c>
       <c r="G18" s="3">
-        <v>-202700</v>
+        <v>-187800</v>
       </c>
       <c r="H18" s="3">
-        <v>10200</v>
+        <v>9400</v>
       </c>
       <c r="I18" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="J18" s="3">
-        <v>29000</v>
+        <v>26900</v>
       </c>
       <c r="K18" s="3">
         <v>34300</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="E20" s="3">
-        <v>21400</v>
+        <v>19800</v>
       </c>
       <c r="F20" s="3">
-        <v>22000</v>
+        <v>20400</v>
       </c>
       <c r="G20" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="H20" s="3">
         <v>600</v>
       </c>
       <c r="I20" s="3">
-        <v>-17600</v>
+        <v>-16300</v>
       </c>
       <c r="J20" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="K20" s="3">
         <v>11800</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>33600</v>
+        <v>31100</v>
       </c>
       <c r="E21" s="3">
-        <v>43700</v>
+        <v>40500</v>
       </c>
       <c r="F21" s="3">
-        <v>30300</v>
+        <v>28000</v>
       </c>
       <c r="G21" s="3">
-        <v>-196600</v>
+        <v>-182200</v>
       </c>
       <c r="H21" s="3">
-        <v>38100</v>
+        <v>35300</v>
       </c>
       <c r="I21" s="3">
-        <v>22600</v>
+        <v>21000</v>
       </c>
       <c r="J21" s="3">
-        <v>55400</v>
+        <v>51300</v>
       </c>
       <c r="K21" s="3">
         <v>67600</v>
@@ -1596,10 +1596,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="G22" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="K22" s="3">
         <v>29400</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="E23" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="F23" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G23" s="3">
-        <v>-204900</v>
+        <v>-189800</v>
       </c>
       <c r="H23" s="3">
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>-19900</v>
+        <v>-18500</v>
       </c>
       <c r="J23" s="3">
-        <v>24600</v>
+        <v>22800</v>
       </c>
       <c r="K23" s="3">
         <v>16700</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="E24" s="3">
-        <v>129800</v>
+        <v>120200</v>
       </c>
       <c r="F24" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="G24" s="3">
-        <v>-47600</v>
+        <v>-44100</v>
       </c>
       <c r="H24" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="I24" s="3">
-        <v>9300</v>
+        <v>8600</v>
       </c>
       <c r="J24" s="3">
-        <v>13300</v>
+        <v>12300</v>
       </c>
       <c r="K24" s="3">
         <v>22300</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E26" s="3">
-        <v>-126200</v>
+        <v>-116900</v>
       </c>
       <c r="F26" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="G26" s="3">
-        <v>-157300</v>
+        <v>-145700</v>
       </c>
       <c r="H26" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I26" s="3">
-        <v>-29200</v>
+        <v>-27100</v>
       </c>
       <c r="J26" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K26" s="3">
         <v>-5600</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E27" s="3">
-        <v>-126200</v>
+        <v>-116900</v>
       </c>
       <c r="F27" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="G27" s="3">
-        <v>-157300</v>
+        <v>-145700</v>
       </c>
       <c r="H27" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I27" s="3">
-        <v>-29200</v>
+        <v>-27100</v>
       </c>
       <c r="J27" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K27" s="3">
         <v>-5600</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="E32" s="3">
-        <v>-21400</v>
+        <v>-19800</v>
       </c>
       <c r="F32" s="3">
-        <v>-22000</v>
+        <v>-20400</v>
       </c>
       <c r="G32" s="3">
-        <v>-8300</v>
+        <v>-7700</v>
       </c>
       <c r="H32" s="3">
         <v>-600</v>
       </c>
       <c r="I32" s="3">
-        <v>17600</v>
+        <v>16300</v>
       </c>
       <c r="J32" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="K32" s="3">
         <v>-11800</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E33" s="3">
-        <v>-126200</v>
+        <v>-116900</v>
       </c>
       <c r="F33" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="G33" s="3">
-        <v>-157300</v>
+        <v>-145700</v>
       </c>
       <c r="H33" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I33" s="3">
-        <v>-29200</v>
+        <v>-27100</v>
       </c>
       <c r="J33" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K33" s="3">
         <v>-5600</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E35" s="3">
-        <v>-126200</v>
+        <v>-116900</v>
       </c>
       <c r="F35" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="G35" s="3">
-        <v>-157300</v>
+        <v>-145700</v>
       </c>
       <c r="H35" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I35" s="3">
-        <v>-29200</v>
+        <v>-27100</v>
       </c>
       <c r="J35" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K35" s="3">
         <v>-5600</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128300</v>
+        <v>118800</v>
       </c>
       <c r="E41" s="3">
-        <v>104700</v>
+        <v>97000</v>
       </c>
       <c r="F41" s="3">
-        <v>71400</v>
+        <v>66200</v>
       </c>
       <c r="G41" s="3">
-        <v>59300</v>
+        <v>54900</v>
       </c>
       <c r="H41" s="3">
-        <v>89300</v>
+        <v>82700</v>
       </c>
       <c r="I41" s="3">
-        <v>56300</v>
+        <v>52200</v>
       </c>
       <c r="J41" s="3">
-        <v>25200</v>
+        <v>23300</v>
       </c>
       <c r="K41" s="3">
         <v>44800</v>
@@ -2735,16 +2735,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50000</v>
+        <v>46300</v>
       </c>
       <c r="E42" s="3">
-        <v>28200</v>
+        <v>26100</v>
       </c>
       <c r="F42" s="3">
-        <v>23700</v>
+        <v>22000</v>
       </c>
       <c r="G42" s="3">
-        <v>31200</v>
+        <v>28900</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>19200</v>
+        <v>17700</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200000</v>
+        <v>185300</v>
       </c>
       <c r="E43" s="3">
-        <v>172800</v>
+        <v>160100</v>
       </c>
       <c r="F43" s="3">
-        <v>149200</v>
+        <v>138200</v>
       </c>
       <c r="G43" s="3">
-        <v>197600</v>
+        <v>183000</v>
       </c>
       <c r="H43" s="3">
-        <v>170900</v>
+        <v>158300</v>
       </c>
       <c r="I43" s="3">
-        <v>141900</v>
+        <v>131500</v>
       </c>
       <c r="J43" s="3">
-        <v>150100</v>
+        <v>139100</v>
       </c>
       <c r="K43" s="3">
         <v>176900</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27700</v>
+        <v>25600</v>
       </c>
       <c r="E44" s="3">
-        <v>25700</v>
+        <v>23800</v>
       </c>
       <c r="F44" s="3">
-        <v>20700</v>
+        <v>19100</v>
       </c>
       <c r="G44" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="H44" s="3">
-        <v>17900</v>
+        <v>16600</v>
       </c>
       <c r="I44" s="3">
-        <v>19500</v>
+        <v>18100</v>
       </c>
       <c r="J44" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="K44" s="3">
         <v>27000</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="H45" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>409200</v>
+        <v>379000</v>
       </c>
       <c r="E46" s="3">
-        <v>334200</v>
+        <v>309600</v>
       </c>
       <c r="F46" s="3">
-        <v>267000</v>
+        <v>247400</v>
       </c>
       <c r="G46" s="3">
-        <v>316700</v>
+        <v>293400</v>
       </c>
       <c r="H46" s="3">
-        <v>280000</v>
+        <v>259400</v>
       </c>
       <c r="I46" s="3">
-        <v>219700</v>
+        <v>203500</v>
       </c>
       <c r="J46" s="3">
-        <v>213400</v>
+        <v>197700</v>
       </c>
       <c r="K46" s="3">
         <v>250200</v>
@@ -3078,13 +3078,13 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G47" s="3">
-        <v>25300</v>
+        <v>23500</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1740600</v>
+        <v>1612500</v>
       </c>
       <c r="E48" s="3">
-        <v>1578000</v>
+        <v>1461900</v>
       </c>
       <c r="F48" s="3">
-        <v>1409900</v>
+        <v>1306200</v>
       </c>
       <c r="G48" s="3">
-        <v>1700900</v>
+        <v>1575800</v>
       </c>
       <c r="H48" s="3">
-        <v>1262500</v>
+        <v>1169600</v>
       </c>
       <c r="I48" s="3">
-        <v>1156500</v>
+        <v>1071400</v>
       </c>
       <c r="J48" s="3">
-        <v>1083200</v>
+        <v>1003500</v>
       </c>
       <c r="K48" s="3">
         <v>1421200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2149900</v>
+        <v>1991700</v>
       </c>
       <c r="E54" s="3">
-        <v>1913500</v>
+        <v>1772700</v>
       </c>
       <c r="F54" s="3">
-        <v>1679000</v>
+        <v>1555400</v>
       </c>
       <c r="G54" s="3">
-        <v>2021600</v>
+        <v>1872800</v>
       </c>
       <c r="H54" s="3">
-        <v>1542800</v>
+        <v>1429200</v>
       </c>
       <c r="I54" s="3">
-        <v>1376700</v>
+        <v>1275400</v>
       </c>
       <c r="J54" s="3">
-        <v>1297000</v>
+        <v>1201600</v>
       </c>
       <c r="K54" s="3">
         <v>1671900</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>602400</v>
+        <v>558100</v>
       </c>
       <c r="E57" s="3">
-        <v>505900</v>
+        <v>468600</v>
       </c>
       <c r="F57" s="3">
-        <v>389800</v>
+        <v>361100</v>
       </c>
       <c r="G57" s="3">
-        <v>448600</v>
+        <v>415600</v>
       </c>
       <c r="H57" s="3">
-        <v>318800</v>
+        <v>295300</v>
       </c>
       <c r="I57" s="3">
-        <v>213800</v>
+        <v>198100</v>
       </c>
       <c r="J57" s="3">
-        <v>157800</v>
+        <v>146200</v>
       </c>
       <c r="K57" s="3">
         <v>177700</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F58" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="G58" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>15800</v>
+        <v>14600</v>
       </c>
       <c r="I58" s="3">
-        <v>12900</v>
+        <v>11900</v>
       </c>
       <c r="J58" s="3">
-        <v>22200</v>
+        <v>20600</v>
       </c>
       <c r="K58" s="3">
         <v>25100</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>117000</v>
+        <v>108400</v>
       </c>
       <c r="E59" s="3">
-        <v>94600</v>
+        <v>87600</v>
       </c>
       <c r="F59" s="3">
-        <v>96400</v>
+        <v>89300</v>
       </c>
       <c r="G59" s="3">
-        <v>118300</v>
+        <v>109600</v>
       </c>
       <c r="H59" s="3">
-        <v>73300</v>
+        <v>67900</v>
       </c>
       <c r="I59" s="3">
-        <v>76400</v>
+        <v>70800</v>
       </c>
       <c r="J59" s="3">
-        <v>82800</v>
+        <v>76700</v>
       </c>
       <c r="K59" s="3">
         <v>141200</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>726500</v>
+        <v>673100</v>
       </c>
       <c r="E60" s="3">
-        <v>605400</v>
+        <v>560800</v>
       </c>
       <c r="F60" s="3">
-        <v>492700</v>
+        <v>456400</v>
       </c>
       <c r="G60" s="3">
-        <v>572900</v>
+        <v>530700</v>
       </c>
       <c r="H60" s="3">
-        <v>407800</v>
+        <v>377800</v>
       </c>
       <c r="I60" s="3">
-        <v>303100</v>
+        <v>280800</v>
       </c>
       <c r="J60" s="3">
-        <v>262800</v>
+        <v>243500</v>
       </c>
       <c r="K60" s="3">
         <v>344000</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>96000</v>
+        <v>88900</v>
       </c>
       <c r="E61" s="3">
-        <v>93000</v>
+        <v>86200</v>
       </c>
       <c r="F61" s="3">
-        <v>89500</v>
+        <v>82900</v>
       </c>
       <c r="G61" s="3">
-        <v>112200</v>
+        <v>104000</v>
       </c>
       <c r="H61" s="3">
-        <v>74200</v>
+        <v>68700</v>
       </c>
       <c r="I61" s="3">
-        <v>94600</v>
+        <v>87600</v>
       </c>
       <c r="J61" s="3">
-        <v>87600</v>
+        <v>81100</v>
       </c>
       <c r="K61" s="3">
         <v>114700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>605200</v>
+        <v>560600</v>
       </c>
       <c r="E62" s="3">
-        <v>549100</v>
+        <v>508700</v>
       </c>
       <c r="F62" s="3">
-        <v>398600</v>
+        <v>369300</v>
       </c>
       <c r="G62" s="3">
-        <v>481900</v>
+        <v>446500</v>
       </c>
       <c r="H62" s="3">
-        <v>358200</v>
+        <v>331900</v>
       </c>
       <c r="I62" s="3">
-        <v>329700</v>
+        <v>305400</v>
       </c>
       <c r="J62" s="3">
-        <v>308800</v>
+        <v>286100</v>
       </c>
       <c r="K62" s="3">
         <v>385400</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1427700</v>
+        <v>1322600</v>
       </c>
       <c r="E66" s="3">
-        <v>1247500</v>
+        <v>1155700</v>
       </c>
       <c r="F66" s="3">
-        <v>980800</v>
+        <v>908600</v>
       </c>
       <c r="G66" s="3">
-        <v>1167000</v>
+        <v>1081200</v>
       </c>
       <c r="H66" s="3">
-        <v>840200</v>
+        <v>778400</v>
       </c>
       <c r="I66" s="3">
-        <v>727400</v>
+        <v>673800</v>
       </c>
       <c r="J66" s="3">
-        <v>659200</v>
+        <v>610700</v>
       </c>
       <c r="K66" s="3">
         <v>844100</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>242300</v>
+        <v>224400</v>
       </c>
       <c r="E72" s="3">
-        <v>227100</v>
+        <v>210400</v>
       </c>
       <c r="F72" s="3">
-        <v>302400</v>
+        <v>280100</v>
       </c>
       <c r="G72" s="3">
-        <v>374600</v>
+        <v>347100</v>
       </c>
       <c r="H72" s="3">
-        <v>387000</v>
+        <v>358500</v>
       </c>
       <c r="I72" s="3">
-        <v>357300</v>
+        <v>331000</v>
       </c>
       <c r="J72" s="3">
-        <v>361800</v>
+        <v>335100</v>
       </c>
       <c r="K72" s="3">
         <v>465400</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>722300</v>
+        <v>669100</v>
       </c>
       <c r="E76" s="3">
-        <v>666000</v>
+        <v>617000</v>
       </c>
       <c r="F76" s="3">
-        <v>698200</v>
+        <v>646800</v>
       </c>
       <c r="G76" s="3">
-        <v>854500</v>
+        <v>791700</v>
       </c>
       <c r="H76" s="3">
-        <v>702600</v>
+        <v>650900</v>
       </c>
       <c r="I76" s="3">
-        <v>649400</v>
+        <v>601600</v>
       </c>
       <c r="J76" s="3">
-        <v>637900</v>
+        <v>590900</v>
       </c>
       <c r="K76" s="3">
         <v>827700</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6100</v>
+        <v>-5700</v>
       </c>
       <c r="E81" s="3">
-        <v>-126200</v>
+        <v>-116900</v>
       </c>
       <c r="F81" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="G81" s="3">
-        <v>-157300</v>
+        <v>-145700</v>
       </c>
       <c r="H81" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I81" s="3">
-        <v>-29200</v>
+        <v>-27100</v>
       </c>
       <c r="J81" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K81" s="3">
         <v>-5600</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25800</v>
+        <v>23900</v>
       </c>
       <c r="E83" s="3">
-        <v>40200</v>
+        <v>37200</v>
       </c>
       <c r="F83" s="3">
-        <v>18100</v>
+        <v>16700</v>
       </c>
       <c r="G83" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="H83" s="3">
-        <v>27300</v>
+        <v>25300</v>
       </c>
       <c r="I83" s="3">
-        <v>42600</v>
+        <v>39400</v>
       </c>
       <c r="J83" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="K83" s="3">
         <v>21400</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>62900</v>
+        <v>58300</v>
       </c>
       <c r="E89" s="3">
-        <v>108400</v>
+        <v>100500</v>
       </c>
       <c r="F89" s="3">
-        <v>40100</v>
+        <v>37100</v>
       </c>
       <c r="G89" s="3">
-        <v>-85800</v>
+        <v>-79500</v>
       </c>
       <c r="H89" s="3">
-        <v>151700</v>
+        <v>140500</v>
       </c>
       <c r="I89" s="3">
-        <v>108100</v>
+        <v>100200</v>
       </c>
       <c r="J89" s="3">
-        <v>29800</v>
+        <v>27600</v>
       </c>
       <c r="K89" s="3">
         <v>42600</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41900</v>
+        <v>-38900</v>
       </c>
       <c r="E91" s="3">
-        <v>-55200</v>
+        <v>-51100</v>
       </c>
       <c r="F91" s="3">
-        <v>-18600</v>
+        <v>-17200</v>
       </c>
       <c r="G91" s="3">
-        <v>-33700</v>
+        <v>-31200</v>
       </c>
       <c r="H91" s="3">
-        <v>-29300</v>
+        <v>-27200</v>
       </c>
       <c r="I91" s="3">
-        <v>-34600</v>
+        <v>-32100</v>
       </c>
       <c r="J91" s="3">
-        <v>-10500</v>
+        <v>-9700</v>
       </c>
       <c r="K91" s="3">
         <v>-17100</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78100</v>
+        <v>-72400</v>
       </c>
       <c r="E94" s="3">
-        <v>-72400</v>
+        <v>-67100</v>
       </c>
       <c r="F94" s="3">
-        <v>-21000</v>
+        <v>-19400</v>
       </c>
       <c r="G94" s="3">
-        <v>-37300</v>
+        <v>-34600</v>
       </c>
       <c r="H94" s="3">
-        <v>-31700</v>
+        <v>-29400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J94" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E100" s="3">
-        <v>-7000</v>
+        <v>-6400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G100" s="3">
-        <v>-9900</v>
+        <v>-9100</v>
       </c>
       <c r="H100" s="3">
-        <v>-34100</v>
+        <v>-31500</v>
       </c>
       <c r="I100" s="3">
-        <v>-17100</v>
+        <v>-15900</v>
       </c>
       <c r="J100" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K100" s="3">
         <v>-33100</v>
@@ -6364,22 +6364,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-10700</v>
+        <v>-9900</v>
       </c>
       <c r="H101" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="I101" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="E102" s="3">
-        <v>30700</v>
+        <v>28400</v>
       </c>
       <c r="F102" s="3">
-        <v>19600</v>
+        <v>18100</v>
       </c>
       <c r="G102" s="3">
-        <v>-46600</v>
+        <v>-43100</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="I102" s="3">
-        <v>77500</v>
+        <v>71800</v>
       </c>
       <c r="J102" s="3">
-        <v>29800</v>
+        <v>27600</v>
       </c>
       <c r="K102" s="3">
         <v>2600</v>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>268700</v>
+        <v>278900</v>
       </c>
       <c r="E8" s="3">
-        <v>473900</v>
+        <v>249400</v>
       </c>
       <c r="F8" s="3">
-        <v>214200</v>
+        <v>439900</v>
       </c>
       <c r="G8" s="3">
-        <v>233400</v>
+        <v>198800</v>
       </c>
       <c r="H8" s="3">
-        <v>321300</v>
+        <v>321900</v>
       </c>
       <c r="I8" s="3">
-        <v>598200</v>
+        <v>298200</v>
       </c>
       <c r="J8" s="3">
+        <v>555200</v>
+      </c>
+      <c r="K8" s="3">
         <v>299200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>351100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>313200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>631400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>308300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>322000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>347600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>637600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>318100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>505300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>148100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>131900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>140500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>103700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>156600</v>
+        <v>174300</v>
       </c>
       <c r="E9" s="3">
-        <v>297100</v>
+        <v>145300</v>
       </c>
       <c r="F9" s="3">
-        <v>129900</v>
+        <v>275700</v>
       </c>
       <c r="G9" s="3">
-        <v>148900</v>
+        <v>120600</v>
       </c>
       <c r="H9" s="3">
-        <v>199600</v>
+        <v>205400</v>
       </c>
       <c r="I9" s="3">
-        <v>382500</v>
+        <v>185200</v>
       </c>
       <c r="J9" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K9" s="3">
         <v>186700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>227600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>198800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>395000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>202400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>197000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>204700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>339000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>159500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>265700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>75200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>66300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>112100</v>
+        <v>104600</v>
       </c>
       <c r="E10" s="3">
-        <v>176800</v>
+        <v>104000</v>
       </c>
       <c r="F10" s="3">
-        <v>84300</v>
+        <v>164100</v>
       </c>
       <c r="G10" s="3">
-        <v>84500</v>
+        <v>78300</v>
       </c>
       <c r="H10" s="3">
-        <v>121700</v>
+        <v>116500</v>
       </c>
       <c r="I10" s="3">
-        <v>215700</v>
+        <v>113000</v>
       </c>
       <c r="J10" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K10" s="3">
         <v>112500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>123500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>114400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>236400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>105900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>125000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>142800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>298500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>158600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>239600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>69500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>56800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>74200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>69800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>160400</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>224600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-36200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-27800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-97700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-63200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-60300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-70900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-30200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-125300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
         <v>-29500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>24900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>16700</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>15500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>27700</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>17700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21400</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>15200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>2200</v>
       </c>
       <c r="Q15" s="3">
         <v>2200</v>
       </c>
       <c r="R15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S15" s="3">
         <v>11700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>42200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>256900</v>
+        <v>312000</v>
       </c>
       <c r="E17" s="3">
-        <v>490400</v>
+        <v>238500</v>
       </c>
       <c r="F17" s="3">
-        <v>223300</v>
+        <v>455200</v>
       </c>
       <c r="G17" s="3">
-        <v>421200</v>
+        <v>207300</v>
       </c>
       <c r="H17" s="3">
-        <v>311900</v>
+        <v>584900</v>
       </c>
       <c r="I17" s="3">
-        <v>600400</v>
+        <v>289500</v>
       </c>
       <c r="J17" s="3">
+        <v>557300</v>
+      </c>
+      <c r="K17" s="3">
         <v>272300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>316800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>249000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>499100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>244700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>286700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>254400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>469400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>221800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>367000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>125100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>119100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>70200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11800</v>
+        <v>-33100</v>
       </c>
       <c r="E18" s="3">
-        <v>-16500</v>
+        <v>10900</v>
       </c>
       <c r="F18" s="3">
-        <v>-9100</v>
+        <v>-15300</v>
       </c>
       <c r="G18" s="3">
-        <v>-187800</v>
+        <v>-8400</v>
       </c>
       <c r="H18" s="3">
-        <v>9400</v>
+        <v>-263000</v>
       </c>
       <c r="I18" s="3">
-        <v>-2200</v>
+        <v>8700</v>
       </c>
       <c r="J18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K18" s="3">
         <v>26900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>64200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>132300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>35300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>93100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>168100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>96400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>138300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>16800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>21400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>33500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4500</v>
+        <v>-13500</v>
       </c>
       <c r="E20" s="3">
-        <v>19800</v>
+        <v>-4200</v>
       </c>
       <c r="F20" s="3">
-        <v>20400</v>
+        <v>18400</v>
       </c>
       <c r="G20" s="3">
-        <v>7700</v>
+        <v>18900</v>
       </c>
       <c r="H20" s="3">
-        <v>600</v>
+        <v>10600</v>
       </c>
       <c r="I20" s="3">
-        <v>-16300</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="K20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-37000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>160000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-36000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-70200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31100</v>
+        <v>-21800</v>
       </c>
       <c r="E21" s="3">
-        <v>40500</v>
+        <v>28900</v>
       </c>
       <c r="F21" s="3">
-        <v>28000</v>
+        <v>37600</v>
       </c>
       <c r="G21" s="3">
-        <v>-182200</v>
+        <v>26000</v>
       </c>
       <c r="H21" s="3">
-        <v>35300</v>
+        <v>-224700</v>
       </c>
       <c r="I21" s="3">
-        <v>21000</v>
+        <v>32800</v>
       </c>
       <c r="J21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K21" s="3">
         <v>51300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>44600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>322300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>49100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>17200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>122400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>93200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>160200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>32100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>11800</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>9400</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>8700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>29400</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>10700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>21800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7200</v>
+        <v>-58500</v>
       </c>
       <c r="E23" s="3">
-        <v>3300</v>
+        <v>6700</v>
       </c>
       <c r="F23" s="3">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="G23" s="3">
-        <v>-189800</v>
+        <v>1800</v>
       </c>
       <c r="H23" s="3">
-        <v>10000</v>
+        <v>-265800</v>
       </c>
       <c r="I23" s="3">
-        <v>-18500</v>
+        <v>9300</v>
       </c>
       <c r="J23" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K23" s="3">
         <v>22800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>292300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>78800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>95500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>76100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>107100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>25700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12900</v>
+        <v>9800</v>
       </c>
       <c r="E24" s="3">
-        <v>120200</v>
+        <v>12000</v>
       </c>
       <c r="F24" s="3">
+        <v>111600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-61800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="M24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="N24" s="3">
+        <v>109900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="R24" s="3">
+        <v>34800</v>
+      </c>
+      <c r="S24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="X24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-44100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>22300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>23600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>109900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>20700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>28700</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>34800</v>
-      </c>
-      <c r="R24" s="3">
-        <v>24600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="T24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="V24" s="3">
-        <v>6200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>8600</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5700</v>
+        <v>-68300</v>
       </c>
       <c r="E26" s="3">
-        <v>-116900</v>
+        <v>-5300</v>
       </c>
       <c r="F26" s="3">
-        <v>-6700</v>
+        <v>-108500</v>
       </c>
       <c r="G26" s="3">
-        <v>-145700</v>
+        <v>-6200</v>
       </c>
       <c r="H26" s="3">
-        <v>1400</v>
+        <v>-204000</v>
       </c>
       <c r="I26" s="3">
-        <v>-27100</v>
+        <v>1300</v>
       </c>
       <c r="J26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K26" s="3">
         <v>10500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>182400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>101400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>11000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>17100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5700</v>
+        <v>-68300</v>
       </c>
       <c r="E27" s="3">
-        <v>-116900</v>
+        <v>-5300</v>
       </c>
       <c r="F27" s="3">
-        <v>-6700</v>
+        <v>-108500</v>
       </c>
       <c r="G27" s="3">
-        <v>-145700</v>
+        <v>-6200</v>
       </c>
       <c r="H27" s="3">
-        <v>1400</v>
+        <v>-204000</v>
       </c>
       <c r="I27" s="3">
-        <v>-27100</v>
+        <v>1300</v>
       </c>
       <c r="J27" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K27" s="3">
         <v>10500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>182400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>101400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>11000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>17100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4500</v>
+        <v>13500</v>
       </c>
       <c r="E32" s="3">
-        <v>-19800</v>
+        <v>4200</v>
       </c>
       <c r="F32" s="3">
-        <v>-20400</v>
+        <v>-18400</v>
       </c>
       <c r="G32" s="3">
-        <v>-7700</v>
+        <v>-18900</v>
       </c>
       <c r="H32" s="3">
-        <v>-600</v>
+        <v>-10600</v>
       </c>
       <c r="I32" s="3">
-        <v>16300</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>37000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-160000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>36000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>9800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>70200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5700</v>
+        <v>-68300</v>
       </c>
       <c r="E33" s="3">
-        <v>-116900</v>
+        <v>-5300</v>
       </c>
       <c r="F33" s="3">
-        <v>-6700</v>
+        <v>-108500</v>
       </c>
       <c r="G33" s="3">
-        <v>-145700</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
-        <v>1400</v>
+        <v>-204000</v>
       </c>
       <c r="I33" s="3">
-        <v>-27100</v>
+        <v>1300</v>
       </c>
       <c r="J33" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K33" s="3">
         <v>10500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>182400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>101400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>11000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>17100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5700</v>
+        <v>-68300</v>
       </c>
       <c r="E35" s="3">
-        <v>-116900</v>
+        <v>-5300</v>
       </c>
       <c r="F35" s="3">
-        <v>-6700</v>
+        <v>-108500</v>
       </c>
       <c r="G35" s="3">
-        <v>-145700</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
-        <v>1400</v>
+        <v>-204000</v>
       </c>
       <c r="I35" s="3">
-        <v>-27100</v>
+        <v>1300</v>
       </c>
       <c r="J35" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K35" s="3">
         <v>10500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>182400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>101400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>11000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>17100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,103 +2746,107 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>118800</v>
+        <v>83200</v>
       </c>
       <c r="E41" s="3">
-        <v>97000</v>
+        <v>110300</v>
       </c>
       <c r="F41" s="3">
-        <v>66200</v>
+        <v>90100</v>
       </c>
       <c r="G41" s="3">
-        <v>54900</v>
+        <v>61400</v>
       </c>
       <c r="H41" s="3">
-        <v>82700</v>
+        <v>56100</v>
       </c>
       <c r="I41" s="3">
-        <v>52200</v>
+        <v>76800</v>
       </c>
       <c r="J41" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K41" s="3">
         <v>23300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>59000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>26900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>30500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>48800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46300</v>
+        <v>77800</v>
       </c>
       <c r="E42" s="3">
-        <v>26100</v>
+        <v>43000</v>
       </c>
       <c r="F42" s="3">
-        <v>22000</v>
+        <v>24200</v>
       </c>
       <c r="G42" s="3">
-        <v>28900</v>
+        <v>20400</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>17700</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2765,312 +2854,327 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>40300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>93800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>60800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>57400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>42400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>10200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>185300</v>
+        <v>164700</v>
       </c>
       <c r="E43" s="3">
-        <v>160100</v>
+        <v>172000</v>
       </c>
       <c r="F43" s="3">
-        <v>138200</v>
+        <v>148600</v>
       </c>
       <c r="G43" s="3">
-        <v>183000</v>
+        <v>128300</v>
       </c>
       <c r="H43" s="3">
-        <v>158300</v>
+        <v>187200</v>
       </c>
       <c r="I43" s="3">
-        <v>131500</v>
+        <v>146900</v>
       </c>
       <c r="J43" s="3">
+        <v>122000</v>
+      </c>
+      <c r="K43" s="3">
         <v>139100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>176900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>154000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>129500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>135800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>319900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>137600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>125000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>134400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>197800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>113700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>124100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>106000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25600</v>
+        <v>29400</v>
       </c>
       <c r="E44" s="3">
         <v>23800</v>
       </c>
       <c r="F44" s="3">
-        <v>19100</v>
+        <v>22100</v>
       </c>
       <c r="G44" s="3">
-        <v>23600</v>
+        <v>17800</v>
       </c>
       <c r="H44" s="3">
-        <v>16600</v>
+        <v>24100</v>
       </c>
       <c r="I44" s="3">
-        <v>18100</v>
+        <v>15400</v>
       </c>
       <c r="J44" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K44" s="3">
         <v>16500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>18600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>22400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="G45" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="I45" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1100</v>
       </c>
       <c r="Q45" s="3">
         <v>1100</v>
       </c>
       <c r="R45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>800</v>
       </c>
       <c r="X45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>379000</v>
+        <v>358300</v>
       </c>
       <c r="E46" s="3">
-        <v>309600</v>
+        <v>351800</v>
       </c>
       <c r="F46" s="3">
-        <v>247400</v>
+        <v>287400</v>
       </c>
       <c r="G46" s="3">
-        <v>293400</v>
+        <v>229600</v>
       </c>
       <c r="H46" s="3">
-        <v>259400</v>
+        <v>300000</v>
       </c>
       <c r="I46" s="3">
-        <v>203500</v>
+        <v>240800</v>
       </c>
       <c r="J46" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K46" s="3">
         <v>197700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>250200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>206300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>185700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>201400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>286000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>270300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>234800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>225600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>315400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>164800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>158200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>177300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>173400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,135 +3182,141 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="G47" s="3">
-        <v>23500</v>
+        <v>1700</v>
       </c>
       <c r="H47" s="3">
+        <v>22800</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1612500</v>
+        <v>1670200</v>
       </c>
       <c r="E48" s="3">
-        <v>1461900</v>
+        <v>1496700</v>
       </c>
       <c r="F48" s="3">
-        <v>1306200</v>
+        <v>1356900</v>
       </c>
       <c r="G48" s="3">
-        <v>1575800</v>
+        <v>1212400</v>
       </c>
       <c r="H48" s="3">
-        <v>1169600</v>
+        <v>1610700</v>
       </c>
       <c r="I48" s="3">
-        <v>1071400</v>
+        <v>1085600</v>
       </c>
       <c r="J48" s="3">
+        <v>994500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1003500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1421200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>927800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>866400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>880600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1303600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>269400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>278500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>258100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1309000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>313000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>292000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>310400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>293100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3447,38 +3566,41 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1991700</v>
+        <v>2028600</v>
       </c>
       <c r="E54" s="3">
-        <v>1772700</v>
+        <v>1848700</v>
       </c>
       <c r="F54" s="3">
-        <v>1555400</v>
+        <v>1645400</v>
       </c>
       <c r="G54" s="3">
-        <v>1872800</v>
+        <v>1443700</v>
       </c>
       <c r="H54" s="3">
-        <v>1429200</v>
+        <v>1915100</v>
       </c>
       <c r="I54" s="3">
-        <v>1275400</v>
+        <v>1326600</v>
       </c>
       <c r="J54" s="3">
+        <v>1183800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1201600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1671900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1134500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1060900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1091900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1606500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>597900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>540300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>507300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1626000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>507100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>477800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>517600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>495700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>558100</v>
+        <v>649800</v>
       </c>
       <c r="E57" s="3">
-        <v>468600</v>
+        <v>518000</v>
       </c>
       <c r="F57" s="3">
-        <v>361100</v>
+        <v>435000</v>
       </c>
       <c r="G57" s="3">
-        <v>415600</v>
+        <v>335200</v>
       </c>
       <c r="H57" s="3">
-        <v>295300</v>
+        <v>425000</v>
       </c>
       <c r="I57" s="3">
-        <v>198100</v>
+        <v>274100</v>
       </c>
       <c r="J57" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K57" s="3">
         <v>146200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>177700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>129200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>143300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>229800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>304800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>219000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>202200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>183300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>311500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>186600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>181900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>186800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>178600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6600</v>
+        <v>89800</v>
       </c>
       <c r="E58" s="3">
-        <v>4600</v>
+        <v>6100</v>
       </c>
       <c r="F58" s="3">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="G58" s="3">
         <v>5500</v>
       </c>
       <c r="H58" s="3">
-        <v>14600</v>
+        <v>3700</v>
       </c>
       <c r="I58" s="3">
-        <v>11900</v>
+        <v>13600</v>
       </c>
       <c r="J58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K58" s="3">
         <v>20600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>108400</v>
+        <v>92200</v>
       </c>
       <c r="E59" s="3">
-        <v>87600</v>
+        <v>100600</v>
       </c>
       <c r="F59" s="3">
-        <v>89300</v>
+        <v>81300</v>
       </c>
       <c r="G59" s="3">
-        <v>109600</v>
+        <v>82900</v>
       </c>
       <c r="H59" s="3">
-        <v>67900</v>
+        <v>114100</v>
       </c>
       <c r="I59" s="3">
-        <v>70800</v>
+        <v>63000</v>
       </c>
       <c r="J59" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K59" s="3">
         <v>76700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>141200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>83800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>68300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>66700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>110900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>69400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>70400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>673100</v>
+        <v>831800</v>
       </c>
       <c r="E60" s="3">
-        <v>560800</v>
+        <v>624700</v>
       </c>
       <c r="F60" s="3">
-        <v>456400</v>
+        <v>520600</v>
       </c>
       <c r="G60" s="3">
-        <v>530700</v>
+        <v>423600</v>
       </c>
       <c r="H60" s="3">
-        <v>377800</v>
+        <v>542700</v>
       </c>
       <c r="I60" s="3">
-        <v>280800</v>
+        <v>350600</v>
       </c>
       <c r="J60" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K60" s="3">
         <v>243500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>344000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>233800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>241200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>307000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>437700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>292400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>270600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>245200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>424800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>259100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>245900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>249700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>250400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>88900</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>86200</v>
+        <v>82500</v>
       </c>
       <c r="F61" s="3">
-        <v>82900</v>
+        <v>80000</v>
       </c>
       <c r="G61" s="3">
-        <v>104000</v>
+        <v>77000</v>
       </c>
       <c r="H61" s="3">
-        <v>68700</v>
+        <v>106300</v>
       </c>
       <c r="I61" s="3">
-        <v>87600</v>
+        <v>63800</v>
       </c>
       <c r="J61" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K61" s="3">
         <v>81100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>114700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>104300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>100900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>150100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>136000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>107300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>74800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>142000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>69300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>66600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>70200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>72500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>560600</v>
+        <v>568200</v>
       </c>
       <c r="E62" s="3">
-        <v>508700</v>
+        <v>520400</v>
       </c>
       <c r="F62" s="3">
-        <v>369300</v>
+        <v>472200</v>
       </c>
       <c r="G62" s="3">
-        <v>446500</v>
+        <v>342800</v>
       </c>
       <c r="H62" s="3">
-        <v>331900</v>
+        <v>456500</v>
       </c>
       <c r="I62" s="3">
-        <v>305400</v>
+        <v>308000</v>
       </c>
       <c r="J62" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K62" s="3">
         <v>286100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>385400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>236200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>210900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>259800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>372500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>134600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>137000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>146600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>421700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>154700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>148400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>176600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>163300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1322600</v>
+        <v>1400000</v>
       </c>
       <c r="E66" s="3">
-        <v>1155700</v>
+        <v>1227600</v>
       </c>
       <c r="F66" s="3">
-        <v>908600</v>
+        <v>1072700</v>
       </c>
       <c r="G66" s="3">
-        <v>1081200</v>
+        <v>843400</v>
       </c>
       <c r="H66" s="3">
-        <v>778400</v>
+        <v>1105600</v>
       </c>
       <c r="I66" s="3">
-        <v>673800</v>
+        <v>722500</v>
       </c>
       <c r="J66" s="3">
+        <v>625500</v>
+      </c>
+      <c r="K66" s="3">
         <v>610700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>844100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>574300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>533800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>667600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>960300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>563000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>514900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>466600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>988400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>483100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>460800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>496500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>486200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>224400</v>
+        <v>172800</v>
       </c>
       <c r="E72" s="3">
-        <v>210400</v>
+        <v>208300</v>
       </c>
       <c r="F72" s="3">
-        <v>280100</v>
+        <v>195300</v>
       </c>
       <c r="G72" s="3">
-        <v>347100</v>
+        <v>260000</v>
       </c>
       <c r="H72" s="3">
-        <v>358500</v>
+        <v>354900</v>
       </c>
       <c r="I72" s="3">
-        <v>331000</v>
+        <v>332800</v>
       </c>
       <c r="J72" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K72" s="3">
         <v>335100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>465400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>322000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>301900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>191100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>286600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>217900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>669100</v>
+        <v>628600</v>
       </c>
       <c r="E76" s="3">
-        <v>617000</v>
+        <v>621100</v>
       </c>
       <c r="F76" s="3">
-        <v>646800</v>
+        <v>572700</v>
       </c>
       <c r="G76" s="3">
-        <v>791700</v>
+        <v>600300</v>
       </c>
       <c r="H76" s="3">
-        <v>650900</v>
+        <v>809500</v>
       </c>
       <c r="I76" s="3">
-        <v>601600</v>
+        <v>604100</v>
       </c>
       <c r="J76" s="3">
+        <v>558400</v>
+      </c>
+      <c r="K76" s="3">
         <v>590900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>827700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>560200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>527100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>424300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>646200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>637600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>24000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5700</v>
+        <v>-68300</v>
       </c>
       <c r="E81" s="3">
-        <v>-116900</v>
+        <v>-5300</v>
       </c>
       <c r="F81" s="3">
-        <v>-6700</v>
+        <v>-108500</v>
       </c>
       <c r="G81" s="3">
-        <v>-145700</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
-        <v>1400</v>
+        <v>-204000</v>
       </c>
       <c r="I81" s="3">
-        <v>-27100</v>
+        <v>1300</v>
       </c>
       <c r="J81" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="K81" s="3">
         <v>10500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>182400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>101400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>11000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>17100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="E83" s="3">
-        <v>37200</v>
+        <v>22200</v>
       </c>
       <c r="F83" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>17700</v>
+      </c>
+      <c r="L83" s="3">
+        <v>21400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>17400</v>
+      </c>
+      <c r="N83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P83" s="3">
+        <v>18000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>16700</v>
       </c>
-      <c r="G83" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>39400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>17700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>21400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>17400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>30000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>15200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>18000</v>
-      </c>
-      <c r="P83" s="3">
-        <v>16700</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>42200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>58300</v>
+        <v>34700</v>
       </c>
       <c r="E89" s="3">
-        <v>100500</v>
+        <v>54100</v>
       </c>
       <c r="F89" s="3">
-        <v>37100</v>
+        <v>93200</v>
       </c>
       <c r="G89" s="3">
-        <v>-79500</v>
+        <v>34500</v>
       </c>
       <c r="H89" s="3">
-        <v>140500</v>
+        <v>4300</v>
       </c>
       <c r="I89" s="3">
-        <v>100200</v>
+        <v>130400</v>
       </c>
       <c r="J89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K89" s="3">
         <v>27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>88000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>73600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>69900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>121600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>25200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>19300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>27600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38900</v>
+        <v>-42100</v>
       </c>
       <c r="E91" s="3">
-        <v>-51100</v>
+        <v>-36100</v>
       </c>
       <c r="F91" s="3">
-        <v>-17200</v>
+        <v>-47400</v>
       </c>
       <c r="G91" s="3">
-        <v>-31200</v>
+        <v>-16000</v>
       </c>
       <c r="H91" s="3">
-        <v>-27200</v>
+        <v>-29000</v>
       </c>
       <c r="I91" s="3">
-        <v>-32100</v>
+        <v>-25200</v>
       </c>
       <c r="J91" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-50800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-57700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-72400</v>
+        <v>-88400</v>
       </c>
       <c r="E94" s="3">
-        <v>-67100</v>
+        <v>-67200</v>
       </c>
       <c r="F94" s="3">
-        <v>-19400</v>
+        <v>-62300</v>
       </c>
       <c r="G94" s="3">
-        <v>-34600</v>
+        <v>-18000</v>
       </c>
       <c r="H94" s="3">
-        <v>-29400</v>
+        <v>-32100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2300</v>
+        <v>-27300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-61500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-55600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-21000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,127 +6532,133 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1500</v>
+        <v>-4900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6400</v>
+        <v>-1400</v>
       </c>
       <c r="F100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H100" s="3">
-        <v>-31500</v>
+        <v>-8500</v>
       </c>
       <c r="I100" s="3">
-        <v>-15900</v>
+        <v>-29300</v>
       </c>
       <c r="J100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-15500</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>22900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-3000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12900</v>
+        <v>5700</v>
       </c>
       <c r="E101" s="3">
-        <v>1500</v>
+        <v>11900</v>
       </c>
       <c r="F101" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-9900</v>
+        <v>1400</v>
       </c>
       <c r="H101" s="3">
-        <v>7300</v>
+        <v>5700</v>
       </c>
       <c r="I101" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6418,80 +6666,86 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2800</v>
+        <v>-52900</v>
       </c>
       <c r="E102" s="3">
-        <v>28400</v>
+        <v>-2600</v>
       </c>
       <c r="F102" s="3">
-        <v>18100</v>
+        <v>26400</v>
       </c>
       <c r="G102" s="3">
-        <v>-43100</v>
+        <v>16800</v>
       </c>
       <c r="H102" s="3">
-        <v>6300</v>
+        <v>-40000</v>
       </c>
       <c r="I102" s="3">
-        <v>71800</v>
+        <v>5800</v>
       </c>
       <c r="J102" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K102" s="3">
         <v>27600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-5000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>278900</v>
+        <v>221300</v>
       </c>
       <c r="E8" s="3">
-        <v>249400</v>
+        <v>238000</v>
       </c>
       <c r="F8" s="3">
-        <v>439900</v>
+        <v>212800</v>
       </c>
       <c r="G8" s="3">
-        <v>198800</v>
+        <v>375400</v>
       </c>
       <c r="H8" s="3">
-        <v>321900</v>
+        <v>237400</v>
       </c>
       <c r="I8" s="3">
-        <v>298200</v>
+        <v>274700</v>
       </c>
       <c r="J8" s="3">
+        <v>254500</v>
+      </c>
+      <c r="K8" s="3">
         <v>555200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>299200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>351100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>313200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>631400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>308300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>322000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>347600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>637600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>318100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>505300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>148100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>131900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>140500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>103700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>174300</v>
+        <v>130900</v>
       </c>
       <c r="E9" s="3">
-        <v>145300</v>
+        <v>148800</v>
       </c>
       <c r="F9" s="3">
-        <v>275700</v>
+        <v>124000</v>
       </c>
       <c r="G9" s="3">
-        <v>120600</v>
+        <v>235300</v>
       </c>
       <c r="H9" s="3">
-        <v>205400</v>
+        <v>143900</v>
       </c>
       <c r="I9" s="3">
-        <v>185200</v>
+        <v>175300</v>
       </c>
       <c r="J9" s="3">
+        <v>158100</v>
+      </c>
+      <c r="K9" s="3">
         <v>355000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>186700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>227600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>198800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>395000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>202400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>197000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>204700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>339000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>159500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>75200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>66300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>33900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>104600</v>
+        <v>90400</v>
       </c>
       <c r="E10" s="3">
-        <v>104000</v>
+        <v>89300</v>
       </c>
       <c r="F10" s="3">
-        <v>164100</v>
+        <v>88800</v>
       </c>
       <c r="G10" s="3">
-        <v>78300</v>
+        <v>140100</v>
       </c>
       <c r="H10" s="3">
-        <v>116500</v>
+        <v>93400</v>
       </c>
       <c r="I10" s="3">
-        <v>113000</v>
+        <v>99400</v>
       </c>
       <c r="J10" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K10" s="3">
         <v>200200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>112500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>123500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>114400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>236400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>105900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>125000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>142800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>298500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>158600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>239600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>69500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>56800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>74200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>69800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>300</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>224600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>191700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-36200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-27800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-97700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-63200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-59700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-70900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-30200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-125300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>100</v>
       </c>
       <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-29500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>24900</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+        <v>20900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21300</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>15500</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
-        <v>27700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>20600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>23600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>17700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21400</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>15200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>2200</v>
       </c>
       <c r="R15" s="3">
         <v>2200</v>
       </c>
       <c r="S15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T15" s="3">
         <v>11700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>42200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>312000</v>
+        <v>232500</v>
       </c>
       <c r="E17" s="3">
-        <v>238500</v>
+        <v>266300</v>
       </c>
       <c r="F17" s="3">
-        <v>455200</v>
+        <v>203500</v>
       </c>
       <c r="G17" s="3">
-        <v>207300</v>
+        <v>388500</v>
       </c>
       <c r="H17" s="3">
-        <v>584900</v>
+        <v>247500</v>
       </c>
       <c r="I17" s="3">
-        <v>289500</v>
+        <v>499100</v>
       </c>
       <c r="J17" s="3">
+        <v>247100</v>
+      </c>
+      <c r="K17" s="3">
         <v>557300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>272300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>316800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>249000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>499100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>244700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>286700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>254400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>469400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>221800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>367000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>131300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>125100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>119100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>70200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-33100</v>
+        <v>-11200</v>
       </c>
       <c r="E18" s="3">
-        <v>10900</v>
+        <v>-28300</v>
       </c>
       <c r="F18" s="3">
-        <v>-15300</v>
+        <v>9300</v>
       </c>
       <c r="G18" s="3">
-        <v>-8400</v>
+        <v>-13100</v>
       </c>
       <c r="H18" s="3">
-        <v>-263000</v>
+        <v>-10100</v>
       </c>
       <c r="I18" s="3">
-        <v>8700</v>
+        <v>-224500</v>
       </c>
       <c r="J18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>34300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>132300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>93100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>168100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>96400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>138300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>21400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>33500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13500</v>
+        <v>23200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4200</v>
+        <v>-11600</v>
       </c>
       <c r="F20" s="3">
-        <v>18400</v>
+        <v>-3600</v>
       </c>
       <c r="G20" s="3">
-        <v>18900</v>
+        <v>15700</v>
       </c>
       <c r="H20" s="3">
-        <v>10600</v>
+        <v>23700</v>
       </c>
       <c r="I20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>160000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-9800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-70200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-21800</v>
+        <v>32900</v>
       </c>
       <c r="E21" s="3">
-        <v>28900</v>
+        <v>-18600</v>
       </c>
       <c r="F21" s="3">
-        <v>37600</v>
+        <v>24600</v>
       </c>
       <c r="G21" s="3">
-        <v>26000</v>
+        <v>32100</v>
       </c>
       <c r="H21" s="3">
-        <v>-224700</v>
+        <v>34200</v>
       </c>
       <c r="I21" s="3">
-        <v>32800</v>
+        <v>-191800</v>
       </c>
       <c r="J21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K21" s="3">
         <v>19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>44600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>322300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>49100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>17200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>122400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>160200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>32100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+        <v>9100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10100</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>8700</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>11600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29400</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>10700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>21800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58500</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="3">
-        <v>6700</v>
+        <v>-49900</v>
       </c>
       <c r="F23" s="3">
-        <v>3100</v>
+        <v>5700</v>
       </c>
       <c r="G23" s="3">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="H23" s="3">
-        <v>-265800</v>
+        <v>2100</v>
       </c>
       <c r="I23" s="3">
-        <v>9300</v>
+        <v>-226800</v>
       </c>
       <c r="J23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-17200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>292300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>95500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>76100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>107100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>25700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9800</v>
+        <v>23400</v>
       </c>
       <c r="E24" s="3">
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="F24" s="3">
-        <v>111600</v>
+        <v>10200</v>
       </c>
       <c r="G24" s="3">
+        <v>95300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3">
-        <v>-61800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>24600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>8600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-68300</v>
+        <v>-20500</v>
       </c>
       <c r="E26" s="3">
-        <v>-5300</v>
+        <v>-58300</v>
       </c>
       <c r="F26" s="3">
-        <v>-108500</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-6200</v>
+        <v>-92600</v>
       </c>
       <c r="H26" s="3">
-        <v>-204000</v>
+        <v>-7400</v>
       </c>
       <c r="I26" s="3">
-        <v>1300</v>
+        <v>-174100</v>
       </c>
       <c r="J26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>182400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>101400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>11000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>17100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-68300</v>
+        <v>-20500</v>
       </c>
       <c r="E27" s="3">
-        <v>-5300</v>
+        <v>-58300</v>
       </c>
       <c r="F27" s="3">
-        <v>-108500</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-6200</v>
+        <v>-92600</v>
       </c>
       <c r="H27" s="3">
-        <v>-204000</v>
+        <v>-7400</v>
       </c>
       <c r="I27" s="3">
-        <v>1300</v>
+        <v>-174100</v>
       </c>
       <c r="J27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-25100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>182400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>101400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>11000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>17100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13500</v>
+        <v>-23200</v>
       </c>
       <c r="E32" s="3">
-        <v>4200</v>
+        <v>11600</v>
       </c>
       <c r="F32" s="3">
-        <v>-18400</v>
+        <v>3600</v>
       </c>
       <c r="G32" s="3">
-        <v>-18900</v>
+        <v>-15700</v>
       </c>
       <c r="H32" s="3">
-        <v>-10600</v>
+        <v>-23700</v>
       </c>
       <c r="I32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-160000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>9800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>70200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-68300</v>
+        <v>-20500</v>
       </c>
       <c r="E33" s="3">
-        <v>-5300</v>
+        <v>-58300</v>
       </c>
       <c r="F33" s="3">
-        <v>-108500</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-6200</v>
+        <v>-92600</v>
       </c>
       <c r="H33" s="3">
-        <v>-204000</v>
+        <v>-7400</v>
       </c>
       <c r="I33" s="3">
-        <v>1300</v>
+        <v>-174100</v>
       </c>
       <c r="J33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>182400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>60700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>101400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>11000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>17100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-68300</v>
+        <v>-20500</v>
       </c>
       <c r="E35" s="3">
-        <v>-5300</v>
+        <v>-58300</v>
       </c>
       <c r="F35" s="3">
-        <v>-108500</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-6200</v>
+        <v>-92600</v>
       </c>
       <c r="H35" s="3">
-        <v>-204000</v>
+        <v>-7400</v>
       </c>
       <c r="I35" s="3">
-        <v>1300</v>
+        <v>-174100</v>
       </c>
       <c r="J35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>182400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>60700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>101400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>11000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>17100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,109 +2833,113 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>83200</v>
+        <v>67500</v>
       </c>
       <c r="E41" s="3">
-        <v>110300</v>
+        <v>82400</v>
       </c>
       <c r="F41" s="3">
-        <v>90100</v>
+        <v>94100</v>
       </c>
       <c r="G41" s="3">
-        <v>61400</v>
+        <v>76900</v>
       </c>
       <c r="H41" s="3">
-        <v>56100</v>
+        <v>52400</v>
       </c>
       <c r="I41" s="3">
-        <v>76800</v>
+        <v>47900</v>
       </c>
       <c r="J41" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K41" s="3">
         <v>48400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>59000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>30500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>48800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77800</v>
+        <v>89300</v>
       </c>
       <c r="E42" s="3">
-        <v>43000</v>
+        <v>77000</v>
       </c>
       <c r="F42" s="3">
-        <v>24200</v>
+        <v>36700</v>
       </c>
       <c r="G42" s="3">
-        <v>20400</v>
+        <v>20700</v>
       </c>
       <c r="H42" s="3">
-        <v>29600</v>
+        <v>17400</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>17700</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
@@ -2857,466 +2947,487 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>40300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>93800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>57400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>37600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>42400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>10200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164700</v>
+        <v>158200</v>
       </c>
       <c r="E43" s="3">
-        <v>172000</v>
+        <v>163300</v>
       </c>
       <c r="F43" s="3">
-        <v>148600</v>
+        <v>146800</v>
       </c>
       <c r="G43" s="3">
-        <v>128300</v>
+        <v>126800</v>
       </c>
       <c r="H43" s="3">
-        <v>187200</v>
+        <v>109500</v>
       </c>
       <c r="I43" s="3">
-        <v>146900</v>
+        <v>159700</v>
       </c>
       <c r="J43" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K43" s="3">
         <v>122000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>139100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>176900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>154000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>129500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>135800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>319900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>137600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>125000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>134400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>197800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>113700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>111200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>124100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>106000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29400</v>
+        <v>22100</v>
       </c>
       <c r="E44" s="3">
-        <v>23800</v>
+        <v>29100</v>
       </c>
       <c r="F44" s="3">
-        <v>22100</v>
+        <v>20300</v>
       </c>
       <c r="G44" s="3">
-        <v>17800</v>
+        <v>18800</v>
       </c>
       <c r="H44" s="3">
-        <v>24100</v>
+        <v>15200</v>
       </c>
       <c r="I44" s="3">
-        <v>15400</v>
+        <v>20600</v>
       </c>
       <c r="J44" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K44" s="3">
         <v>16800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>18600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>22400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>26300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>14900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1100</v>
       </c>
       <c r="R45" s="3">
         <v>1100</v>
       </c>
       <c r="S45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
-      </c>
-      <c r="X45" s="3">
-        <v>800</v>
       </c>
       <c r="Y45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>358300</v>
+        <v>340100</v>
       </c>
       <c r="E46" s="3">
-        <v>351800</v>
+        <v>355000</v>
       </c>
       <c r="F46" s="3">
-        <v>287400</v>
+        <v>300300</v>
       </c>
       <c r="G46" s="3">
-        <v>229600</v>
+        <v>245300</v>
       </c>
       <c r="H46" s="3">
-        <v>300000</v>
+        <v>196000</v>
       </c>
       <c r="I46" s="3">
-        <v>240800</v>
+        <v>256000</v>
       </c>
       <c r="J46" s="3">
+        <v>205500</v>
+      </c>
+      <c r="K46" s="3">
         <v>188900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>250200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>206300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>185700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>201400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>286000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>270300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>234800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>225600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>315400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>164800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>158200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>177300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>173400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3">
+        <v>600</v>
+      </c>
+      <c r="N47" s="3">
+        <v>400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="R47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="S47" s="3">
+        <v>600</v>
+      </c>
+      <c r="T47" s="3">
+        <v>700</v>
+      </c>
+      <c r="U47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W47" s="3">
         <v>1100</v>
       </c>
-      <c r="G47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>22800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
-      </c>
-      <c r="L47" s="3">
-        <v>600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>700</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1670200</v>
+        <v>1654200</v>
       </c>
       <c r="E48" s="3">
-        <v>1496700</v>
+        <v>1654900</v>
       </c>
       <c r="F48" s="3">
-        <v>1356900</v>
+        <v>1277400</v>
       </c>
       <c r="G48" s="3">
-        <v>1212400</v>
+        <v>1158000</v>
       </c>
       <c r="H48" s="3">
-        <v>1610700</v>
+        <v>1034700</v>
       </c>
       <c r="I48" s="3">
-        <v>1085600</v>
+        <v>1374600</v>
       </c>
       <c r="J48" s="3">
+        <v>926500</v>
+      </c>
+      <c r="K48" s="3">
         <v>994500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1003500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1421200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>927800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>866400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>880600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1303600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>269400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>278500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>258100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1309000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>313000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>292000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>310400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>293100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3569,38 +3689,41 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2028600</v>
+        <v>1994500</v>
       </c>
       <c r="E54" s="3">
-        <v>1848700</v>
+        <v>2010100</v>
       </c>
       <c r="F54" s="3">
-        <v>1645400</v>
+        <v>1577800</v>
       </c>
       <c r="G54" s="3">
-        <v>1443700</v>
+        <v>1404300</v>
       </c>
       <c r="H54" s="3">
-        <v>1915100</v>
+        <v>1232100</v>
       </c>
       <c r="I54" s="3">
-        <v>1326600</v>
+        <v>1634400</v>
       </c>
       <c r="J54" s="3">
+        <v>1132200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1183800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1201600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1671900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1134500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1060900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1091900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1606500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>597900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>540300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>507300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1626000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>507100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>477800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>517600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>495700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,292 +3925,305 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>649800</v>
+        <v>648900</v>
       </c>
       <c r="E57" s="3">
-        <v>518000</v>
+        <v>643800</v>
       </c>
       <c r="F57" s="3">
-        <v>435000</v>
+        <v>442100</v>
       </c>
       <c r="G57" s="3">
-        <v>335200</v>
+        <v>371200</v>
       </c>
       <c r="H57" s="3">
-        <v>425000</v>
+        <v>286100</v>
       </c>
       <c r="I57" s="3">
-        <v>274100</v>
+        <v>362700</v>
       </c>
       <c r="J57" s="3">
+        <v>233900</v>
+      </c>
+      <c r="K57" s="3">
         <v>183900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>146200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>177700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>129200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>143300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>229800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>304800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>219000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>202200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>183300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>311500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>186600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>181900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>186800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>178600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89800</v>
+        <v>84700</v>
       </c>
       <c r="E58" s="3">
-        <v>6100</v>
+        <v>89000</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="3">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3">
-        <v>3700</v>
+        <v>4700</v>
       </c>
       <c r="I58" s="3">
-        <v>13600</v>
+        <v>3200</v>
       </c>
       <c r="J58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K58" s="3">
         <v>11100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92200</v>
+        <v>79800</v>
       </c>
       <c r="E59" s="3">
-        <v>100600</v>
+        <v>91400</v>
       </c>
       <c r="F59" s="3">
-        <v>81300</v>
+        <v>85800</v>
       </c>
       <c r="G59" s="3">
-        <v>82900</v>
+        <v>69400</v>
       </c>
       <c r="H59" s="3">
-        <v>114100</v>
+        <v>70800</v>
       </c>
       <c r="I59" s="3">
-        <v>63000</v>
+        <v>97300</v>
       </c>
       <c r="J59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K59" s="3">
         <v>65700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>141200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>83800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>83900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>68300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>66700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>59100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>110900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>69400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>70400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>831800</v>
+        <v>813400</v>
       </c>
       <c r="E60" s="3">
-        <v>624700</v>
+        <v>824200</v>
       </c>
       <c r="F60" s="3">
-        <v>520600</v>
+        <v>533200</v>
       </c>
       <c r="G60" s="3">
-        <v>423600</v>
+        <v>444300</v>
       </c>
       <c r="H60" s="3">
-        <v>542700</v>
+        <v>361500</v>
       </c>
       <c r="I60" s="3">
-        <v>350600</v>
+        <v>463200</v>
       </c>
       <c r="J60" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K60" s="3">
         <v>260600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>243500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>344000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>233800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>241200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>307000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>437700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>292400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>270600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>245200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>424800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>259100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>245900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>249700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>250400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,141 +4231,147 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>82500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>80000</v>
+        <v>70400</v>
       </c>
       <c r="G61" s="3">
-        <v>77000</v>
+        <v>68300</v>
       </c>
       <c r="H61" s="3">
-        <v>106300</v>
+        <v>65700</v>
       </c>
       <c r="I61" s="3">
-        <v>63800</v>
+        <v>90700</v>
       </c>
       <c r="J61" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K61" s="3">
         <v>81400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>114700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>104300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>100900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>150100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>136000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>107300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>74800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>142000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>69300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>66600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>70200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>72500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>568200</v>
+        <v>578800</v>
       </c>
       <c r="E62" s="3">
-        <v>520400</v>
+        <v>563000</v>
       </c>
       <c r="F62" s="3">
-        <v>472200</v>
+        <v>444100</v>
       </c>
       <c r="G62" s="3">
-        <v>342800</v>
+        <v>403000</v>
       </c>
       <c r="H62" s="3">
-        <v>456500</v>
+        <v>292600</v>
       </c>
       <c r="I62" s="3">
-        <v>308000</v>
+        <v>389600</v>
       </c>
       <c r="J62" s="3">
+        <v>262900</v>
+      </c>
+      <c r="K62" s="3">
         <v>283500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>286100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>385400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>236200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>210900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>259800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>372500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>134600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>137000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>146600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>421700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>154700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>148400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>176600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>163300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400000</v>
+        <v>1392100</v>
       </c>
       <c r="E66" s="3">
-        <v>1227600</v>
+        <v>1387200</v>
       </c>
       <c r="F66" s="3">
-        <v>1072700</v>
+        <v>1047700</v>
       </c>
       <c r="G66" s="3">
-        <v>843400</v>
+        <v>915500</v>
       </c>
       <c r="H66" s="3">
-        <v>1105600</v>
+        <v>719800</v>
       </c>
       <c r="I66" s="3">
-        <v>722500</v>
+        <v>943500</v>
       </c>
       <c r="J66" s="3">
+        <v>616600</v>
+      </c>
+      <c r="K66" s="3">
         <v>625500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>610700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>844100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>574300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>533800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>667600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>960300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>563000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>514900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>466600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>988400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>483100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>460800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>496500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>486200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172800</v>
+        <v>150700</v>
       </c>
       <c r="E72" s="3">
-        <v>208300</v>
+        <v>171200</v>
       </c>
       <c r="F72" s="3">
-        <v>195300</v>
+        <v>177800</v>
       </c>
       <c r="G72" s="3">
-        <v>260000</v>
+        <v>166700</v>
       </c>
       <c r="H72" s="3">
-        <v>354900</v>
+        <v>221900</v>
       </c>
       <c r="I72" s="3">
-        <v>332800</v>
+        <v>302900</v>
       </c>
       <c r="J72" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K72" s="3">
         <v>307200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>335100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>465400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>322000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>301900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>191100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>286600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>217900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-24100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>628600</v>
+        <v>602300</v>
       </c>
       <c r="E76" s="3">
-        <v>621100</v>
+        <v>622800</v>
       </c>
       <c r="F76" s="3">
-        <v>572700</v>
+        <v>530000</v>
       </c>
       <c r="G76" s="3">
-        <v>600300</v>
+        <v>488700</v>
       </c>
       <c r="H76" s="3">
-        <v>809500</v>
+        <v>512400</v>
       </c>
       <c r="I76" s="3">
-        <v>604100</v>
+        <v>690900</v>
       </c>
       <c r="J76" s="3">
+        <v>515600</v>
+      </c>
+      <c r="K76" s="3">
         <v>558400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>590900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>827700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>560200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>527100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>424300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>646200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>637600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>24000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-68300</v>
+        <v>-20500</v>
       </c>
       <c r="E81" s="3">
-        <v>-5300</v>
+        <v>-58300</v>
       </c>
       <c r="F81" s="3">
-        <v>-108500</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-6200</v>
+        <v>-92600</v>
       </c>
       <c r="H81" s="3">
-        <v>-204000</v>
+        <v>-7400</v>
       </c>
       <c r="I81" s="3">
-        <v>1300</v>
+        <v>-174100</v>
       </c>
       <c r="J81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>182400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>101400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>11000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>17100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24800</v>
+        <v>20900</v>
       </c>
       <c r="E83" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="F83" s="3">
-        <v>34500</v>
+        <v>18900</v>
       </c>
       <c r="G83" s="3">
-        <v>15500</v>
+        <v>29500</v>
       </c>
       <c r="H83" s="3">
-        <v>27700</v>
+        <v>20600</v>
       </c>
       <c r="I83" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="J83" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K83" s="3">
         <v>36600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>18000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>16700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>42200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34700</v>
+        <v>38500</v>
       </c>
       <c r="E89" s="3">
-        <v>54100</v>
+        <v>29600</v>
       </c>
       <c r="F89" s="3">
-        <v>93200</v>
+        <v>46200</v>
       </c>
       <c r="G89" s="3">
-        <v>34500</v>
+        <v>79600</v>
       </c>
       <c r="H89" s="3">
-        <v>4300</v>
+        <v>45600</v>
       </c>
       <c r="I89" s="3">
-        <v>130400</v>
+        <v>3700</v>
       </c>
       <c r="J89" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K89" s="3">
         <v>93000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>88000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>42200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>73600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>131300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>69900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>121600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>25200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>19300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>27600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42100</v>
+        <v>-16700</v>
       </c>
       <c r="E91" s="3">
-        <v>-36100</v>
+        <v>-35900</v>
       </c>
       <c r="F91" s="3">
-        <v>-47400</v>
+        <v>-30800</v>
       </c>
       <c r="G91" s="3">
-        <v>-16000</v>
+        <v>-40500</v>
       </c>
       <c r="H91" s="3">
-        <v>-29000</v>
+        <v>-13600</v>
       </c>
       <c r="I91" s="3">
-        <v>-25200</v>
+        <v>-24700</v>
       </c>
       <c r="J91" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-57700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88400</v>
+        <v>-26300</v>
       </c>
       <c r="E94" s="3">
-        <v>-67200</v>
+        <v>-75500</v>
       </c>
       <c r="F94" s="3">
-        <v>-62300</v>
+        <v>-57300</v>
       </c>
       <c r="G94" s="3">
-        <v>-18000</v>
+        <v>-53100</v>
       </c>
       <c r="H94" s="3">
-        <v>-32100</v>
+        <v>-15400</v>
       </c>
       <c r="I94" s="3">
-        <v>-27300</v>
+        <v>-27400</v>
       </c>
       <c r="J94" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-55600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,133 +6778,139 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4900</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-15500</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>22900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-3000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J101" s="3">
         <v>5700</v>
       </c>
-      <c r="E101" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>6700</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6669,83 +6918,89 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-52900</v>
+        <v>12900</v>
       </c>
       <c r="E102" s="3">
-        <v>-2600</v>
+        <v>-45200</v>
       </c>
       <c r="F102" s="3">
-        <v>26400</v>
+        <v>-2200</v>
       </c>
       <c r="G102" s="3">
-        <v>16800</v>
+        <v>22500</v>
       </c>
       <c r="H102" s="3">
-        <v>-40000</v>
+        <v>22300</v>
       </c>
       <c r="I102" s="3">
-        <v>5800</v>
+        <v>-34200</v>
       </c>
       <c r="J102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K102" s="3">
         <v>66700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>48100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-5000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>4400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>221300</v>
+        <v>229200</v>
       </c>
       <c r="E8" s="3">
-        <v>238000</v>
+        <v>222700</v>
       </c>
       <c r="F8" s="3">
-        <v>212800</v>
+        <v>204000</v>
       </c>
       <c r="G8" s="3">
-        <v>375400</v>
+        <v>182400</v>
       </c>
       <c r="H8" s="3">
-        <v>237400</v>
+        <v>244300</v>
       </c>
       <c r="I8" s="3">
-        <v>274700</v>
+        <v>238900</v>
       </c>
       <c r="J8" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K8" s="3">
         <v>254500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>555200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>299200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>351100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>313200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>631400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>308300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>322000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>347600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>637600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>318100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>505300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>148100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>131900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>140500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>103700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>130900</v>
+        <v>169100</v>
       </c>
       <c r="E9" s="3">
-        <v>148800</v>
+        <v>131700</v>
       </c>
       <c r="F9" s="3">
-        <v>124000</v>
+        <v>127500</v>
       </c>
       <c r="G9" s="3">
-        <v>235300</v>
+        <v>106300</v>
       </c>
       <c r="H9" s="3">
-        <v>143900</v>
+        <v>158100</v>
       </c>
       <c r="I9" s="3">
-        <v>175300</v>
+        <v>144900</v>
       </c>
       <c r="J9" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K9" s="3">
         <v>158100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>355000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>186700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>227600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>198800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>395000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>202400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>197000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>204700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>339000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>159500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>265700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>78600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>75200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>66300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>33900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>90400</v>
+        <v>60100</v>
       </c>
       <c r="E10" s="3">
-        <v>89300</v>
+        <v>91000</v>
       </c>
       <c r="F10" s="3">
-        <v>88800</v>
+        <v>76500</v>
       </c>
       <c r="G10" s="3">
-        <v>140100</v>
+        <v>76100</v>
       </c>
       <c r="H10" s="3">
-        <v>93400</v>
+        <v>86200</v>
       </c>
       <c r="I10" s="3">
-        <v>99400</v>
+        <v>94100</v>
       </c>
       <c r="J10" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K10" s="3">
         <v>96400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>112500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>123500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>114400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>236400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>105900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>142800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>298500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>158600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>239600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>69500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>56800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>74200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>69800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>500</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>400</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>191700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>1400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>164300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-36200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-27800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-97700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-60300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-59700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-70900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-30200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-125300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-29500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>20900</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>17900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>18200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>20600</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>23600</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>17600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>17700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21400</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>15200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>2200</v>
       </c>
       <c r="S15" s="3">
         <v>2200</v>
       </c>
       <c r="T15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U15" s="3">
         <v>11700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>42200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>232500</v>
+        <v>284600</v>
       </c>
       <c r="E17" s="3">
-        <v>266300</v>
+        <v>234000</v>
       </c>
       <c r="F17" s="3">
-        <v>203500</v>
+        <v>228300</v>
       </c>
       <c r="G17" s="3">
-        <v>388500</v>
+        <v>174500</v>
       </c>
       <c r="H17" s="3">
-        <v>247500</v>
+        <v>251100</v>
       </c>
       <c r="I17" s="3">
+        <v>249100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>427800</v>
+      </c>
+      <c r="K17" s="3">
+        <v>247100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>557300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>272300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>316800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>249000</v>
+      </c>
+      <c r="P17" s="3">
         <v>499100</v>
       </c>
-      <c r="J17" s="3">
-        <v>247100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>557300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>272300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>316800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>249000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>499100</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>244700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>286700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>254400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>469400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>221800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>367000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>131300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>125100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>119100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>70200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-11200</v>
+        <v>-55400</v>
       </c>
       <c r="E18" s="3">
-        <v>-28300</v>
+        <v>-11300</v>
       </c>
       <c r="F18" s="3">
-        <v>9300</v>
+        <v>-24200</v>
       </c>
       <c r="G18" s="3">
-        <v>-13100</v>
+        <v>8000</v>
       </c>
       <c r="H18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-224500</v>
-      </c>
       <c r="J18" s="3">
+        <v>-192400</v>
+      </c>
+      <c r="K18" s="3">
         <v>7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>34300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>132300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>63600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>93100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>168100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>138300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>21400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>33500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>23200</v>
+        <v>18200</v>
       </c>
       <c r="E20" s="3">
-        <v>-11600</v>
+        <v>22000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3600</v>
+        <v>-9900</v>
       </c>
       <c r="G20" s="3">
-        <v>15700</v>
+        <v>-3100</v>
       </c>
       <c r="H20" s="3">
-        <v>23700</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>9000</v>
+        <v>22200</v>
       </c>
       <c r="J20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>160000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-70200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>32900</v>
+        <v>-13200</v>
       </c>
       <c r="E21" s="3">
-        <v>-18600</v>
+        <v>28600</v>
       </c>
       <c r="F21" s="3">
-        <v>24600</v>
+        <v>-15900</v>
       </c>
       <c r="G21" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-164400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>19400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>67600</v>
+      </c>
+      <c r="O21" s="3">
+        <v>44600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>322300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>49100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>17200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T21" s="3">
+        <v>122400</v>
+      </c>
+      <c r="U21" s="3">
+        <v>93200</v>
+      </c>
+      <c r="V21" s="3">
+        <v>160200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>22700</v>
+      </c>
+      <c r="Z21" s="3">
         <v>32100</v>
       </c>
-      <c r="H21" s="3">
-        <v>34200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-191800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>28000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>19400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>51300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>67600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>44600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>322300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>49100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>17200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>122400</v>
-      </c>
-      <c r="T21" s="3">
-        <v>93200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>160200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>14300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="X21" s="3">
-        <v>22700</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>32100</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>9100</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+        <v>7800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>8700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>11600</v>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>9900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29400</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>10700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>21800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-49900</v>
-      </c>
       <c r="F23" s="3">
-        <v>5700</v>
+        <v>-42800</v>
       </c>
       <c r="G23" s="3">
-        <v>2600</v>
+        <v>4900</v>
       </c>
       <c r="H23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-226800</v>
-      </c>
       <c r="J23" s="3">
+        <v>-194400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>292300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>23200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>95500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>76100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>107100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>9000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>25700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23400</v>
+        <v>3700</v>
       </c>
       <c r="E24" s="3">
-        <v>8400</v>
+        <v>23500</v>
       </c>
       <c r="F24" s="3">
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="G24" s="3">
-        <v>95300</v>
+        <v>8800</v>
       </c>
       <c r="H24" s="3">
-        <v>9500</v>
+        <v>113000</v>
       </c>
       <c r="I24" s="3">
-        <v>-52700</v>
+        <v>9600</v>
       </c>
       <c r="J24" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K24" s="3">
         <v>6800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>109900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-15900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>28700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>8600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20500</v>
+        <v>-40900</v>
       </c>
       <c r="E26" s="3">
-        <v>-58300</v>
+        <v>-20700</v>
       </c>
       <c r="F26" s="3">
-        <v>-4500</v>
+        <v>-49900</v>
       </c>
       <c r="G26" s="3">
-        <v>-92600</v>
+        <v>-3900</v>
       </c>
       <c r="H26" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-174100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>182400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>101400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>11000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>17100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20500</v>
+        <v>-40900</v>
       </c>
       <c r="E27" s="3">
-        <v>-58300</v>
+        <v>-20700</v>
       </c>
       <c r="F27" s="3">
-        <v>-4500</v>
+        <v>-49900</v>
       </c>
       <c r="G27" s="3">
-        <v>-92600</v>
+        <v>-3900</v>
       </c>
       <c r="H27" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-174100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>182400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>101400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>11000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>17100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-23200</v>
+        <v>-18200</v>
       </c>
       <c r="E32" s="3">
-        <v>11600</v>
+        <v>-22000</v>
       </c>
       <c r="F32" s="3">
-        <v>3600</v>
+        <v>9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-15700</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
-        <v>-23700</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>-9000</v>
+        <v>-22200</v>
       </c>
       <c r="J32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-160000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>70200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20500</v>
+        <v>-40900</v>
       </c>
       <c r="E33" s="3">
-        <v>-58300</v>
+        <v>-20700</v>
       </c>
       <c r="F33" s="3">
-        <v>-4500</v>
+        <v>-49900</v>
       </c>
       <c r="G33" s="3">
-        <v>-92600</v>
+        <v>-3900</v>
       </c>
       <c r="H33" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-174100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>182400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>60700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>101400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>11000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>17100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20500</v>
+        <v>-40900</v>
       </c>
       <c r="E35" s="3">
-        <v>-58300</v>
+        <v>-20700</v>
       </c>
       <c r="F35" s="3">
-        <v>-4500</v>
+        <v>-49900</v>
       </c>
       <c r="G35" s="3">
-        <v>-92600</v>
+        <v>-3900</v>
       </c>
       <c r="H35" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-174100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>182400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>60700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>101400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>11000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>17100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,115 +2920,119 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>67500</v>
+        <v>74800</v>
       </c>
       <c r="E41" s="3">
-        <v>82400</v>
+        <v>57800</v>
       </c>
       <c r="F41" s="3">
-        <v>94100</v>
+        <v>82900</v>
       </c>
       <c r="G41" s="3">
-        <v>76900</v>
+        <v>80700</v>
       </c>
       <c r="H41" s="3">
-        <v>52400</v>
+        <v>65900</v>
       </c>
       <c r="I41" s="3">
-        <v>47900</v>
+        <v>44900</v>
       </c>
       <c r="J41" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K41" s="3">
         <v>65500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>59000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>30500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>48800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89300</v>
+        <v>77900</v>
       </c>
       <c r="E42" s="3">
-        <v>77000</v>
+        <v>76500</v>
       </c>
       <c r="F42" s="3">
-        <v>36700</v>
+        <v>77500</v>
       </c>
       <c r="G42" s="3">
-        <v>20700</v>
+        <v>31500</v>
       </c>
       <c r="H42" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="I42" s="3">
-        <v>25300</v>
+        <v>14900</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>17700</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2950,336 +3040,351 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>40300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>93800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>57400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>37600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>42400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>10200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158200</v>
+        <v>168800</v>
       </c>
       <c r="E43" s="3">
-        <v>163300</v>
+        <v>135500</v>
       </c>
       <c r="F43" s="3">
-        <v>146800</v>
+        <v>166100</v>
       </c>
       <c r="G43" s="3">
-        <v>126800</v>
+        <v>125800</v>
       </c>
       <c r="H43" s="3">
-        <v>109500</v>
+        <v>108700</v>
       </c>
       <c r="I43" s="3">
-        <v>159700</v>
+        <v>93800</v>
       </c>
       <c r="J43" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K43" s="3">
         <v>125400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>122000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>139100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>176900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>154000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>129500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>135800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>319900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>137600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>125000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>134400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>197800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>113700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>111200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>124100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>106000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22100</v>
+        <v>24700</v>
       </c>
       <c r="E44" s="3">
-        <v>29100</v>
+        <v>18900</v>
       </c>
       <c r="F44" s="3">
-        <v>20300</v>
+        <v>29300</v>
       </c>
       <c r="G44" s="3">
-        <v>18800</v>
+        <v>17400</v>
       </c>
       <c r="H44" s="3">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="I44" s="3">
-        <v>20600</v>
+        <v>13000</v>
       </c>
       <c r="J44" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>16800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>18600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>22400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>26300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>14900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>4100</v>
       </c>
       <c r="E45" s="3">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1100</v>
       </c>
       <c r="S45" s="3">
         <v>1100</v>
       </c>
       <c r="T45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U45" s="3">
         <v>1000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>800</v>
       </c>
       <c r="Z45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>340100</v>
+        <v>350300</v>
       </c>
       <c r="E46" s="3">
-        <v>355000</v>
+        <v>291500</v>
       </c>
       <c r="F46" s="3">
-        <v>300300</v>
+        <v>357300</v>
       </c>
       <c r="G46" s="3">
-        <v>245300</v>
+        <v>257400</v>
       </c>
       <c r="H46" s="3">
-        <v>196000</v>
+        <v>210200</v>
       </c>
       <c r="I46" s="3">
-        <v>256000</v>
+        <v>168000</v>
       </c>
       <c r="J46" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K46" s="3">
         <v>205500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>197700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>250200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>206300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>185700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>201400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>286000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>270300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>234800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>225600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>315400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>164800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>158200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>177300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>173400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3287,147 +3392,153 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
       </c>
       <c r="G47" s="3">
+        <v>100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
+        <v>500</v>
+      </c>
+      <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3">
+        <v>600</v>
+      </c>
+      <c r="O47" s="3">
+        <v>400</v>
+      </c>
+      <c r="P47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="S47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="T47" s="3">
+        <v>600</v>
+      </c>
+      <c r="U47" s="3">
+        <v>700</v>
+      </c>
+      <c r="V47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
-      </c>
-      <c r="M47" s="3">
-        <v>600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="R47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="S47" s="3">
-        <v>600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>700</v>
-      </c>
-      <c r="U47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1654200</v>
+        <v>1680800</v>
       </c>
       <c r="E48" s="3">
-        <v>1654900</v>
+        <v>1417900</v>
       </c>
       <c r="F48" s="3">
-        <v>1277400</v>
+        <v>1665600</v>
       </c>
       <c r="G48" s="3">
-        <v>1158000</v>
+        <v>1094900</v>
       </c>
       <c r="H48" s="3">
-        <v>1034700</v>
+        <v>992600</v>
       </c>
       <c r="I48" s="3">
-        <v>1374600</v>
+        <v>886900</v>
       </c>
       <c r="J48" s="3">
+        <v>1178200</v>
+      </c>
+      <c r="K48" s="3">
         <v>926500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>994500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1003500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1421200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>927800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>866400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>880600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1303600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>269400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>278500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>258100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1309000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>313000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>292000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>310400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>293100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3692,38 +3812,41 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>27300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>27200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>28300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>26700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1994500</v>
+        <v>2031300</v>
       </c>
       <c r="E54" s="3">
-        <v>2010100</v>
+        <v>1709500</v>
       </c>
       <c r="F54" s="3">
-        <v>1577800</v>
+        <v>2023100</v>
       </c>
       <c r="G54" s="3">
-        <v>1404300</v>
+        <v>1352400</v>
       </c>
       <c r="H54" s="3">
-        <v>1232100</v>
+        <v>1203700</v>
       </c>
       <c r="I54" s="3">
-        <v>1634400</v>
+        <v>1056100</v>
       </c>
       <c r="J54" s="3">
+        <v>1400900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1132200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1183800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1201600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1671900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1134500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1060900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1091900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1606500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>597900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>540300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>507300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1626000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>507100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>477800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>517600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>495700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>648900</v>
+        <v>744700</v>
       </c>
       <c r="E57" s="3">
-        <v>643800</v>
+        <v>556200</v>
       </c>
       <c r="F57" s="3">
-        <v>442100</v>
+        <v>648000</v>
       </c>
       <c r="G57" s="3">
-        <v>371200</v>
+        <v>379000</v>
       </c>
       <c r="H57" s="3">
-        <v>286100</v>
+        <v>318200</v>
       </c>
       <c r="I57" s="3">
-        <v>362700</v>
+        <v>245200</v>
       </c>
       <c r="J57" s="3">
+        <v>310900</v>
+      </c>
+      <c r="K57" s="3">
         <v>233900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>183900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>146200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>177700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>129200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>143300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>229800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>304800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>219000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>202200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>183300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>311500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>186600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>181900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>186800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>178600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84700</v>
+        <v>24500</v>
       </c>
       <c r="E58" s="3">
-        <v>89000</v>
+        <v>72600</v>
       </c>
       <c r="F58" s="3">
-        <v>5200</v>
+        <v>89600</v>
       </c>
       <c r="G58" s="3">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="H58" s="3">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K58" s="3">
         <v>11600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>19800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79800</v>
+        <v>72100</v>
       </c>
       <c r="E59" s="3">
-        <v>91400</v>
+        <v>68400</v>
       </c>
       <c r="F59" s="3">
-        <v>85800</v>
+        <v>91900</v>
       </c>
       <c r="G59" s="3">
+        <v>73600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>59500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>60700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>65700</v>
+      </c>
+      <c r="M59" s="3">
+        <v>76700</v>
+      </c>
+      <c r="N59" s="3">
+        <v>141200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>83800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>83900</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>57400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>110400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>68300</v>
+      </c>
+      <c r="T59" s="3">
+        <v>66700</v>
+      </c>
+      <c r="U59" s="3">
+        <v>59100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>110900</v>
+      </c>
+      <c r="W59" s="3">
         <v>69400</v>
       </c>
-      <c r="H59" s="3">
-        <v>70800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>97300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>53800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>65700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>76700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>141200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>83800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>83900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>57400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>110400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>68300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>66700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>59100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>110900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>69400</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>70400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>813400</v>
+        <v>841300</v>
       </c>
       <c r="E60" s="3">
-        <v>824200</v>
+        <v>697200</v>
       </c>
       <c r="F60" s="3">
-        <v>533200</v>
+        <v>829500</v>
       </c>
       <c r="G60" s="3">
-        <v>444300</v>
+        <v>457000</v>
       </c>
       <c r="H60" s="3">
-        <v>361500</v>
+        <v>380800</v>
       </c>
       <c r="I60" s="3">
-        <v>463200</v>
+        <v>309900</v>
       </c>
       <c r="J60" s="3">
+        <v>397000</v>
+      </c>
+      <c r="K60" s="3">
         <v>299300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>260600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>243500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>344000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>233800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>241200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>307000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>437700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>292400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>270600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>245200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>424800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>259100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>245900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>249700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>250400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>39600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>70400</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>68300</v>
+        <v>60400</v>
       </c>
       <c r="H61" s="3">
-        <v>65700</v>
+        <v>58500</v>
       </c>
       <c r="I61" s="3">
-        <v>90700</v>
+        <v>56300</v>
       </c>
       <c r="J61" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K61" s="3">
         <v>54400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>114700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>104300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>150100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>136000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>107300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>74800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>142000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>69300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>66600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>70200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>72500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>578800</v>
+        <v>585000</v>
       </c>
       <c r="E62" s="3">
-        <v>563000</v>
+        <v>496100</v>
       </c>
       <c r="F62" s="3">
-        <v>444100</v>
+        <v>566700</v>
       </c>
       <c r="G62" s="3">
-        <v>403000</v>
+        <v>380700</v>
       </c>
       <c r="H62" s="3">
-        <v>292600</v>
+        <v>345400</v>
       </c>
       <c r="I62" s="3">
-        <v>389600</v>
+        <v>250800</v>
       </c>
       <c r="J62" s="3">
+        <v>334000</v>
+      </c>
+      <c r="K62" s="3">
         <v>262900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>283500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>286100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>385400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>236200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>210900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>259800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>372500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>134600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>137000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>146600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>421700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>154700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>148400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>176600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>163300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1392100</v>
+        <v>1465900</v>
       </c>
       <c r="E66" s="3">
-        <v>1387200</v>
+        <v>1193300</v>
       </c>
       <c r="F66" s="3">
-        <v>1047700</v>
+        <v>1396200</v>
       </c>
       <c r="G66" s="3">
-        <v>915500</v>
+        <v>898100</v>
       </c>
       <c r="H66" s="3">
-        <v>719800</v>
+        <v>784700</v>
       </c>
       <c r="I66" s="3">
-        <v>943500</v>
+        <v>617000</v>
       </c>
       <c r="J66" s="3">
+        <v>808800</v>
+      </c>
+      <c r="K66" s="3">
         <v>616600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>625500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>610700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>844100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>574300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>533800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>667600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>960300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>563000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>514900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>466600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>988400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>483100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>460800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>496500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>486200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>150700</v>
+        <v>110800</v>
       </c>
       <c r="E72" s="3">
-        <v>171200</v>
+        <v>129200</v>
       </c>
       <c r="F72" s="3">
-        <v>177800</v>
+        <v>172300</v>
       </c>
       <c r="G72" s="3">
-        <v>166700</v>
+        <v>152400</v>
       </c>
       <c r="H72" s="3">
-        <v>221900</v>
+        <v>142900</v>
       </c>
       <c r="I72" s="3">
-        <v>302900</v>
+        <v>190200</v>
       </c>
       <c r="J72" s="3">
+        <v>259600</v>
+      </c>
+      <c r="K72" s="3">
         <v>284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>307200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>335100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>465400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>322000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>301900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>191100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>286600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>217900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-13100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>602300</v>
+        <v>565400</v>
       </c>
       <c r="E76" s="3">
-        <v>622800</v>
+        <v>516300</v>
       </c>
       <c r="F76" s="3">
-        <v>530000</v>
+        <v>626900</v>
       </c>
       <c r="G76" s="3">
-        <v>488700</v>
+        <v>454300</v>
       </c>
       <c r="H76" s="3">
-        <v>512400</v>
+        <v>418900</v>
       </c>
       <c r="I76" s="3">
-        <v>690900</v>
+        <v>439200</v>
       </c>
       <c r="J76" s="3">
+        <v>592200</v>
+      </c>
+      <c r="K76" s="3">
         <v>515600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>558400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>590900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>827700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>560200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>527100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>424300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>646200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>637600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>24000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20500</v>
+        <v>-40900</v>
       </c>
       <c r="E81" s="3">
-        <v>-58300</v>
+        <v>-20700</v>
       </c>
       <c r="F81" s="3">
-        <v>-4500</v>
+        <v>-49900</v>
       </c>
       <c r="G81" s="3">
-        <v>-92600</v>
+        <v>-3900</v>
       </c>
       <c r="H81" s="3">
+        <v>-111800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-174100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-149200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>182400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>60700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>101400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>11000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>17100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>20900</v>
+        <v>24000</v>
       </c>
       <c r="E83" s="3">
-        <v>21200</v>
+        <v>17900</v>
       </c>
       <c r="F83" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="G83" s="3">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>20600</v>
+        <v>23900</v>
       </c>
       <c r="I83" s="3">
-        <v>23600</v>
+        <v>17600</v>
       </c>
       <c r="J83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K83" s="3">
         <v>20100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>18000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>16700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>11700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>42200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38500</v>
+        <v>59600</v>
       </c>
       <c r="E89" s="3">
-        <v>29600</v>
+        <v>33000</v>
       </c>
       <c r="F89" s="3">
-        <v>46200</v>
+        <v>25400</v>
       </c>
       <c r="G89" s="3">
-        <v>79600</v>
+        <v>-4200</v>
       </c>
       <c r="H89" s="3">
-        <v>45600</v>
+        <v>72900</v>
       </c>
       <c r="I89" s="3">
+        <v>39100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>111300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>27600</v>
+      </c>
+      <c r="N89" s="3">
+        <v>42600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>16700</v>
+      </c>
+      <c r="P89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="R89" s="3">
+        <v>42200</v>
+      </c>
+      <c r="S89" s="3">
+        <v>73600</v>
+      </c>
+      <c r="T89" s="3">
+        <v>131300</v>
+      </c>
+      <c r="U89" s="3">
+        <v>69900</v>
+      </c>
+      <c r="V89" s="3">
+        <v>121600</v>
+      </c>
+      <c r="W89" s="3">
+        <v>25200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>19300</v>
+      </c>
+      <c r="Y89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
-        <v>111300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>93000</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="Z89" s="3">
         <v>27600</v>
       </c>
-      <c r="M89" s="3">
-        <v>42600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>16700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>88000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>11000</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>42200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>73600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>131300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>69900</v>
-      </c>
-      <c r="U89" s="3">
-        <v>121600</v>
-      </c>
-      <c r="V89" s="3">
-        <v>25200</v>
-      </c>
-      <c r="W89" s="3">
-        <v>19300</v>
-      </c>
-      <c r="X89" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>27600</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16700</v>
+        <v>-34000</v>
       </c>
       <c r="E91" s="3">
-        <v>-35900</v>
+        <v>-14400</v>
       </c>
       <c r="F91" s="3">
         <v>-30800</v>
       </c>
       <c r="G91" s="3">
-        <v>-40500</v>
+        <v>-26400</v>
       </c>
       <c r="H91" s="3">
-        <v>-13600</v>
+        <v>-23000</v>
       </c>
       <c r="I91" s="3">
-        <v>-24700</v>
+        <v>-11700</v>
       </c>
       <c r="J91" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-57700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26300</v>
+        <v>-53000</v>
       </c>
       <c r="E94" s="3">
-        <v>-75500</v>
+        <v>-22500</v>
       </c>
       <c r="F94" s="3">
-        <v>-57300</v>
+        <v>-64700</v>
       </c>
       <c r="G94" s="3">
-        <v>-53100</v>
+        <v>-49100</v>
       </c>
       <c r="H94" s="3">
-        <v>-15400</v>
+        <v>-32400</v>
       </c>
       <c r="I94" s="3">
-        <v>-27400</v>
+        <v>-13200</v>
       </c>
       <c r="J94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-23100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-31200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-55600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-15500</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>22900</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-3000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>10200</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T101" s="3">
+        <v>500</v>
+      </c>
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>500</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>12900</v>
+        <v>-14000</v>
       </c>
       <c r="E102" s="3">
-        <v>-45200</v>
+        <v>11100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2200</v>
+        <v>-38700</v>
       </c>
       <c r="G102" s="3">
-        <v>22500</v>
+        <v>-14300</v>
       </c>
       <c r="H102" s="3">
-        <v>22300</v>
+        <v>12600</v>
       </c>
       <c r="I102" s="3">
-        <v>-34200</v>
+        <v>19100</v>
       </c>
       <c r="J102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-59800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>17000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>229200</v>
+        <v>236800</v>
       </c>
       <c r="E8" s="3">
-        <v>222700</v>
+        <v>440800</v>
       </c>
       <c r="F8" s="3">
-        <v>204000</v>
+        <v>178100</v>
       </c>
       <c r="G8" s="3">
-        <v>182400</v>
+        <v>163200</v>
       </c>
       <c r="H8" s="3">
-        <v>244300</v>
+        <v>145900</v>
       </c>
       <c r="I8" s="3">
-        <v>238900</v>
+        <v>195400</v>
       </c>
       <c r="J8" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K8" s="3">
         <v>235400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>254500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>555200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>299200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>351100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>313200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>631400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>308300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>322000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>347600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>637600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>318100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>505300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>148100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>131900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>140500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>103700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>169100</v>
+        <v>163300</v>
       </c>
       <c r="E9" s="3">
-        <v>131700</v>
+        <v>293500</v>
       </c>
       <c r="F9" s="3">
-        <v>127500</v>
+        <v>105300</v>
       </c>
       <c r="G9" s="3">
-        <v>106300</v>
+        <v>102000</v>
       </c>
       <c r="H9" s="3">
+        <v>85000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>126400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>150200</v>
+      </c>
+      <c r="L9" s="3">
         <v>158100</v>
       </c>
-      <c r="I9" s="3">
-        <v>144900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>150200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>158100</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>355000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>186700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>227600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>198800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>395000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>202400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>197000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>204700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>339000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>159500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>265700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>78600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>75200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>66300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>33900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>60100</v>
+        <v>73500</v>
       </c>
       <c r="E10" s="3">
-        <v>91000</v>
+        <v>147400</v>
       </c>
       <c r="F10" s="3">
-        <v>76500</v>
+        <v>72800</v>
       </c>
       <c r="G10" s="3">
-        <v>76100</v>
+        <v>61200</v>
       </c>
       <c r="H10" s="3">
-        <v>86200</v>
+        <v>60900</v>
       </c>
       <c r="I10" s="3">
-        <v>94100</v>
+        <v>69000</v>
       </c>
       <c r="J10" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K10" s="3">
         <v>85200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>96400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>123500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>114400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>236400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>105900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>142800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>298500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>158600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>239600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>69500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>56800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>74200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>69800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,153 +1215,159 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>1400</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K14" s="3">
         <v>164300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-36200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-27800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-97700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-63200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-60300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-59700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-70900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-30200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-125300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>100</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-29500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>17900</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>18200</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>14300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>14600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>17600</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K15" s="3">
         <v>20200</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>17700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21400</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>15200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>2200</v>
       </c>
       <c r="T15" s="3">
         <v>2200</v>
       </c>
       <c r="U15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V15" s="3">
         <v>11700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284600</v>
+        <v>267100</v>
       </c>
       <c r="E17" s="3">
-        <v>234000</v>
+        <v>505800</v>
       </c>
       <c r="F17" s="3">
-        <v>228300</v>
+        <v>187200</v>
       </c>
       <c r="G17" s="3">
-        <v>174500</v>
+        <v>182500</v>
       </c>
       <c r="H17" s="3">
-        <v>251100</v>
+        <v>139500</v>
       </c>
       <c r="I17" s="3">
-        <v>249100</v>
+        <v>200800</v>
       </c>
       <c r="J17" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K17" s="3">
         <v>427800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>557300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>272300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>316800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>249000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>499100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>286700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>254400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>469400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>221800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>367000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>131300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>125100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>119100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>70200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-55400</v>
+        <v>-30300</v>
       </c>
       <c r="E18" s="3">
-        <v>-11300</v>
+        <v>-65000</v>
       </c>
       <c r="F18" s="3">
-        <v>-24200</v>
+        <v>-9000</v>
       </c>
       <c r="G18" s="3">
-        <v>8000</v>
+        <v>-19400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6700</v>
+        <v>6400</v>
       </c>
       <c r="I18" s="3">
-        <v>-10100</v>
+        <v>-5400</v>
       </c>
       <c r="J18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-192400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>34300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>132300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>35300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>93100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>96400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>138300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>16800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>21400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>33500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18200</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
-        <v>22000</v>
+        <v>31500</v>
       </c>
       <c r="F20" s="3">
-        <v>-9900</v>
+        <v>17600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3100</v>
+        <v>-7900</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>-2500</v>
       </c>
       <c r="I20" s="3">
-        <v>22200</v>
+        <v>6400</v>
       </c>
       <c r="J20" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-37000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>160000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-70200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13200</v>
+        <v>14100</v>
       </c>
       <c r="E21" s="3">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-15900</v>
+        <v>22900</v>
       </c>
       <c r="G21" s="3">
-        <v>4900</v>
+        <v>-12800</v>
       </c>
       <c r="H21" s="3">
-        <v>25100</v>
+        <v>3900</v>
       </c>
       <c r="I21" s="3">
-        <v>29600</v>
+        <v>20000</v>
       </c>
       <c r="J21" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-164400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>19400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>67600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>44600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>322300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>49100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>17200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>122400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>93200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>160200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>32100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>7800</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>6300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>9900</v>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K22" s="3">
         <v>9800</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29400</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>10700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>21800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37200</v>
+        <v>-13800</v>
       </c>
       <c r="E23" s="3">
-        <v>2900</v>
+        <v>-33500</v>
       </c>
       <c r="F23" s="3">
-        <v>-42800</v>
+        <v>2300</v>
       </c>
       <c r="G23" s="3">
-        <v>4900</v>
+        <v>-34200</v>
       </c>
       <c r="H23" s="3">
-        <v>1200</v>
+        <v>3900</v>
       </c>
       <c r="I23" s="3">
-        <v>2100</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-194400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>292300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>23200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>95500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>76100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>107100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>9000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>25700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>16500</v>
       </c>
       <c r="E24" s="3">
-        <v>23500</v>
+        <v>26500</v>
       </c>
       <c r="F24" s="3">
-        <v>7200</v>
+        <v>18800</v>
       </c>
       <c r="G24" s="3">
-        <v>8800</v>
+        <v>5700</v>
       </c>
       <c r="H24" s="3">
-        <v>113000</v>
+        <v>7000</v>
       </c>
       <c r="I24" s="3">
-        <v>9600</v>
+        <v>90400</v>
       </c>
       <c r="J24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-45200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>109900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-15900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>28700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>8600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-40900</v>
+        <v>-30300</v>
       </c>
       <c r="E26" s="3">
-        <v>-20700</v>
+        <v>-60000</v>
       </c>
       <c r="F26" s="3">
-        <v>-49900</v>
+        <v>-16500</v>
       </c>
       <c r="G26" s="3">
-        <v>-3900</v>
+        <v>-39900</v>
       </c>
       <c r="H26" s="3">
-        <v>-111800</v>
+        <v>-3100</v>
       </c>
       <c r="I26" s="3">
-        <v>-7400</v>
+        <v>-89400</v>
       </c>
       <c r="J26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-149200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>182400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>51500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>101400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>11000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>17100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-40900</v>
+        <v>-30300</v>
       </c>
       <c r="E27" s="3">
-        <v>-20700</v>
+        <v>-60000</v>
       </c>
       <c r="F27" s="3">
-        <v>-49900</v>
+        <v>-16500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3900</v>
+        <v>-39900</v>
       </c>
       <c r="H27" s="3">
-        <v>-111800</v>
+        <v>-3100</v>
       </c>
       <c r="I27" s="3">
-        <v>-7400</v>
+        <v>-89400</v>
       </c>
       <c r="J27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-149200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>182400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>51500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>101400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>11000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>17100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18200</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
-        <v>-22000</v>
+        <v>-31500</v>
       </c>
       <c r="F32" s="3">
-        <v>9900</v>
+        <v>-17600</v>
       </c>
       <c r="G32" s="3">
-        <v>3100</v>
+        <v>7900</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>2500</v>
       </c>
       <c r="I32" s="3">
-        <v>-22200</v>
+        <v>-6400</v>
       </c>
       <c r="J32" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>37000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-160000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>70200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-40900</v>
+        <v>-30300</v>
       </c>
       <c r="E33" s="3">
-        <v>-20700</v>
+        <v>-60000</v>
       </c>
       <c r="F33" s="3">
-        <v>-49900</v>
+        <v>-16500</v>
       </c>
       <c r="G33" s="3">
-        <v>-3900</v>
+        <v>-39900</v>
       </c>
       <c r="H33" s="3">
-        <v>-111800</v>
+        <v>-3100</v>
       </c>
       <c r="I33" s="3">
-        <v>-7400</v>
+        <v>-89400</v>
       </c>
       <c r="J33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-149200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>182400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>51500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>101400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>11000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>17100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-40900</v>
+        <v>-30300</v>
       </c>
       <c r="E35" s="3">
-        <v>-20700</v>
+        <v>-60000</v>
       </c>
       <c r="F35" s="3">
-        <v>-49900</v>
+        <v>-16500</v>
       </c>
       <c r="G35" s="3">
-        <v>-3900</v>
+        <v>-39900</v>
       </c>
       <c r="H35" s="3">
-        <v>-111800</v>
+        <v>-3100</v>
       </c>
       <c r="I35" s="3">
-        <v>-7400</v>
+        <v>-89400</v>
       </c>
       <c r="J35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-149200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>182400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>51500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>101400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>11000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>17100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,470 +3007,489 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>74800</v>
+        <v>35600</v>
       </c>
       <c r="E41" s="3">
-        <v>57800</v>
+        <v>59800</v>
       </c>
       <c r="F41" s="3">
-        <v>82900</v>
+        <v>46300</v>
       </c>
       <c r="G41" s="3">
-        <v>80700</v>
+        <v>66300</v>
       </c>
       <c r="H41" s="3">
-        <v>65900</v>
+        <v>64500</v>
       </c>
       <c r="I41" s="3">
-        <v>44900</v>
+        <v>52700</v>
       </c>
       <c r="J41" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K41" s="3">
         <v>41100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>44600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>59000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>26900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>25000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>30500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>48800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77900</v>
+        <v>119200</v>
       </c>
       <c r="E42" s="3">
-        <v>76500</v>
+        <v>62300</v>
       </c>
       <c r="F42" s="3">
-        <v>77500</v>
+        <v>61200</v>
       </c>
       <c r="G42" s="3">
-        <v>31500</v>
+        <v>62000</v>
       </c>
       <c r="H42" s="3">
+        <v>25200</v>
+      </c>
+      <c r="I42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>21600</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>17700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>40300</v>
+      </c>
+      <c r="S42" s="3">
+        <v>93800</v>
+      </c>
+      <c r="T42" s="3">
+        <v>60800</v>
+      </c>
+      <c r="U42" s="3">
+        <v>57400</v>
+      </c>
+      <c r="V42" s="3">
+        <v>37600</v>
+      </c>
+      <c r="W42" s="3">
+        <v>42400</v>
+      </c>
+      <c r="X42" s="3">
+        <v>15900</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Z42" s="3">
         <v>14900</v>
       </c>
-      <c r="J42" s="3">
-        <v>21600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>17700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>40300</v>
-      </c>
-      <c r="R42" s="3">
-        <v>93800</v>
-      </c>
-      <c r="S42" s="3">
-        <v>60800</v>
-      </c>
-      <c r="T42" s="3">
-        <v>57400</v>
-      </c>
-      <c r="U42" s="3">
-        <v>37600</v>
-      </c>
-      <c r="V42" s="3">
-        <v>42400</v>
-      </c>
-      <c r="W42" s="3">
-        <v>15900</v>
-      </c>
-      <c r="X42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>14900</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>10200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>168800</v>
+        <v>170300</v>
       </c>
       <c r="E43" s="3">
-        <v>135500</v>
+        <v>135000</v>
       </c>
       <c r="F43" s="3">
-        <v>166100</v>
+        <v>108400</v>
       </c>
       <c r="G43" s="3">
-        <v>125800</v>
+        <v>132800</v>
       </c>
       <c r="H43" s="3">
-        <v>108700</v>
+        <v>100600</v>
       </c>
       <c r="I43" s="3">
-        <v>93800</v>
+        <v>86900</v>
       </c>
       <c r="J43" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K43" s="3">
         <v>136900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>125400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>122000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>139100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>176900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>154000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>129500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>135800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>319900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>137600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>125000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>134400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>197800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>113700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>111200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>124100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>106000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="E44" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="F44" s="3">
-        <v>29300</v>
+        <v>15100</v>
       </c>
       <c r="G44" s="3">
-        <v>17400</v>
+        <v>23400</v>
       </c>
       <c r="H44" s="3">
-        <v>16100</v>
+        <v>13900</v>
       </c>
       <c r="I44" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K44" s="3">
         <v>17600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>16800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>18600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>22400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>14900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>4100</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2000</v>
-      </c>
       <c r="H45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1100</v>
       </c>
       <c r="T45" s="3">
         <v>1100</v>
       </c>
       <c r="U45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>800</v>
       </c>
       <c r="AA45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>350300</v>
+        <v>349400</v>
       </c>
       <c r="E46" s="3">
-        <v>291500</v>
+        <v>280100</v>
       </c>
       <c r="F46" s="3">
-        <v>357300</v>
+        <v>233100</v>
       </c>
       <c r="G46" s="3">
-        <v>257400</v>
+        <v>285700</v>
       </c>
       <c r="H46" s="3">
-        <v>210200</v>
+        <v>205800</v>
       </c>
       <c r="I46" s="3">
-        <v>168000</v>
+        <v>168100</v>
       </c>
       <c r="J46" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K46" s="3">
         <v>219400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>205500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>197700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>250200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>206300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>185700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>201400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>286000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>270300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>234800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>225600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>315400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>164800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>158200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>177300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>173400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3395,150 +3500,156 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>600</v>
+      </c>
+      <c r="P47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="T47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="U47" s="3">
+        <v>600</v>
+      </c>
+      <c r="V47" s="3">
+        <v>700</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K47" s="3">
-        <v>200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>300</v>
-      </c>
-      <c r="N47" s="3">
-        <v>600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="R47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="S47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="T47" s="3">
-        <v>600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>700</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1680800</v>
+        <v>1647800</v>
       </c>
       <c r="E48" s="3">
-        <v>1417900</v>
+        <v>1344100</v>
       </c>
       <c r="F48" s="3">
-        <v>1665600</v>
+        <v>1133900</v>
       </c>
       <c r="G48" s="3">
-        <v>1094900</v>
+        <v>1332000</v>
       </c>
       <c r="H48" s="3">
-        <v>992600</v>
+        <v>875600</v>
       </c>
       <c r="I48" s="3">
-        <v>886900</v>
+        <v>793800</v>
       </c>
       <c r="J48" s="3">
+        <v>709200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1178200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>926500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>994500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1003500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1421200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>927800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>866400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>880600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1303600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>269400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>278500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>258100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1309000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>313000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>292000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>310400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>293100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3815,38 +3935,41 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>27300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>23000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>27200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>28300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>26500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>28500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>26700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2031300</v>
+        <v>1997300</v>
       </c>
       <c r="E54" s="3">
-        <v>1709500</v>
+        <v>1624400</v>
       </c>
       <c r="F54" s="3">
-        <v>2023100</v>
+        <v>1367100</v>
       </c>
       <c r="G54" s="3">
-        <v>1352400</v>
+        <v>1617800</v>
       </c>
       <c r="H54" s="3">
-        <v>1203700</v>
+        <v>1081500</v>
       </c>
       <c r="I54" s="3">
-        <v>1056100</v>
+        <v>962500</v>
       </c>
       <c r="J54" s="3">
+        <v>844600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1400900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1132200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1183800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1201600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1671900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1134500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1060900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1091900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1606500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>597900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>540300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>507300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1626000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>507100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>477800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>517600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>495700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>744700</v>
+        <v>741600</v>
       </c>
       <c r="E57" s="3">
-        <v>556200</v>
+        <v>595500</v>
       </c>
       <c r="F57" s="3">
-        <v>648000</v>
+        <v>444800</v>
       </c>
       <c r="G57" s="3">
-        <v>379000</v>
+        <v>518200</v>
       </c>
       <c r="H57" s="3">
-        <v>318200</v>
+        <v>303000</v>
       </c>
       <c r="I57" s="3">
-        <v>245200</v>
+        <v>254500</v>
       </c>
       <c r="J57" s="3">
+        <v>196100</v>
+      </c>
+      <c r="K57" s="3">
         <v>310900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>233900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>183900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>146200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>177700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>129200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>143300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>229800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>304800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>219000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>202200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>183300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>311500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>186600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>181900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>186800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>178600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24500</v>
+        <v>20400</v>
       </c>
       <c r="E58" s="3">
-        <v>72600</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
-        <v>89600</v>
+        <v>58000</v>
       </c>
       <c r="G58" s="3">
-        <v>4500</v>
+        <v>71600</v>
       </c>
       <c r="H58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>20600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>25100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>20800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>14100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>19800</v>
+      </c>
+      <c r="S58" s="3">
+        <v>22500</v>
+      </c>
+      <c r="T58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>11600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>11100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>20600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>25100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>20800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>14100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>19800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="S58" s="3">
-        <v>5100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>2400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3100</v>
       </c>
-      <c r="Z58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72100</v>
+        <v>77600</v>
       </c>
       <c r="E59" s="3">
-        <v>68400</v>
+        <v>57600</v>
       </c>
       <c r="F59" s="3">
-        <v>91900</v>
+        <v>54700</v>
       </c>
       <c r="G59" s="3">
-        <v>73600</v>
+        <v>73500</v>
       </c>
       <c r="H59" s="3">
-        <v>59500</v>
+        <v>58800</v>
       </c>
       <c r="I59" s="3">
-        <v>60700</v>
+        <v>47600</v>
       </c>
       <c r="J59" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K59" s="3">
         <v>83400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>141200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>83800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>110400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>68300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>66700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>110900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>69400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>62700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>70400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>841300</v>
+        <v>839600</v>
       </c>
       <c r="E60" s="3">
-        <v>697200</v>
+        <v>672800</v>
       </c>
       <c r="F60" s="3">
-        <v>829500</v>
+        <v>557500</v>
       </c>
       <c r="G60" s="3">
-        <v>457000</v>
+        <v>663400</v>
       </c>
       <c r="H60" s="3">
-        <v>380800</v>
+        <v>365500</v>
       </c>
       <c r="I60" s="3">
-        <v>309900</v>
+        <v>304500</v>
       </c>
       <c r="J60" s="3">
+        <v>247800</v>
+      </c>
+      <c r="K60" s="3">
         <v>397000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>299300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>260600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>243500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>344000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>233800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>241200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>307000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>437700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>292400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>270600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>245200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>424800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>259100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>245900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>249700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>250400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>39600</v>
+        <v>58200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>31600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>60400</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>58500</v>
+        <v>48300</v>
       </c>
       <c r="I61" s="3">
-        <v>56300</v>
+        <v>46800</v>
       </c>
       <c r="J61" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K61" s="3">
         <v>77800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>54400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>114700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>104300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>150100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>136000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>107300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>74800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>142000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>69300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>66600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>70200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>72500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>585000</v>
+        <v>579200</v>
       </c>
       <c r="E62" s="3">
-        <v>496100</v>
+        <v>467800</v>
       </c>
       <c r="F62" s="3">
-        <v>566700</v>
+        <v>396700</v>
       </c>
       <c r="G62" s="3">
-        <v>380700</v>
+        <v>453200</v>
       </c>
       <c r="H62" s="3">
-        <v>345400</v>
+        <v>304400</v>
       </c>
       <c r="I62" s="3">
-        <v>250800</v>
+        <v>276200</v>
       </c>
       <c r="J62" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K62" s="3">
         <v>334000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>262900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>283500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>286100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>385400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>236200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>210900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>259800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>372500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>134600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>137000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>146600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>421700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>154700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>148400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>176600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>163300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1465900</v>
+        <v>1476900</v>
       </c>
       <c r="E66" s="3">
-        <v>1193300</v>
+        <v>1172300</v>
       </c>
       <c r="F66" s="3">
-        <v>1396200</v>
+        <v>954200</v>
       </c>
       <c r="G66" s="3">
-        <v>898100</v>
+        <v>1116500</v>
       </c>
       <c r="H66" s="3">
-        <v>784700</v>
+        <v>718200</v>
       </c>
       <c r="I66" s="3">
-        <v>617000</v>
+        <v>627500</v>
       </c>
       <c r="J66" s="3">
+        <v>493400</v>
+      </c>
+      <c r="K66" s="3">
         <v>808800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>616600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>625500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>610700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>844100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>574300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>533800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>667600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>960300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>563000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>514900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>466600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>988400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>483100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>460800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>496500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>486200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>110800</v>
+        <v>77500</v>
       </c>
       <c r="E72" s="3">
-        <v>129200</v>
+        <v>88600</v>
       </c>
       <c r="F72" s="3">
-        <v>172300</v>
+        <v>103300</v>
       </c>
       <c r="G72" s="3">
-        <v>152400</v>
+        <v>137800</v>
       </c>
       <c r="H72" s="3">
-        <v>142900</v>
+        <v>121900</v>
       </c>
       <c r="I72" s="3">
-        <v>190200</v>
+        <v>114200</v>
       </c>
       <c r="J72" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K72" s="3">
         <v>259600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>284000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>307200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>335100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>465400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>322000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>301900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>191100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>286600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>217900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-24100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>565400</v>
+        <v>520400</v>
       </c>
       <c r="E76" s="3">
-        <v>516300</v>
+        <v>452100</v>
       </c>
       <c r="F76" s="3">
-        <v>626900</v>
+        <v>412900</v>
       </c>
       <c r="G76" s="3">
-        <v>454300</v>
+        <v>501300</v>
       </c>
       <c r="H76" s="3">
-        <v>418900</v>
+        <v>363300</v>
       </c>
       <c r="I76" s="3">
-        <v>439200</v>
+        <v>335000</v>
       </c>
       <c r="J76" s="3">
+        <v>351200</v>
+      </c>
+      <c r="K76" s="3">
         <v>592200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>515600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>558400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>590900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>827700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>560200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>527100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>424300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>646200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>637600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>24000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>16900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-40900</v>
+        <v>-30300</v>
       </c>
       <c r="E81" s="3">
-        <v>-20700</v>
+        <v>-60000</v>
       </c>
       <c r="F81" s="3">
-        <v>-49900</v>
+        <v>-16500</v>
       </c>
       <c r="G81" s="3">
-        <v>-3900</v>
+        <v>-39900</v>
       </c>
       <c r="H81" s="3">
-        <v>-111800</v>
+        <v>-3100</v>
       </c>
       <c r="I81" s="3">
-        <v>-7400</v>
+        <v>-89400</v>
       </c>
       <c r="J81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-149200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>182400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>51500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>101400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>11000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>17100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>24000</v>
+        <v>27900</v>
       </c>
       <c r="E83" s="3">
-        <v>17900</v>
+        <v>33500</v>
       </c>
       <c r="F83" s="3">
-        <v>18200</v>
+        <v>14300</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="H83" s="3">
-        <v>23900</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>17600</v>
+        <v>19100</v>
       </c>
       <c r="J83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K83" s="3">
         <v>20200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>17400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>18000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>16700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>42200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>59600</v>
+        <v>38300</v>
       </c>
       <c r="E89" s="3">
-        <v>33000</v>
+        <v>74000</v>
       </c>
       <c r="F89" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="G89" s="3">
-        <v>-4200</v>
+        <v>20300</v>
       </c>
       <c r="H89" s="3">
-        <v>72900</v>
+        <v>-3400</v>
       </c>
       <c r="I89" s="3">
-        <v>39100</v>
+        <v>58300</v>
       </c>
       <c r="J89" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>111300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>93000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>88000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>73600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>69900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>121600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>25200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>19300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>27600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34000</v>
+        <v>-40300</v>
       </c>
       <c r="E91" s="3">
-        <v>-14400</v>
+        <v>-38700</v>
       </c>
       <c r="F91" s="3">
-        <v>-30800</v>
+        <v>-11500</v>
       </c>
       <c r="G91" s="3">
-        <v>-26400</v>
+        <v>-24600</v>
       </c>
       <c r="H91" s="3">
-        <v>-23000</v>
+        <v>-21100</v>
       </c>
       <c r="I91" s="3">
-        <v>-11700</v>
+        <v>-18400</v>
       </c>
       <c r="J91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-50800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-57700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53000</v>
+        <v>-49300</v>
       </c>
       <c r="E94" s="3">
-        <v>-22500</v>
+        <v>-60400</v>
       </c>
       <c r="F94" s="3">
-        <v>-64700</v>
+        <v>-18000</v>
       </c>
       <c r="G94" s="3">
-        <v>-49100</v>
+        <v>-51700</v>
       </c>
       <c r="H94" s="3">
-        <v>-32400</v>
+        <v>-39300</v>
       </c>
       <c r="I94" s="3">
-        <v>-13200</v>
+        <v>-25900</v>
       </c>
       <c r="J94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-61500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-55600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-43500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-22300</v>
+        <v>16700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200</v>
+        <v>-18800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3600</v>
+        <v>-900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1000</v>
+        <v>-2800</v>
       </c>
       <c r="H100" s="3">
-        <v>-3700</v>
+        <v>-800</v>
       </c>
       <c r="I100" s="3">
-        <v>-700</v>
+        <v>-2900</v>
       </c>
       <c r="J100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-15500</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>22900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="G101" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="L101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U101" s="3">
+        <v>500</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>5000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>500</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-14000</v>
+        <v>11700</v>
       </c>
       <c r="E102" s="3">
-        <v>11100</v>
+        <v>-2400</v>
       </c>
       <c r="F102" s="3">
-        <v>-38700</v>
+        <v>8800</v>
       </c>
       <c r="G102" s="3">
-        <v>-14300</v>
+        <v>-31000</v>
       </c>
       <c r="H102" s="3">
-        <v>12600</v>
+        <v>-11400</v>
       </c>
       <c r="I102" s="3">
-        <v>19100</v>
+        <v>10100</v>
       </c>
       <c r="J102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-29300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>17200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>17000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,373 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>236800</v>
+        <v>301900</v>
       </c>
       <c r="E8" s="3">
-        <v>440800</v>
+        <v>204500</v>
       </c>
       <c r="F8" s="3">
-        <v>178100</v>
+        <v>380800</v>
       </c>
       <c r="G8" s="3">
-        <v>163200</v>
+        <v>153900</v>
       </c>
       <c r="H8" s="3">
-        <v>145900</v>
+        <v>315500</v>
       </c>
       <c r="I8" s="3">
-        <v>195400</v>
+        <v>230300</v>
       </c>
       <c r="J8" s="3">
+        <v>407100</v>
+      </c>
+      <c r="K8" s="3">
         <v>191100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>235400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>254500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>555200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>299200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>351100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>631400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>308300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>322000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>347600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>637600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>318100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>505300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>148100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>131900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>140500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>103700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>163300</v>
+        <v>222800</v>
       </c>
       <c r="E9" s="3">
-        <v>293500</v>
+        <v>141000</v>
       </c>
       <c r="F9" s="3">
-        <v>105300</v>
+        <v>253500</v>
       </c>
       <c r="G9" s="3">
-        <v>102000</v>
+        <v>91000</v>
       </c>
       <c r="H9" s="3">
-        <v>85000</v>
+        <v>196600</v>
       </c>
       <c r="I9" s="3">
-        <v>126400</v>
+        <v>134200</v>
       </c>
       <c r="J9" s="3">
+        <v>255200</v>
+      </c>
+      <c r="K9" s="3">
         <v>115800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>150200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>355000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>186700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>227600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>395000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>202400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>197000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>204700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>339000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>159500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>265700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>75200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>66300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>33900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>73500</v>
+        <v>79100</v>
       </c>
       <c r="E10" s="3">
-        <v>147400</v>
+        <v>63500</v>
       </c>
       <c r="F10" s="3">
-        <v>72800</v>
+        <v>127300</v>
       </c>
       <c r="G10" s="3">
-        <v>61200</v>
+        <v>62900</v>
       </c>
       <c r="H10" s="3">
-        <v>60900</v>
+        <v>118900</v>
       </c>
       <c r="I10" s="3">
-        <v>69000</v>
+        <v>96100</v>
       </c>
       <c r="J10" s="3">
+        <v>151900</v>
+      </c>
+      <c r="K10" s="3">
         <v>75200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>96400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>114400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>236400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>105900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>142800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>298500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>158600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>239600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>69500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>56800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>74200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>69800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1060,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1141,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1224,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3">
-        <v>600</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>164300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-36200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-97700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-63200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-60300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-59700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-70900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-30200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-125300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>100</v>
       </c>
       <c r="AA14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-29500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>29800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>14300</v>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>12400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>27800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>14100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20200</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>17700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21400</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>15200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>18000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2200</v>
       </c>
       <c r="U15" s="3">
         <v>2200</v>
       </c>
       <c r="V15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W15" s="3">
         <v>11700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>42200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>2400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>2500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1420,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>267100</v>
+        <v>354200</v>
       </c>
       <c r="E17" s="3">
-        <v>505800</v>
+        <v>230700</v>
       </c>
       <c r="F17" s="3">
-        <v>187200</v>
+        <v>436900</v>
       </c>
       <c r="G17" s="3">
-        <v>182500</v>
+        <v>161700</v>
       </c>
       <c r="H17" s="3">
-        <v>139500</v>
+        <v>348300</v>
       </c>
       <c r="I17" s="3">
-        <v>200800</v>
+        <v>220200</v>
       </c>
       <c r="J17" s="3">
+        <v>421300</v>
+      </c>
+      <c r="K17" s="3">
         <v>199200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>427800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>247100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>557300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>272300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>316800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>249000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>499100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>244700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>286700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>254400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>469400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>221800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>367000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>131300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>125100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>119100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>70200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-30300</v>
+        <v>-52400</v>
       </c>
       <c r="E18" s="3">
-        <v>-65000</v>
+        <v>-26200</v>
       </c>
       <c r="F18" s="3">
-        <v>-9000</v>
+        <v>-56200</v>
       </c>
       <c r="G18" s="3">
-        <v>-19400</v>
+        <v>-7800</v>
       </c>
       <c r="H18" s="3">
-        <v>6400</v>
+        <v>-32800</v>
       </c>
       <c r="I18" s="3">
-        <v>-5400</v>
+        <v>10100</v>
       </c>
       <c r="J18" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-192400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>34300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>132300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>35300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>93100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>96400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>138300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>16800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>21400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>33500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1617,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>102000</v>
       </c>
       <c r="E20" s="3">
-        <v>31500</v>
+        <v>14200</v>
       </c>
       <c r="F20" s="3">
-        <v>17600</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="3">
-        <v>-7900</v>
+        <v>15200</v>
       </c>
       <c r="H20" s="3">
-        <v>-2500</v>
+        <v>-4800</v>
       </c>
       <c r="I20" s="3">
-        <v>6400</v>
+        <v>-3900</v>
       </c>
       <c r="J20" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K20" s="3">
         <v>17700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>160000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-29700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-36000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-9800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-70200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14100</v>
+        <v>79500</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="F21" s="3">
-        <v>22900</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>-12800</v>
+        <v>19800</v>
       </c>
       <c r="H21" s="3">
-        <v>3900</v>
+        <v>-9800</v>
       </c>
       <c r="I21" s="3">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="J21" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K21" s="3">
         <v>23700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-164400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>28000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>19400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>67600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>44600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>322300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>49100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>17200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>122400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>160200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>32100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>20200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>6300</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+        <v>5400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>19300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>7900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9800</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>10800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>29400</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>10700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>21800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>2700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>2900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13800</v>
+        <v>29500</v>
       </c>
       <c r="E23" s="3">
-        <v>-33500</v>
+        <v>-11900</v>
       </c>
       <c r="F23" s="3">
-        <v>2300</v>
+        <v>-28900</v>
       </c>
       <c r="G23" s="3">
-        <v>-34200</v>
+        <v>2000</v>
       </c>
       <c r="H23" s="3">
-        <v>3900</v>
+        <v>-57000</v>
       </c>
       <c r="I23" s="3">
-        <v>1000</v>
+        <v>6200</v>
       </c>
       <c r="J23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-194400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>22800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>292300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>78800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>95500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>76100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>107100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>25700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16500</v>
+        <v>26700</v>
       </c>
       <c r="E24" s="3">
-        <v>26500</v>
+        <v>14300</v>
       </c>
       <c r="F24" s="3">
-        <v>18800</v>
+        <v>22900</v>
       </c>
       <c r="G24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>103300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="M24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N24" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>23600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>109900</v>
+      </c>
+      <c r="S24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="T24" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="U24" s="3">
+        <v>28700</v>
+      </c>
+      <c r="V24" s="3">
+        <v>34800</v>
+      </c>
+      <c r="W24" s="3">
+        <v>24600</v>
+      </c>
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>90400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-45200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6800</v>
-      </c>
-      <c r="M24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>22300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>23600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>109900</v>
-      </c>
-      <c r="R24" s="3">
-        <v>20700</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="T24" s="3">
-        <v>28700</v>
-      </c>
-      <c r="U24" s="3">
-        <v>34800</v>
-      </c>
-      <c r="V24" s="3">
-        <v>24600</v>
-      </c>
-      <c r="W24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>8600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2113,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-30300</v>
+        <v>2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-60000</v>
+        <v>-26200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16500</v>
+        <v>-51800</v>
       </c>
       <c r="G26" s="3">
-        <v>-39900</v>
+        <v>-14300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3100</v>
+        <v>-74000</v>
       </c>
       <c r="I26" s="3">
-        <v>-89400</v>
+        <v>-4800</v>
       </c>
       <c r="J26" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-149200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>182400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>101400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>11000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>17100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-30300</v>
+        <v>2800</v>
       </c>
       <c r="E27" s="3">
-        <v>-60000</v>
+        <v>-26200</v>
       </c>
       <c r="F27" s="3">
-        <v>-16500</v>
+        <v>-51800</v>
       </c>
       <c r="G27" s="3">
-        <v>-39900</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-3100</v>
+        <v>-74000</v>
       </c>
       <c r="I27" s="3">
-        <v>-89400</v>
+        <v>-4800</v>
       </c>
       <c r="J27" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-149200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>182400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>101400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>11000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>17100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2362,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2445,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2528,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2611,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-102000</v>
       </c>
       <c r="E32" s="3">
-        <v>-31500</v>
+        <v>-14200</v>
       </c>
       <c r="F32" s="3">
-        <v>-17600</v>
+        <v>-27200</v>
       </c>
       <c r="G32" s="3">
-        <v>7900</v>
+        <v>-15200</v>
       </c>
       <c r="H32" s="3">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="I32" s="3">
-        <v>-6400</v>
+        <v>3900</v>
       </c>
       <c r="J32" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-17700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>37000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-160000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>29700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>36000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>9800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>70200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>7200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-30300</v>
+        <v>2800</v>
       </c>
       <c r="E33" s="3">
-        <v>-60000</v>
+        <v>-26200</v>
       </c>
       <c r="F33" s="3">
-        <v>-16500</v>
+        <v>-51800</v>
       </c>
       <c r="G33" s="3">
-        <v>-39900</v>
+        <v>-14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-3100</v>
+        <v>-74000</v>
       </c>
       <c r="I33" s="3">
-        <v>-89400</v>
+        <v>-4800</v>
       </c>
       <c r="J33" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-149200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>182400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>101400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>11000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>17100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2860,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-30300</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="3">
-        <v>-60000</v>
+        <v>-26200</v>
       </c>
       <c r="F35" s="3">
-        <v>-16500</v>
+        <v>-51800</v>
       </c>
       <c r="G35" s="3">
-        <v>-39900</v>
+        <v>-14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-3100</v>
+        <v>-74000</v>
       </c>
       <c r="I35" s="3">
-        <v>-89400</v>
+        <v>-4800</v>
       </c>
       <c r="J35" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-149200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>182400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>101400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>11000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>17100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3064,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,127 +3095,131 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35600</v>
+        <v>71600</v>
       </c>
       <c r="E41" s="3">
-        <v>59800</v>
+        <v>90200</v>
       </c>
       <c r="F41" s="3">
-        <v>46300</v>
+        <v>51700</v>
       </c>
       <c r="G41" s="3">
-        <v>66300</v>
+        <v>39900</v>
       </c>
       <c r="H41" s="3">
-        <v>64500</v>
+        <v>81900</v>
       </c>
       <c r="I41" s="3">
-        <v>52700</v>
+        <v>55700</v>
       </c>
       <c r="J41" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K41" s="3">
         <v>35900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>48400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>32400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>59000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>26900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>30500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>48800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>119200</v>
+        <v>59100</v>
       </c>
       <c r="E42" s="3">
-        <v>62300</v>
+        <v>43500</v>
       </c>
       <c r="F42" s="3">
-        <v>61200</v>
+        <v>53800</v>
       </c>
       <c r="G42" s="3">
-        <v>62000</v>
+        <v>52900</v>
       </c>
       <c r="H42" s="3">
-        <v>25200</v>
+        <v>76500</v>
       </c>
       <c r="I42" s="3">
-        <v>14200</v>
+        <v>21700</v>
       </c>
       <c r="J42" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K42" s="3">
         <v>11900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>17700</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
@@ -3136,360 +3227,375 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>40300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>93800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>60800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>57400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>42400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>14600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>14900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>10200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>170300</v>
+        <v>196900</v>
       </c>
       <c r="E43" s="3">
-        <v>135000</v>
+        <v>144700</v>
       </c>
       <c r="F43" s="3">
-        <v>108400</v>
+        <v>116600</v>
       </c>
       <c r="G43" s="3">
-        <v>132800</v>
+        <v>93600</v>
       </c>
       <c r="H43" s="3">
-        <v>100600</v>
+        <v>163400</v>
       </c>
       <c r="I43" s="3">
         <v>86900</v>
       </c>
       <c r="J43" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K43" s="3">
         <v>75000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>136900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>122000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>139100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>176900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>154000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>129500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>135800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>319900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>137600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>125000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>134400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>197800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>113700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>111200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>124100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>106000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24300</v>
+        <v>29100</v>
       </c>
       <c r="E44" s="3">
-        <v>19800</v>
+        <v>21100</v>
       </c>
       <c r="F44" s="3">
-        <v>15100</v>
+        <v>18300</v>
       </c>
       <c r="G44" s="3">
-        <v>23400</v>
+        <v>13700</v>
       </c>
       <c r="H44" s="3">
-        <v>13900</v>
+        <v>29000</v>
       </c>
       <c r="I44" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="J44" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K44" s="3">
         <v>10400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>17600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>16800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>16500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>27000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>18600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>18400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>22400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>8000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>14900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2800</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1100</v>
       </c>
       <c r="U45" s="3">
         <v>1100</v>
       </c>
       <c r="V45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>900</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>800</v>
       </c>
       <c r="AB45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>349400</v>
+        <v>359700</v>
       </c>
       <c r="E46" s="3">
-        <v>280100</v>
+        <v>301800</v>
       </c>
       <c r="F46" s="3">
-        <v>233100</v>
+        <v>242000</v>
       </c>
       <c r="G46" s="3">
-        <v>285700</v>
+        <v>201400</v>
       </c>
       <c r="H46" s="3">
-        <v>205800</v>
+        <v>352600</v>
       </c>
       <c r="I46" s="3">
-        <v>168100</v>
+        <v>177800</v>
       </c>
       <c r="J46" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K46" s="3">
         <v>134300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>219400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>205500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>188900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>197700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>250200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>206300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>185700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>201400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>286000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>270300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>234800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>225600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>315400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>164800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>158200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>177300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>173400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3506,150 +3612,156 @@
         <v>100</v>
       </c>
       <c r="H47" s="3">
+        <v>200</v>
+      </c>
+      <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3">
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>400</v>
+      </c>
+      <c r="R47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="S47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="U47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="V47" s="3">
+        <v>600</v>
+      </c>
+      <c r="W47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="X47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
-        <v>16700</v>
-      </c>
-      <c r="L47" s="3">
-        <v>200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>8800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>10000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>16900</v>
-      </c>
-      <c r="T47" s="3">
-        <v>30800</v>
-      </c>
-      <c r="U47" s="3">
-        <v>600</v>
-      </c>
-      <c r="V47" s="3">
-        <v>700</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1700</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1647800</v>
+        <v>1709500</v>
       </c>
       <c r="E48" s="3">
-        <v>1344100</v>
+        <v>1423200</v>
       </c>
       <c r="F48" s="3">
-        <v>1133900</v>
+        <v>1161000</v>
       </c>
       <c r="G48" s="3">
-        <v>1332000</v>
+        <v>979300</v>
       </c>
       <c r="H48" s="3">
-        <v>875600</v>
+        <v>1643900</v>
       </c>
       <c r="I48" s="3">
-        <v>793800</v>
+        <v>756200</v>
       </c>
       <c r="J48" s="3">
+        <v>685600</v>
+      </c>
+      <c r="K48" s="3">
         <v>709200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1178200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>926500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>994500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1003500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1421200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>927800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>866400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>880600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1303600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>269400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>278500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>258100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1309000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>313000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>292000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>310400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>293100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3840,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3923,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4006,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3938,38 +4059,41 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>27300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>23000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>27200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>28300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>26500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>28500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>26700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4172,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1997300</v>
+        <v>2069400</v>
       </c>
       <c r="E54" s="3">
-        <v>1624400</v>
+        <v>1725200</v>
       </c>
       <c r="F54" s="3">
-        <v>1367100</v>
+        <v>1403000</v>
       </c>
       <c r="G54" s="3">
-        <v>1617800</v>
+        <v>1180800</v>
       </c>
       <c r="H54" s="3">
-        <v>1081500</v>
+        <v>1996700</v>
       </c>
       <c r="I54" s="3">
-        <v>962500</v>
+        <v>934100</v>
       </c>
       <c r="J54" s="3">
+        <v>831400</v>
+      </c>
+      <c r="K54" s="3">
         <v>844600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1132200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1183800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1201600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1671900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1134500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1060900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1091900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1606500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>597900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>540300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>507300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1626000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>507100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>477800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>517600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>495700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4288,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4319,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>741600</v>
+        <v>775000</v>
       </c>
       <c r="E57" s="3">
-        <v>595500</v>
+        <v>640500</v>
       </c>
       <c r="F57" s="3">
-        <v>444800</v>
+        <v>514400</v>
       </c>
       <c r="G57" s="3">
-        <v>518200</v>
+        <v>384200</v>
       </c>
       <c r="H57" s="3">
-        <v>303000</v>
+        <v>639600</v>
       </c>
       <c r="I57" s="3">
-        <v>254500</v>
+        <v>261700</v>
       </c>
       <c r="J57" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K57" s="3">
         <v>196100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>310900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>183900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>177700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>143300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>229800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>304800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>219000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>202200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>183300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>311500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>186600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>181900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>186800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>178600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20400</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="F58" s="3">
-        <v>58000</v>
+        <v>16900</v>
       </c>
       <c r="G58" s="3">
-        <v>71600</v>
+        <v>50100</v>
       </c>
       <c r="H58" s="3">
-        <v>3600</v>
+        <v>88400</v>
       </c>
       <c r="I58" s="3">
-        <v>2500</v>
+        <v>3100</v>
       </c>
       <c r="J58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77600</v>
+        <v>78900</v>
       </c>
       <c r="E59" s="3">
-        <v>57600</v>
+        <v>64800</v>
       </c>
       <c r="F59" s="3">
-        <v>54700</v>
+        <v>49800</v>
       </c>
       <c r="G59" s="3">
-        <v>73500</v>
+        <v>47300</v>
       </c>
       <c r="H59" s="3">
-        <v>58800</v>
+        <v>90700</v>
       </c>
       <c r="I59" s="3">
-        <v>47600</v>
+        <v>50800</v>
       </c>
       <c r="J59" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K59" s="3">
         <v>48500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>83400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>65700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>141200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>83800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>83900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>57400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>110400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>68300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>66700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>110900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>69400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>62700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>59800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>70400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>839600</v>
+        <v>856600</v>
       </c>
       <c r="E60" s="3">
-        <v>672800</v>
+        <v>725200</v>
       </c>
       <c r="F60" s="3">
-        <v>557500</v>
+        <v>581100</v>
       </c>
       <c r="G60" s="3">
-        <v>663400</v>
+        <v>481500</v>
       </c>
       <c r="H60" s="3">
-        <v>365500</v>
+        <v>818700</v>
       </c>
       <c r="I60" s="3">
-        <v>304500</v>
+        <v>315700</v>
       </c>
       <c r="J60" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K60" s="3">
         <v>247800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>397000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>299300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>260600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>243500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>344000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>233800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>241200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>307000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>437700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>292400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>270600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>245200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>424800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>259100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>245900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>249700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>250400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58200</v>
+        <v>62700</v>
       </c>
       <c r="E61" s="3">
-        <v>31600</v>
+        <v>50300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>48300</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>46800</v>
+        <v>41700</v>
       </c>
       <c r="J61" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K61" s="3">
         <v>45000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>77800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>54400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>114700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>104300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>100900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>150100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>136000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>107300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>74800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>142000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>69300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>66600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>70200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>72500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>579200</v>
+        <v>608500</v>
       </c>
       <c r="E62" s="3">
-        <v>467800</v>
+        <v>500200</v>
       </c>
       <c r="F62" s="3">
-        <v>396700</v>
+        <v>404100</v>
       </c>
       <c r="G62" s="3">
-        <v>453200</v>
+        <v>342700</v>
       </c>
       <c r="H62" s="3">
-        <v>304400</v>
+        <v>559300</v>
       </c>
       <c r="I62" s="3">
-        <v>276200</v>
+        <v>262900</v>
       </c>
       <c r="J62" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K62" s="3">
         <v>200500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>334000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>262900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>283500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>286100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>385400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>236200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>210900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>259800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>372500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>134600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>137000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>146600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>421700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>154700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>148400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>176600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>163300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4898,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4981,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5064,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1476900</v>
+        <v>1527700</v>
       </c>
       <c r="E66" s="3">
-        <v>1172300</v>
+        <v>1275700</v>
       </c>
       <c r="F66" s="3">
-        <v>954200</v>
+        <v>1012500</v>
       </c>
       <c r="G66" s="3">
-        <v>1116500</v>
+        <v>824200</v>
       </c>
       <c r="H66" s="3">
-        <v>718200</v>
+        <v>1378000</v>
       </c>
       <c r="I66" s="3">
-        <v>627500</v>
+        <v>620300</v>
       </c>
       <c r="J66" s="3">
+        <v>542000</v>
+      </c>
+      <c r="K66" s="3">
         <v>493400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>808800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>616600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>625500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>610700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>844100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>574300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>533800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>667600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>960300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>563000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>514900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>466600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>988400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>483100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>460800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>496500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>486200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5180,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5261,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5344,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5427,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5510,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>77500</v>
+        <v>94800</v>
       </c>
       <c r="E72" s="3">
-        <v>88600</v>
+        <v>67000</v>
       </c>
       <c r="F72" s="3">
-        <v>103300</v>
+        <v>76500</v>
       </c>
       <c r="G72" s="3">
-        <v>137800</v>
+        <v>89200</v>
       </c>
       <c r="H72" s="3">
-        <v>121900</v>
+        <v>170100</v>
       </c>
       <c r="I72" s="3">
-        <v>114200</v>
+        <v>105300</v>
       </c>
       <c r="J72" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K72" s="3">
         <v>152100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>259600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>284000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>307200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>335100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>465400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>322000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>301900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>191100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>286600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>217900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-13600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-24100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5676,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5759,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5842,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>520400</v>
+        <v>541600</v>
       </c>
       <c r="E76" s="3">
-        <v>452100</v>
+        <v>449500</v>
       </c>
       <c r="F76" s="3">
-        <v>412900</v>
+        <v>390500</v>
       </c>
       <c r="G76" s="3">
-        <v>501300</v>
+        <v>356600</v>
       </c>
       <c r="H76" s="3">
-        <v>363300</v>
+        <v>618700</v>
       </c>
       <c r="I76" s="3">
-        <v>335000</v>
+        <v>313800</v>
       </c>
       <c r="J76" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K76" s="3">
         <v>351200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>592200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>515600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>558400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>590900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>827700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>560200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>527100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>424300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>646200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>637600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>24000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>16900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6008,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-30300</v>
+        <v>2800</v>
       </c>
       <c r="E81" s="3">
-        <v>-60000</v>
+        <v>-26200</v>
       </c>
       <c r="F81" s="3">
-        <v>-16500</v>
+        <v>-51800</v>
       </c>
       <c r="G81" s="3">
-        <v>-39900</v>
+        <v>-14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-3100</v>
+        <v>-74000</v>
       </c>
       <c r="I81" s="3">
-        <v>-89400</v>
+        <v>-4800</v>
       </c>
       <c r="J81" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-149200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>182400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>101400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>11000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>17100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6212,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>27900</v>
+        <v>29800</v>
       </c>
       <c r="E83" s="3">
-        <v>33500</v>
+        <v>24100</v>
       </c>
       <c r="F83" s="3">
-        <v>14300</v>
+        <v>28900</v>
       </c>
       <c r="G83" s="3">
-        <v>14500</v>
+        <v>12400</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="I83" s="3">
-        <v>19100</v>
+        <v>23800</v>
       </c>
       <c r="J83" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>20200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>20100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>17400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>18000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>16700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>42200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>2500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6376,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6459,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6542,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6625,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6708,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>38300</v>
+        <v>55600</v>
       </c>
       <c r="E89" s="3">
-        <v>74000</v>
+        <v>33100</v>
       </c>
       <c r="F89" s="3">
-        <v>26400</v>
+        <v>63900</v>
       </c>
       <c r="G89" s="3">
-        <v>20300</v>
+        <v>22800</v>
       </c>
       <c r="H89" s="3">
-        <v>-3400</v>
+        <v>42900</v>
       </c>
       <c r="I89" s="3">
-        <v>58300</v>
+        <v>58900</v>
       </c>
       <c r="J89" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K89" s="3">
         <v>31200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>111300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>93000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>42600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>16700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>88000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>42200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>73600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>69900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>121600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>25200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>19300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>27600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6824,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-15907000</v>
       </c>
       <c r="E91" s="3">
-        <v>-38700</v>
+        <v>-8071000</v>
       </c>
       <c r="F91" s="3">
-        <v>-11500</v>
+        <v>-5448000</v>
       </c>
       <c r="G91" s="3">
-        <v>-24600</v>
+        <v>-2300000</v>
       </c>
       <c r="H91" s="3">
-        <v>-21100</v>
+        <v>-10768000</v>
       </c>
       <c r="I91" s="3">
-        <v>-18400</v>
+        <v>-8783000</v>
       </c>
       <c r="J91" s="3">
+        <v>-6230000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-57700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6988,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7071,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49300</v>
+        <v>-66300</v>
       </c>
       <c r="E94" s="3">
-        <v>-60400</v>
+        <v>-42600</v>
       </c>
       <c r="F94" s="3">
-        <v>-18000</v>
+        <v>-52200</v>
       </c>
       <c r="G94" s="3">
-        <v>-51700</v>
+        <v>-15500</v>
       </c>
       <c r="H94" s="3">
-        <v>-39300</v>
+        <v>-44700</v>
       </c>
       <c r="I94" s="3">
-        <v>-25900</v>
+        <v>-33900</v>
       </c>
       <c r="J94" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-31200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-61500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-55600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-43800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7187,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7268,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7351,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7434,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,151 +7517,157 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16700</v>
+        <v>-18800</v>
       </c>
       <c r="E100" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R100" s="3">
         <v>-18800</v>
       </c>
-      <c r="F100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-25000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-33100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-15500</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>22900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>1800</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>5200</v>
       </c>
       <c r="F101" s="3">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
-        <v>3300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>11200</v>
       </c>
       <c r="J101" s="3">
         <v>1200</v>
       </c>
       <c r="K101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7425,92 +7675,98 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11700</v>
+        <v>-27700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2400</v>
+        <v>10100</v>
       </c>
       <c r="F102" s="3">
-        <v>8800</v>
+        <v>-2100</v>
       </c>
       <c r="G102" s="3">
-        <v>-31000</v>
+        <v>7600</v>
       </c>
       <c r="H102" s="3">
-        <v>-11400</v>
+        <v>-36700</v>
       </c>
       <c r="I102" s="3">
-        <v>10100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-59800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>48100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -787,25 +787,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>301900</v>
+        <v>200300</v>
       </c>
       <c r="E8" s="3">
-        <v>204500</v>
+        <v>135700</v>
       </c>
       <c r="F8" s="3">
-        <v>380800</v>
+        <v>252700</v>
       </c>
       <c r="G8" s="3">
-        <v>153900</v>
+        <v>102100</v>
       </c>
       <c r="H8" s="3">
-        <v>315500</v>
+        <v>209300</v>
       </c>
       <c r="I8" s="3">
-        <v>230300</v>
+        <v>152800</v>
       </c>
       <c r="J8" s="3">
-        <v>407100</v>
+        <v>270200</v>
       </c>
       <c r="K8" s="3">
         <v>191100</v>
@@ -870,25 +870,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>222800</v>
+        <v>147800</v>
       </c>
       <c r="E9" s="3">
-        <v>141000</v>
+        <v>93600</v>
       </c>
       <c r="F9" s="3">
-        <v>253500</v>
+        <v>168200</v>
       </c>
       <c r="G9" s="3">
-        <v>91000</v>
+        <v>60400</v>
       </c>
       <c r="H9" s="3">
-        <v>196600</v>
+        <v>130500</v>
       </c>
       <c r="I9" s="3">
-        <v>134200</v>
+        <v>89000</v>
       </c>
       <c r="J9" s="3">
-        <v>255200</v>
+        <v>169400</v>
       </c>
       <c r="K9" s="3">
         <v>115800</v>
@@ -953,25 +953,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>79100</v>
+        <v>52500</v>
       </c>
       <c r="E10" s="3">
-        <v>63500</v>
+        <v>42100</v>
       </c>
       <c r="F10" s="3">
-        <v>127300</v>
+        <v>84500</v>
       </c>
       <c r="G10" s="3">
-        <v>62900</v>
+        <v>41700</v>
       </c>
       <c r="H10" s="3">
-        <v>118900</v>
+        <v>78900</v>
       </c>
       <c r="I10" s="3">
-        <v>96100</v>
+        <v>63800</v>
       </c>
       <c r="J10" s="3">
-        <v>151900</v>
+        <v>100800</v>
       </c>
       <c r="K10" s="3">
         <v>75200</v>
@@ -1233,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1242,10 +1242,10 @@
         <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1316,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29800</v>
+        <v>19800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1325,10 +1325,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="3">
-        <v>12400</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>27800</v>
+        <v>18500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1427,25 +1427,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>354200</v>
+        <v>235100</v>
       </c>
       <c r="E17" s="3">
-        <v>230700</v>
+        <v>153100</v>
       </c>
       <c r="F17" s="3">
-        <v>436900</v>
+        <v>289900</v>
       </c>
       <c r="G17" s="3">
-        <v>161700</v>
+        <v>107300</v>
       </c>
       <c r="H17" s="3">
-        <v>348300</v>
+        <v>231100</v>
       </c>
       <c r="I17" s="3">
-        <v>220200</v>
+        <v>146100</v>
       </c>
       <c r="J17" s="3">
-        <v>421300</v>
+        <v>279600</v>
       </c>
       <c r="K17" s="3">
         <v>199200</v>
@@ -1510,25 +1510,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-52400</v>
+        <v>-34700</v>
       </c>
       <c r="E18" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F18" s="3">
-        <v>-56200</v>
+        <v>-37300</v>
       </c>
       <c r="G18" s="3">
-        <v>-7800</v>
+        <v>-5200</v>
       </c>
       <c r="H18" s="3">
-        <v>-32800</v>
+        <v>-21800</v>
       </c>
       <c r="I18" s="3">
-        <v>10100</v>
+        <v>6700</v>
       </c>
       <c r="J18" s="3">
-        <v>-14200</v>
+        <v>-9400</v>
       </c>
       <c r="K18" s="3">
         <v>-8100</v>
@@ -1624,25 +1624,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102000</v>
+        <v>67700</v>
       </c>
       <c r="E20" s="3">
-        <v>14200</v>
+        <v>9400</v>
       </c>
       <c r="F20" s="3">
-        <v>27200</v>
+        <v>18100</v>
       </c>
       <c r="G20" s="3">
-        <v>15200</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3900</v>
+        <v>-2600</v>
       </c>
       <c r="J20" s="3">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3">
         <v>17700</v>
@@ -1707,25 +1707,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>79500</v>
+        <v>52700</v>
       </c>
       <c r="E21" s="3">
-        <v>12200</v>
+        <v>8100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>19800</v>
+        <v>13100</v>
       </c>
       <c r="H21" s="3">
-        <v>-9800</v>
+        <v>-6500</v>
       </c>
       <c r="I21" s="3">
-        <v>30000</v>
+        <v>19900</v>
       </c>
       <c r="J21" s="3">
-        <v>31500</v>
+        <v>20900</v>
       </c>
       <c r="K21" s="3">
         <v>23700</v>
@@ -1790,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20200</v>
+        <v>13400</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1799,10 +1799,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
-        <v>19300</v>
+        <v>12800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1873,25 +1873,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29500</v>
+        <v>19600</v>
       </c>
       <c r="E23" s="3">
-        <v>-11900</v>
+        <v>-7900</v>
       </c>
       <c r="F23" s="3">
-        <v>-28900</v>
+        <v>-19200</v>
       </c>
       <c r="G23" s="3">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="H23" s="3">
-        <v>-57000</v>
+        <v>-37800</v>
       </c>
       <c r="I23" s="3">
-        <v>6200</v>
+        <v>4100</v>
       </c>
       <c r="J23" s="3">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K23" s="3">
         <v>1700</v>
@@ -1956,25 +1956,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>26700</v>
+        <v>17700</v>
       </c>
       <c r="E24" s="3">
-        <v>14300</v>
+        <v>9500</v>
       </c>
       <c r="F24" s="3">
-        <v>22900</v>
+        <v>15200</v>
       </c>
       <c r="G24" s="3">
-        <v>16300</v>
+        <v>10800</v>
       </c>
       <c r="H24" s="3">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="I24" s="3">
-        <v>11000</v>
+        <v>7300</v>
       </c>
       <c r="J24" s="3">
-        <v>103300</v>
+        <v>68500</v>
       </c>
       <c r="K24" s="3">
         <v>7600</v>
@@ -2122,25 +2122,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F26" s="3">
-        <v>-51800</v>
+        <v>-34400</v>
       </c>
       <c r="G26" s="3">
-        <v>-14300</v>
+        <v>-9500</v>
       </c>
       <c r="H26" s="3">
-        <v>-74000</v>
+        <v>-49100</v>
       </c>
       <c r="I26" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J26" s="3">
-        <v>-100500</v>
+        <v>-66700</v>
       </c>
       <c r="K26" s="3">
         <v>-6000</v>
@@ -2205,25 +2205,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F27" s="3">
-        <v>-51800</v>
+        <v>-34400</v>
       </c>
       <c r="G27" s="3">
-        <v>-14300</v>
+        <v>-9500</v>
       </c>
       <c r="H27" s="3">
-        <v>-74000</v>
+        <v>-49100</v>
       </c>
       <c r="I27" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J27" s="3">
-        <v>-100500</v>
+        <v>-66700</v>
       </c>
       <c r="K27" s="3">
         <v>-6000</v>
@@ -2620,25 +2620,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102000</v>
+        <v>-67700</v>
       </c>
       <c r="E32" s="3">
-        <v>-14200</v>
+        <v>-9400</v>
       </c>
       <c r="F32" s="3">
-        <v>-27200</v>
+        <v>-18100</v>
       </c>
       <c r="G32" s="3">
-        <v>-15200</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
-        <v>4800</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
-        <v>3900</v>
+        <v>2600</v>
       </c>
       <c r="J32" s="3">
-        <v>-17000</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3">
         <v>-17700</v>
@@ -2703,25 +2703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F33" s="3">
-        <v>-51800</v>
+        <v>-34400</v>
       </c>
       <c r="G33" s="3">
-        <v>-14300</v>
+        <v>-9500</v>
       </c>
       <c r="H33" s="3">
-        <v>-74000</v>
+        <v>-49100</v>
       </c>
       <c r="I33" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J33" s="3">
-        <v>-100500</v>
+        <v>-66700</v>
       </c>
       <c r="K33" s="3">
         <v>-6000</v>
@@ -2869,25 +2869,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F35" s="3">
-        <v>-51800</v>
+        <v>-34400</v>
       </c>
       <c r="G35" s="3">
-        <v>-14300</v>
+        <v>-9500</v>
       </c>
       <c r="H35" s="3">
-        <v>-74000</v>
+        <v>-49100</v>
       </c>
       <c r="I35" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J35" s="3">
-        <v>-100500</v>
+        <v>-66700</v>
       </c>
       <c r="K35" s="3">
         <v>-6000</v>
@@ -3102,25 +3102,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71600</v>
+        <v>47500</v>
       </c>
       <c r="E41" s="3">
-        <v>90200</v>
+        <v>59900</v>
       </c>
       <c r="F41" s="3">
-        <v>51700</v>
+        <v>34300</v>
       </c>
       <c r="G41" s="3">
-        <v>39900</v>
+        <v>26500</v>
       </c>
       <c r="H41" s="3">
-        <v>81900</v>
+        <v>54300</v>
       </c>
       <c r="I41" s="3">
-        <v>55700</v>
+        <v>37000</v>
       </c>
       <c r="J41" s="3">
-        <v>45500</v>
+        <v>30200</v>
       </c>
       <c r="K41" s="3">
         <v>35900</v>
@@ -3185,25 +3185,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59100</v>
+        <v>39200</v>
       </c>
       <c r="E42" s="3">
-        <v>43500</v>
+        <v>28900</v>
       </c>
       <c r="F42" s="3">
-        <v>53800</v>
+        <v>35700</v>
       </c>
       <c r="G42" s="3">
-        <v>52900</v>
+        <v>35100</v>
       </c>
       <c r="H42" s="3">
-        <v>76500</v>
+        <v>50800</v>
       </c>
       <c r="I42" s="3">
-        <v>21700</v>
+        <v>14400</v>
       </c>
       <c r="J42" s="3">
-        <v>12200</v>
+        <v>8100</v>
       </c>
       <c r="K42" s="3">
         <v>11900</v>
@@ -3268,25 +3268,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>196900</v>
+        <v>130700</v>
       </c>
       <c r="E43" s="3">
-        <v>144700</v>
+        <v>96000</v>
       </c>
       <c r="F43" s="3">
-        <v>116600</v>
+        <v>77400</v>
       </c>
       <c r="G43" s="3">
-        <v>93600</v>
+        <v>62100</v>
       </c>
       <c r="H43" s="3">
-        <v>163400</v>
+        <v>108400</v>
       </c>
       <c r="I43" s="3">
-        <v>86900</v>
+        <v>57700</v>
       </c>
       <c r="J43" s="3">
-        <v>75100</v>
+        <v>49800</v>
       </c>
       <c r="K43" s="3">
         <v>75000</v>
@@ -3351,25 +3351,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29100</v>
+        <v>19300</v>
       </c>
       <c r="E44" s="3">
-        <v>21100</v>
+        <v>14000</v>
       </c>
       <c r="F44" s="3">
-        <v>18300</v>
+        <v>12100</v>
       </c>
       <c r="G44" s="3">
-        <v>13700</v>
+        <v>9100</v>
       </c>
       <c r="H44" s="3">
-        <v>29000</v>
+        <v>19200</v>
       </c>
       <c r="I44" s="3">
-        <v>12200</v>
+        <v>8100</v>
       </c>
       <c r="J44" s="3">
-        <v>11300</v>
+        <v>7500</v>
       </c>
       <c r="K44" s="3">
         <v>10400</v>
@@ -3434,25 +3434,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="F45" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="H45" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>1000</v>
@@ -3517,25 +3517,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>359700</v>
+        <v>238700</v>
       </c>
       <c r="E46" s="3">
-        <v>301800</v>
+        <v>200300</v>
       </c>
       <c r="F46" s="3">
-        <v>242000</v>
+        <v>160600</v>
       </c>
       <c r="G46" s="3">
-        <v>201400</v>
+        <v>133600</v>
       </c>
       <c r="H46" s="3">
-        <v>352600</v>
+        <v>234000</v>
       </c>
       <c r="I46" s="3">
-        <v>177800</v>
+        <v>118000</v>
       </c>
       <c r="J46" s="3">
-        <v>145200</v>
+        <v>96400</v>
       </c>
       <c r="K46" s="3">
         <v>134300</v>
@@ -3612,13 +3612,13 @@
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
@@ -3683,25 +3683,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1709500</v>
+        <v>1134400</v>
       </c>
       <c r="E48" s="3">
-        <v>1423200</v>
+        <v>944400</v>
       </c>
       <c r="F48" s="3">
-        <v>1161000</v>
+        <v>770400</v>
       </c>
       <c r="G48" s="3">
-        <v>979300</v>
+        <v>649900</v>
       </c>
       <c r="H48" s="3">
-        <v>1643900</v>
+        <v>1090800</v>
       </c>
       <c r="I48" s="3">
-        <v>756200</v>
+        <v>501800</v>
       </c>
       <c r="J48" s="3">
-        <v>685600</v>
+        <v>454900</v>
       </c>
       <c r="K48" s="3">
         <v>709200</v>
@@ -4181,25 +4181,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2069400</v>
+        <v>1373200</v>
       </c>
       <c r="E54" s="3">
-        <v>1725200</v>
+        <v>1144800</v>
       </c>
       <c r="F54" s="3">
-        <v>1403000</v>
+        <v>931000</v>
       </c>
       <c r="G54" s="3">
-        <v>1180800</v>
+        <v>783500</v>
       </c>
       <c r="H54" s="3">
-        <v>1996700</v>
+        <v>1324900</v>
       </c>
       <c r="I54" s="3">
-        <v>934100</v>
+        <v>619800</v>
       </c>
       <c r="J54" s="3">
-        <v>831400</v>
+        <v>551700</v>
       </c>
       <c r="K54" s="3">
         <v>844600</v>
@@ -4326,25 +4326,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775000</v>
+        <v>514300</v>
       </c>
       <c r="E57" s="3">
-        <v>640500</v>
+        <v>425100</v>
       </c>
       <c r="F57" s="3">
-        <v>514400</v>
+        <v>341300</v>
       </c>
       <c r="G57" s="3">
-        <v>384200</v>
+        <v>254900</v>
       </c>
       <c r="H57" s="3">
-        <v>639600</v>
+        <v>424400</v>
       </c>
       <c r="I57" s="3">
-        <v>261700</v>
+        <v>173700</v>
       </c>
       <c r="J57" s="3">
-        <v>219800</v>
+        <v>145800</v>
       </c>
       <c r="K57" s="3">
         <v>196100</v>
@@ -4409,25 +4409,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>19800</v>
+        <v>13100</v>
       </c>
       <c r="F58" s="3">
-        <v>16900</v>
+        <v>11200</v>
       </c>
       <c r="G58" s="3">
-        <v>50100</v>
+        <v>33300</v>
       </c>
       <c r="H58" s="3">
-        <v>88400</v>
+        <v>58700</v>
       </c>
       <c r="I58" s="3">
-        <v>3100</v>
+        <v>2100</v>
       </c>
       <c r="J58" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="K58" s="3">
         <v>3200</v>
@@ -4492,25 +4492,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78900</v>
+        <v>52300</v>
       </c>
       <c r="E59" s="3">
-        <v>64800</v>
+        <v>43000</v>
       </c>
       <c r="F59" s="3">
-        <v>49800</v>
+        <v>33000</v>
       </c>
       <c r="G59" s="3">
-        <v>47300</v>
+        <v>31400</v>
       </c>
       <c r="H59" s="3">
-        <v>90700</v>
+        <v>60200</v>
       </c>
       <c r="I59" s="3">
-        <v>50800</v>
+        <v>33700</v>
       </c>
       <c r="J59" s="3">
-        <v>41100</v>
+        <v>27300</v>
       </c>
       <c r="K59" s="3">
         <v>48500</v>
@@ -4575,25 +4575,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>856600</v>
+        <v>568400</v>
       </c>
       <c r="E60" s="3">
-        <v>725200</v>
+        <v>481200</v>
       </c>
       <c r="F60" s="3">
-        <v>581100</v>
+        <v>385600</v>
       </c>
       <c r="G60" s="3">
-        <v>481500</v>
+        <v>319500</v>
       </c>
       <c r="H60" s="3">
-        <v>818700</v>
+        <v>543300</v>
       </c>
       <c r="I60" s="3">
-        <v>315700</v>
+        <v>209500</v>
       </c>
       <c r="J60" s="3">
-        <v>263000</v>
+        <v>174500</v>
       </c>
       <c r="K60" s="3">
         <v>247800</v>
@@ -4658,13 +4658,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62700</v>
+        <v>41600</v>
       </c>
       <c r="E61" s="3">
-        <v>50300</v>
+        <v>33400</v>
       </c>
       <c r="F61" s="3">
-        <v>27300</v>
+        <v>18100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4673,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>41700</v>
+        <v>27700</v>
       </c>
       <c r="J61" s="3">
-        <v>40400</v>
+        <v>26800</v>
       </c>
       <c r="K61" s="3">
         <v>45000</v>
@@ -4741,25 +4741,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>608500</v>
+        <v>403800</v>
       </c>
       <c r="E62" s="3">
-        <v>500200</v>
+        <v>331900</v>
       </c>
       <c r="F62" s="3">
-        <v>404100</v>
+        <v>268100</v>
       </c>
       <c r="G62" s="3">
-        <v>342700</v>
+        <v>227400</v>
       </c>
       <c r="H62" s="3">
-        <v>559300</v>
+        <v>371100</v>
       </c>
       <c r="I62" s="3">
-        <v>262900</v>
+        <v>174500</v>
       </c>
       <c r="J62" s="3">
-        <v>238600</v>
+        <v>158300</v>
       </c>
       <c r="K62" s="3">
         <v>200500</v>
@@ -5073,25 +5073,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1527700</v>
+        <v>1013800</v>
       </c>
       <c r="E66" s="3">
-        <v>1275700</v>
+        <v>846500</v>
       </c>
       <c r="F66" s="3">
-        <v>1012500</v>
+        <v>671900</v>
       </c>
       <c r="G66" s="3">
-        <v>824200</v>
+        <v>546900</v>
       </c>
       <c r="H66" s="3">
-        <v>1378000</v>
+        <v>914400</v>
       </c>
       <c r="I66" s="3">
-        <v>620300</v>
+        <v>411600</v>
       </c>
       <c r="J66" s="3">
-        <v>542000</v>
+        <v>359700</v>
       </c>
       <c r="K66" s="3">
         <v>493400</v>
@@ -5519,25 +5519,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>94800</v>
+        <v>62900</v>
       </c>
       <c r="E72" s="3">
-        <v>67000</v>
+        <v>44400</v>
       </c>
       <c r="F72" s="3">
-        <v>76500</v>
+        <v>50800</v>
       </c>
       <c r="G72" s="3">
-        <v>89200</v>
+        <v>59200</v>
       </c>
       <c r="H72" s="3">
-        <v>170100</v>
+        <v>112900</v>
       </c>
       <c r="I72" s="3">
-        <v>105300</v>
+        <v>69800</v>
       </c>
       <c r="J72" s="3">
-        <v>98700</v>
+        <v>65500</v>
       </c>
       <c r="K72" s="3">
         <v>152100</v>
@@ -5851,25 +5851,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>541600</v>
+        <v>359400</v>
       </c>
       <c r="E76" s="3">
-        <v>449500</v>
+        <v>298300</v>
       </c>
       <c r="F76" s="3">
-        <v>390500</v>
+        <v>259100</v>
       </c>
       <c r="G76" s="3">
-        <v>356600</v>
+        <v>236600</v>
       </c>
       <c r="H76" s="3">
-        <v>618700</v>
+        <v>410600</v>
       </c>
       <c r="I76" s="3">
-        <v>313800</v>
+        <v>208200</v>
       </c>
       <c r="J76" s="3">
-        <v>289300</v>
+        <v>192000</v>
       </c>
       <c r="K76" s="3">
         <v>351200</v>
@@ -6105,25 +6105,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
-        <v>-26200</v>
+        <v>-17400</v>
       </c>
       <c r="F81" s="3">
-        <v>-51800</v>
+        <v>-34400</v>
       </c>
       <c r="G81" s="3">
-        <v>-14300</v>
+        <v>-9500</v>
       </c>
       <c r="H81" s="3">
-        <v>-74000</v>
+        <v>-49100</v>
       </c>
       <c r="I81" s="3">
-        <v>-4800</v>
+        <v>-3200</v>
       </c>
       <c r="J81" s="3">
-        <v>-100500</v>
+        <v>-66700</v>
       </c>
       <c r="K81" s="3">
         <v>-6000</v>
@@ -6219,25 +6219,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>29800</v>
+        <v>19800</v>
       </c>
       <c r="E83" s="3">
-        <v>24100</v>
+        <v>16000</v>
       </c>
       <c r="F83" s="3">
-        <v>28900</v>
+        <v>19200</v>
       </c>
       <c r="G83" s="3">
-        <v>12400</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
-        <v>27800</v>
+        <v>18500</v>
       </c>
       <c r="I83" s="3">
-        <v>23800</v>
+        <v>15800</v>
       </c>
       <c r="J83" s="3">
-        <v>28600</v>
+        <v>19000</v>
       </c>
       <c r="K83" s="3">
         <v>14100</v>
@@ -6717,25 +6717,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>55600</v>
+        <v>36900</v>
       </c>
       <c r="E89" s="3">
-        <v>33100</v>
+        <v>22000</v>
       </c>
       <c r="F89" s="3">
-        <v>63900</v>
+        <v>42400</v>
       </c>
       <c r="G89" s="3">
-        <v>22800</v>
+        <v>15100</v>
       </c>
       <c r="H89" s="3">
-        <v>42900</v>
+        <v>28500</v>
       </c>
       <c r="I89" s="3">
-        <v>58900</v>
+        <v>39100</v>
       </c>
       <c r="J89" s="3">
-        <v>77400</v>
+        <v>51300</v>
       </c>
       <c r="K89" s="3">
         <v>31200</v>
@@ -7080,25 +7080,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66300</v>
+        <v>-44000</v>
       </c>
       <c r="E94" s="3">
-        <v>-42600</v>
+        <v>-28300</v>
       </c>
       <c r="F94" s="3">
-        <v>-52200</v>
+        <v>-34600</v>
       </c>
       <c r="G94" s="3">
-        <v>-15500</v>
+        <v>-10300</v>
       </c>
       <c r="H94" s="3">
-        <v>-44700</v>
+        <v>-29700</v>
       </c>
       <c r="I94" s="3">
-        <v>-33900</v>
+        <v>-22500</v>
       </c>
       <c r="J94" s="3">
-        <v>-31500</v>
+        <v>-20900</v>
       </c>
       <c r="K94" s="3">
         <v>-10500</v>
@@ -7526,25 +7526,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18800</v>
+        <v>-12500</v>
       </c>
       <c r="E100" s="3">
-        <v>14500</v>
+        <v>9600</v>
       </c>
       <c r="F100" s="3">
-        <v>-16200</v>
+        <v>-10800</v>
       </c>
       <c r="G100" s="3">
-        <v>-800</v>
+        <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2500</v>
+        <v>-1600</v>
       </c>
       <c r="I100" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J100" s="3">
-        <v>-3000</v>
+        <v>-2000</v>
       </c>
       <c r="K100" s="3">
         <v>-600</v>
@@ -7609,25 +7609,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>5200</v>
+        <v>3400</v>
       </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>6400</v>
+        <v>4200</v>
       </c>
       <c r="I101" s="3">
-        <v>11200</v>
+        <v>7400</v>
       </c>
       <c r="J101" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K101" s="3">
         <v>1200</v>
@@ -7692,25 +7692,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27700</v>
+        <v>-18400</v>
       </c>
       <c r="E102" s="3">
-        <v>10100</v>
+        <v>6700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2100</v>
+        <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>7600</v>
+        <v>5100</v>
       </c>
       <c r="H102" s="3">
-        <v>-36700</v>
+        <v>-24400</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="K102" s="3">
         <v>15300</v>

--- a/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,373 +665,411 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200300</v>
+        <v>391600</v>
       </c>
       <c r="E8" s="3">
-        <v>135700</v>
+        <v>680500</v>
       </c>
       <c r="F8" s="3">
-        <v>252700</v>
+        <v>197600</v>
       </c>
       <c r="G8" s="3">
-        <v>102100</v>
+        <v>198200</v>
       </c>
       <c r="H8" s="3">
+        <v>134300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>250000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>101000</v>
+      </c>
+      <c r="K8" s="3">
         <v>209300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>152800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>270200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>191100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>235400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>254500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>555200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>299200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>351100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>313200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>631400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="V8" s="3">
         <v>308300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="W8" s="3">
         <v>322000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="X8" s="3">
         <v>347600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Y8" s="3">
         <v>637600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Z8" s="3">
         <v>318100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="AA8" s="3">
         <v>505300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AB8" s="3">
         <v>148100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AC8" s="3">
         <v>131900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AD8" s="3">
         <v>140500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AE8" s="3">
         <v>103700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AF8" s="3">
         <v>89300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>147800</v>
+        <v>233500</v>
       </c>
       <c r="E9" s="3">
-        <v>93600</v>
+        <v>473800</v>
       </c>
       <c r="F9" s="3">
-        <v>168200</v>
+        <v>142700</v>
       </c>
       <c r="G9" s="3">
-        <v>60400</v>
+        <v>146300</v>
       </c>
       <c r="H9" s="3">
+        <v>92600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>166400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K9" s="3">
         <v>130500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>89000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>169400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>115800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>150200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>158100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>355000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>186700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>227600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>198800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>395000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="V9" s="3">
         <v>202400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>197000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>204700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Y9" s="3">
         <v>339000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Z9" s="3">
         <v>159500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="AA9" s="3">
         <v>265700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>78600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AC9" s="3">
         <v>75200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AD9" s="3">
         <v>66300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AE9" s="3">
         <v>33900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AF9" s="3">
         <v>52300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52500</v>
+        <v>158100</v>
       </c>
       <c r="E10" s="3">
-        <v>42100</v>
+        <v>206700</v>
       </c>
       <c r="F10" s="3">
-        <v>84500</v>
+        <v>54900</v>
       </c>
       <c r="G10" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H10" s="3">
         <v>41700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>83600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K10" s="3">
         <v>78900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>63800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>100800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>75200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>85200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>96400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>200200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>112500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>123500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>114400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>236400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>105900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>125000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="X10" s="3">
         <v>142800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="Y10" s="3">
         <v>298500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Z10" s="3">
         <v>158600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="AA10" s="3">
         <v>239600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AB10" s="3">
         <v>69500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AC10" s="3">
         <v>56800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AD10" s="3">
         <v>74200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AE10" s="3">
         <v>69800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AF10" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1061,8 +1099,11 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1185,17 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1227,165 +1277,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>600</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>400</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>164300</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>164300</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="T14" s="3">
         <v>-27800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>-97700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="3">
         <v>-63200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="W14" s="3">
         <v>-60300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="X14" s="3">
         <v>-59700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="Y14" s="3">
         <v>-70900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Z14" s="3">
         <v>-30200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AA14" s="3">
         <v>-125300</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AE14" s="3">
         <v>-29500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AF14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>19800</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>33800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>18500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>18500</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>14100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>20200</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>20200</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O15" s="3">
-        <v>17700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>21400</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>17700</v>
+      </c>
+      <c r="S15" s="3">
+        <v>21400</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>15200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="W15" s="3">
         <v>18000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="X15" s="3">
         <v>2200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="Y15" s="3">
         <v>2200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Z15" s="3">
         <v>11700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="AA15" s="3">
         <v>42200</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>2400</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>2600</v>
       </c>
       <c r="AB15" s="3">
         <v>2500</v>
@@ -1393,8 +1461,17 @@
       <c r="AC15" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1421,174 +1498,195 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235100</v>
+        <v>389800</v>
       </c>
       <c r="E17" s="3">
-        <v>153100</v>
+        <v>798600</v>
       </c>
       <c r="F17" s="3">
-        <v>289900</v>
+        <v>230200</v>
       </c>
       <c r="G17" s="3">
-        <v>107300</v>
+        <v>232800</v>
       </c>
       <c r="H17" s="3">
+        <v>151500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>286900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K17" s="3">
         <v>231100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>146100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>279600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>199200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>427800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>247100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>557300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>272300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>316800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>249000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>499100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>244700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>286700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>254400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>469400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Z17" s="3">
         <v>221800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="AA17" s="3">
         <v>367000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AB17" s="3">
         <v>131300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AC17" s="3">
         <v>125100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AD17" s="3">
         <v>119100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AE17" s="3">
         <v>70200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AF17" s="3">
         <v>108200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-34700</v>
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
-        <v>-17400</v>
+        <v>-118100</v>
       </c>
       <c r="F18" s="3">
-        <v>-37300</v>
+        <v>-32600</v>
       </c>
       <c r="G18" s="3">
-        <v>-5200</v>
+        <v>-34600</v>
       </c>
       <c r="H18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-192400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>26900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>34300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>64200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>132300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>63600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>35300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="X18" s="3">
         <v>93100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Y18" s="3">
         <v>168100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Z18" s="3">
         <v>96400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="AA18" s="3">
         <v>138300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>16800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AC18" s="3">
         <v>6900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AD18" s="3">
         <v>21400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AE18" s="3">
         <v>33500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AF18" s="3">
         <v>-18900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1618,423 +1716,471 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>67700</v>
+        <v>384200</v>
       </c>
       <c r="E20" s="3">
+        <v>107800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>123100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>67200</v>
+      </c>
+      <c r="H20" s="3">
         <v>9400</v>
       </c>
-      <c r="F20" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>17700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-15100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>11800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-37000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>160000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="V20" s="3">
         <v>-29700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="W20" s="3">
         <v>-36000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="X20" s="3">
         <v>-9800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="Y20" s="3">
         <v>-70200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Z20" s="3">
         <v>-14800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AA20" s="3">
         <v>-20300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AB20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AC20" s="3">
         <v>-7200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AD20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AE20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AF20" s="3">
         <v>-5700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>52700</v>
+        <v>444600</v>
       </c>
       <c r="E21" s="3">
-        <v>8100</v>
+        <v>38200</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>108400</v>
       </c>
       <c r="G21" s="3">
-        <v>13100</v>
+        <v>52200</v>
       </c>
       <c r="H21" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>19900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>20900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>23700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-164400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>28000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>19400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>51300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>67600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>44600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>322300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>49100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>17200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="X21" s="3">
         <v>100000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="Y21" s="3">
         <v>122400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Z21" s="3">
         <v>93200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>160200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AB21" s="3">
         <v>14300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AC21" s="3">
         <v>2000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AD21" s="3">
         <v>22700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AE21" s="3">
         <v>32100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AF21" s="3">
         <v>-22200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>13400</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>107100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>12800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>9800</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O22" s="3">
+        <v>9800</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O22" s="3">
-        <v>10800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>29400</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="S22" s="3">
+        <v>29400</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>10700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>21800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="X22" s="3">
         <v>4600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="Y22" s="3">
         <v>2500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Z22" s="3">
         <v>5500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AA22" s="3">
         <v>10900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AB22" s="3">
         <v>2700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AC22" s="3">
         <v>2600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AD22" s="3">
         <v>2900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AE22" s="3">
         <v>4000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AF22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19600</v>
+        <v>385900</v>
       </c>
       <c r="E23" s="3">
-        <v>-7900</v>
+        <v>-10300</v>
       </c>
       <c r="F23" s="3">
-        <v>-19200</v>
+        <v>-16600</v>
       </c>
       <c r="G23" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-37800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-194400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-17200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>22800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>16700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>27300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>292300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>23200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-22500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>78800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>95500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Z23" s="3">
         <v>76100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>107100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>9000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AC23" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AD23" s="3">
         <v>17200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AE23" s="3">
         <v>25700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AF23" s="3">
         <v>-26800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17700</v>
+        <v>170700</v>
       </c>
       <c r="E24" s="3">
-        <v>9500</v>
+        <v>55100</v>
       </c>
       <c r="F24" s="3">
-        <v>15200</v>
+        <v>11600</v>
       </c>
       <c r="G24" s="3">
-        <v>10800</v>
+        <v>17600</v>
       </c>
       <c r="H24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K24" s="3">
         <v>11300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>68500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>-45200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>6800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>8000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>12300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>22300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>23600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>109900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="W24" s="3">
         <v>-15900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="X24" s="3">
         <v>28700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="Y24" s="3">
         <v>34800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Z24" s="3">
         <v>24600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="AA24" s="3">
         <v>5700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AB24" s="3">
         <v>2300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AC24" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AD24" s="3">
         <v>6200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AE24" s="3">
         <v>8600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AF24" s="3">
         <v>-9600</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2116,174 +2262,201 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-49100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-66700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-149200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-25100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>10500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>3600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>182400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>50100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>60700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Z26" s="3">
         <v>51500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>101400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>6700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AC26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AD26" s="3">
         <v>11000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AE26" s="3">
         <v>17100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AF26" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-49100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-66700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-149200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-25100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>3600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>182400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>50100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>60700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Z27" s="3">
         <v>51500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>101400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>6700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AC27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AD27" s="3">
         <v>11000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AE27" s="3">
         <v>17100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AF27" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2538,17 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2448,8 +2630,17 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2531,8 +2722,17 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,174 +2814,201 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-67700</v>
+        <v>-384200</v>
       </c>
       <c r="E32" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-9400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-17700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>15100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>37000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>-160000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="V32" s="3">
         <v>29700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="W32" s="3">
         <v>36000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="X32" s="3">
         <v>9800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="Y32" s="3">
         <v>70200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Z32" s="3">
         <v>14800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="AA32" s="3">
         <v>20300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AB32" s="3">
         <v>5100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AC32" s="3">
         <v>7200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AD32" s="3">
         <v>1300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AE32" s="3">
         <v>3900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AF32" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-49100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-66700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-149200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-25100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>182400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>50100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>60700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Z33" s="3">
         <v>51500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>101400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>6700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AC33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AD33" s="3">
         <v>11000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AE33" s="3">
         <v>17100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AF33" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2863,179 +3090,206 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-49100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-66700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-149200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-25100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>182400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>50100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>60700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Z35" s="3">
         <v>51500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>101400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>6700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AC35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AD35" s="3">
         <v>11000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AE35" s="3">
         <v>17100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AF35" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3065,8 +3319,11 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3096,506 +3353,563 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47500</v>
+        <v>167900</v>
       </c>
       <c r="E41" s="3">
-        <v>59900</v>
+        <v>118800</v>
       </c>
       <c r="F41" s="3">
-        <v>34300</v>
+        <v>98700</v>
       </c>
       <c r="G41" s="3">
-        <v>26500</v>
+        <v>47000</v>
       </c>
       <c r="H41" s="3">
+        <v>59200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K41" s="3">
         <v>54300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>37000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>30200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>35900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>41100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>65500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>48400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>23300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>44800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>32400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>36000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="X41" s="3">
         <v>58600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Y41" s="3">
         <v>41200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Z41" s="3">
         <v>44600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="AA41" s="3">
         <v>59000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AB41" s="3">
         <v>26900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AC41" s="3">
         <v>25000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AD41" s="3">
         <v>30500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AE41" s="3">
         <v>48800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AF41" s="3">
         <v>44300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39200</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>28900</v>
+        <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>35700</v>
+        <v>7400</v>
       </c>
       <c r="G42" s="3">
-        <v>35100</v>
+        <v>38800</v>
       </c>
       <c r="H42" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>35300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K42" s="3">
         <v>50800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>14400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>8100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>11900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>21600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>17700</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>40300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="W42" s="3">
         <v>93800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="X42" s="3">
         <v>60800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Y42" s="3">
         <v>57400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Z42" s="3">
         <v>37600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="AA42" s="3">
         <v>42400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AB42" s="3">
         <v>15900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AC42" s="3">
         <v>14600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AD42" s="3">
         <v>14900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AE42" s="3">
         <v>10200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AF42" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130700</v>
+        <v>278800</v>
       </c>
       <c r="E43" s="3">
-        <v>96000</v>
+        <v>260300</v>
       </c>
       <c r="F43" s="3">
-        <v>77400</v>
+        <v>187000</v>
       </c>
       <c r="G43" s="3">
-        <v>62100</v>
+        <v>129300</v>
       </c>
       <c r="H43" s="3">
+        <v>95000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>76500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>61500</v>
+      </c>
+      <c r="K43" s="3">
         <v>108400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>57700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>49800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>75000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>136900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>125400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>122000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>139100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>176900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>154000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>129500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>135800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>319900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="X43" s="3">
         <v>137600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Y43" s="3">
         <v>125000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Z43" s="3">
         <v>134400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="AA43" s="3">
         <v>197800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AB43" s="3">
         <v>113700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AC43" s="3">
         <v>111200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AD43" s="3">
         <v>124100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AE43" s="3">
         <v>106000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AF43" s="3">
         <v>89100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19300</v>
+        <v>62400</v>
       </c>
       <c r="E44" s="3">
-        <v>14000</v>
+        <v>40700</v>
       </c>
       <c r="F44" s="3">
-        <v>12100</v>
+        <v>27100</v>
       </c>
       <c r="G44" s="3">
-        <v>9100</v>
+        <v>19100</v>
       </c>
       <c r="H44" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I44" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K44" s="3">
         <v>19200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>8100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>7500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>10400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>17600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>13200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>16800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>16500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>27000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>18600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>18400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="V44" s="3">
         <v>22400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="W44" s="3">
         <v>26300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="X44" s="3">
         <v>12200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Y44" s="3">
         <v>10100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Z44" s="3">
         <v>8000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="AA44" s="3">
         <v>14900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AB44" s="3">
         <v>7400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AC44" s="3">
         <v>6500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AD44" s="3">
         <v>6900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AE44" s="3">
         <v>7500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AF44" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>800</v>
+      </c>
+      <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>900</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>800</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>900</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>800</v>
       </c>
       <c r="AC45" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>238700</v>
+        <v>513900</v>
       </c>
       <c r="E46" s="3">
-        <v>200300</v>
+        <v>422300</v>
       </c>
       <c r="F46" s="3">
-        <v>160600</v>
+        <v>321700</v>
       </c>
       <c r="G46" s="3">
-        <v>133600</v>
+        <v>236200</v>
       </c>
       <c r="H46" s="3">
+        <v>198200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>158900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>132200</v>
+      </c>
+      <c r="K46" s="3">
         <v>234000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>118000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>96400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>134300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>219400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>205500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>188900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>197700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>250200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>206300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>185700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>201400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>286000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="X46" s="3">
         <v>270300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="Y46" s="3">
         <v>234800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Z46" s="3">
         <v>225600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="AA46" s="3">
         <v>315400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AB46" s="3">
         <v>164800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AC46" s="3">
         <v>158200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AD46" s="3">
         <v>177300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AE46" s="3">
         <v>173400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AF46" s="3">
         <v>150700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3618,150 +3932,168 @@
         <v>100</v>
       </c>
       <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>100</v>
+      </c>
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>16700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="T47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>8800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="V47" s="3">
         <v>10000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>16900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="X47" s="3">
         <v>30800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Y47" s="3">
         <v>600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Z47" s="3">
         <v>700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="AA47" s="3">
         <v>1700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AB47" s="3">
         <v>1000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AC47" s="3">
         <v>1100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AD47" s="3">
         <v>1300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AE47" s="3">
         <v>2500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AF47" s="3">
         <v>7300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1134400</v>
+        <v>2348400</v>
       </c>
       <c r="E48" s="3">
-        <v>944400</v>
+        <v>1721400</v>
       </c>
       <c r="F48" s="3">
-        <v>770400</v>
+        <v>1377000</v>
       </c>
       <c r="G48" s="3">
-        <v>649900</v>
+        <v>1122500</v>
       </c>
       <c r="H48" s="3">
+        <v>934500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>762300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>643000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1090800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>501800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>454900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>709200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>1178200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>926500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>994500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>1003500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>1421200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>927800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>866400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="V48" s="3">
         <v>880600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="W48" s="3">
         <v>1303600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="X48" s="3">
         <v>269400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="Y48" s="3">
         <v>278500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Z48" s="3">
         <v>258100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="AA48" s="3">
         <v>1309000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AB48" s="3">
         <v>313000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AC48" s="3">
         <v>292000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AD48" s="3">
         <v>310400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AE48" s="3">
         <v>293100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AF48" s="3">
         <v>277400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3843,8 +4175,17 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3926,8 +4267,17 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4009,8 +4359,17 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4062,38 +4421,47 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
+      <c r="X52" s="3">
         <v>27300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="Y52" s="3">
         <v>26300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Z52" s="3">
         <v>23000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="AA52" s="3">
         <v>27200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AB52" s="3">
         <v>28300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AC52" s="3">
         <v>26500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AD52" s="3">
         <v>28500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AE52" s="3">
         <v>26700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AF52" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4175,91 +4543,109 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1373200</v>
+        <v>2862400</v>
       </c>
       <c r="E54" s="3">
-        <v>1144800</v>
+        <v>2143800</v>
       </c>
       <c r="F54" s="3">
-        <v>931000</v>
+        <v>1698800</v>
       </c>
       <c r="G54" s="3">
-        <v>783500</v>
+        <v>1358800</v>
       </c>
       <c r="H54" s="3">
+        <v>1132800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>921200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>775300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1324900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>619800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>551700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>844600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>1400900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>1132200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>1183800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1201600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>1671900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>1134500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>1060900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>1091900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="W54" s="3">
         <v>1606500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="X54" s="3">
         <v>597900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="Y54" s="3">
         <v>540300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Z54" s="3">
         <v>507300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>1626000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AB54" s="3">
         <v>507100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AC54" s="3">
         <v>477800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AD54" s="3">
         <v>517600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AE54" s="3">
         <v>495700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AF54" s="3">
         <v>464400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4289,8 +4675,11 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4320,506 +4709,563 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>514300</v>
+        <v>412400</v>
       </c>
       <c r="E57" s="3">
-        <v>425100</v>
+        <v>869400</v>
       </c>
       <c r="F57" s="3">
-        <v>341300</v>
+        <v>680400</v>
       </c>
       <c r="G57" s="3">
-        <v>254900</v>
+        <v>508900</v>
       </c>
       <c r="H57" s="3">
+        <v>420600</v>
+      </c>
+      <c r="I57" s="3">
+        <v>337800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>252200</v>
+      </c>
+      <c r="K57" s="3">
         <v>424400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>173700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>145800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>196100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>310900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>233900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>183900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>146200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>177700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>129200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>143300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>229800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>304800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="X57" s="3">
         <v>219000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="Y57" s="3">
         <v>202200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Z57" s="3">
         <v>183300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="AA57" s="3">
         <v>311500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AB57" s="3">
         <v>186600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AC57" s="3">
         <v>181900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AD57" s="3">
         <v>186800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AE57" s="3">
         <v>178600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AF57" s="3">
         <v>213200</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
-        <v>13100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>11200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>33300</v>
-      </c>
       <c r="H58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K58" s="3">
         <v>58700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>11600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>11100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>20600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>25100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>20800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>14100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>19800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>22500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="X58" s="3">
         <v>5100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="Y58" s="3">
         <v>1700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Z58" s="3">
         <v>2800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="AA58" s="3">
         <v>2400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AB58" s="3">
         <v>3000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AC58" s="3">
         <v>1300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AD58" s="3">
         <v>3100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AE58" s="3">
         <v>1400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AF58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>71900</v>
+      </c>
+      <c r="F59" s="3">
         <v>52300</v>
       </c>
-      <c r="E59" s="3">
-        <v>43000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>33000</v>
-      </c>
       <c r="G59" s="3">
-        <v>31400</v>
+        <v>51800</v>
       </c>
       <c r="H59" s="3">
+        <v>42600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K59" s="3">
         <v>60200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>33700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>48500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>83400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>53800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>65700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>76700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>141200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>83800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>83900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>57400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>110400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="X59" s="3">
         <v>68300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="Y59" s="3">
         <v>66700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>59100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>110900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>69400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AC59" s="3">
         <v>62700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AD59" s="3">
         <v>59800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AE59" s="3">
         <v>70400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AF59" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>568400</v>
+        <v>550300</v>
       </c>
       <c r="E60" s="3">
-        <v>481200</v>
+        <v>943700</v>
       </c>
       <c r="F60" s="3">
-        <v>385600</v>
+        <v>736900</v>
       </c>
       <c r="G60" s="3">
-        <v>319500</v>
+        <v>562500</v>
       </c>
       <c r="H60" s="3">
+        <v>476200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>381600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K60" s="3">
         <v>543300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>209500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>174500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>247800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>397000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>299300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>260600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>243500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>344000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>233800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>241200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>307000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>437700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="X60" s="3">
         <v>292400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="Y60" s="3">
         <v>270600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Z60" s="3">
         <v>245200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>424800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>259100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AC60" s="3">
         <v>245900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AD60" s="3">
         <v>249700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AE60" s="3">
         <v>250400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AF60" s="3">
         <v>256000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41600</v>
+        <v>114100</v>
       </c>
       <c r="E61" s="3">
-        <v>33400</v>
+        <v>83000</v>
       </c>
       <c r="F61" s="3">
-        <v>18100</v>
+        <v>66800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>41100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="I61" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>27700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>26800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>45000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>77800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>54400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>81400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>81100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="S61" s="3">
         <v>114700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="T61" s="3">
         <v>104300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>81600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="V61" s="3">
         <v>100900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="W61" s="3">
         <v>150100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="X61" s="3">
         <v>136000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="Y61" s="3">
         <v>107300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Z61" s="3">
         <v>74800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="AA61" s="3">
         <v>142000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AB61" s="3">
         <v>69300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AC61" s="3">
         <v>66600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AD61" s="3">
         <v>70200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AE61" s="3">
         <v>72500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AF61" s="3">
         <v>69800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>403800</v>
+        <v>1325700</v>
       </c>
       <c r="E62" s="3">
-        <v>331900</v>
+        <v>629700</v>
       </c>
       <c r="F62" s="3">
-        <v>268100</v>
+        <v>490300</v>
       </c>
       <c r="G62" s="3">
-        <v>227400</v>
+        <v>399500</v>
       </c>
       <c r="H62" s="3">
+        <v>328500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>265300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>225000</v>
+      </c>
+      <c r="K62" s="3">
         <v>371100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>174500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>158300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>200500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>334000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>262900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>283500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>286100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>385400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>236200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>210900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="V62" s="3">
         <v>259800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="W62" s="3">
         <v>372500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="X62" s="3">
         <v>134600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="Y62" s="3">
         <v>137000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Z62" s="3">
         <v>146600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="AA62" s="3">
         <v>421700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AB62" s="3">
         <v>154700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AC62" s="3">
         <v>148400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AD62" s="3">
         <v>176600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AE62" s="3">
         <v>163300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AF62" s="3">
         <v>146800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4901,8 +5347,17 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4984,8 +5439,17 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5067,91 +5531,109 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1013800</v>
+        <v>1990100</v>
       </c>
       <c r="E66" s="3">
-        <v>846500</v>
+        <v>1656400</v>
       </c>
       <c r="F66" s="3">
-        <v>671900</v>
+        <v>1294000</v>
       </c>
       <c r="G66" s="3">
-        <v>546900</v>
+        <v>1003100</v>
       </c>
       <c r="H66" s="3">
+        <v>837600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>664800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>541200</v>
+      </c>
+      <c r="K66" s="3">
         <v>914400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>411600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>359700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>493400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>808800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>616600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>625500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>610700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>844100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>574300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>533800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>667600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>960300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="X66" s="3">
         <v>563000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="Y66" s="3">
         <v>514900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Z66" s="3">
         <v>466600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>988400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>483100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AC66" s="3">
         <v>460800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AD66" s="3">
         <v>496500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AE66" s="3">
         <v>486200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AF66" s="3">
         <v>472700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5181,8 +5663,11 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5264,8 +5749,17 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5347,8 +5841,17 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5430,8 +5933,17 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5513,91 +6025,109 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62900</v>
+        <v>276200</v>
       </c>
       <c r="E72" s="3">
-        <v>44400</v>
+        <v>45300</v>
       </c>
       <c r="F72" s="3">
-        <v>50800</v>
+        <v>47600</v>
       </c>
       <c r="G72" s="3">
-        <v>59200</v>
+        <v>62200</v>
       </c>
       <c r="H72" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>50300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K72" s="3">
         <v>112900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>69800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>65500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>152100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>259600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>284000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>307200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>335100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>465400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>322000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>301900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>191100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>286600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>26100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>15500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>18700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>217900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AC72" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AD72" s="3">
         <v>-13600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AE72" s="3">
         <v>-24100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AF72" s="3">
         <v>-41700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5679,8 +6209,17 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,8 +6301,17 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5845,91 +6393,109 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>359400</v>
+        <v>872300</v>
       </c>
       <c r="E76" s="3">
-        <v>298300</v>
+        <v>487400</v>
       </c>
       <c r="F76" s="3">
-        <v>259100</v>
+        <v>404700</v>
       </c>
       <c r="G76" s="3">
-        <v>236600</v>
+        <v>355600</v>
       </c>
       <c r="H76" s="3">
+        <v>295100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>256400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K76" s="3">
         <v>410600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>208200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>192000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>351200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>592200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>515600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>558400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>590900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>827700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>560200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>527100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>424300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>646200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="X76" s="3">
         <v>34900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="Y76" s="3">
         <v>25400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Z76" s="3">
         <v>40700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>637600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>24000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AC76" s="3">
         <v>16900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AD76" s="3">
         <v>21100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AE76" s="3">
         <v>9500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AF76" s="3">
         <v>-8300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6011,179 +6577,206 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-34400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-49100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-66700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-149200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-25100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>182400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>50100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>60700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Z81" s="3">
         <v>51500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>101400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>6700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AC81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AD81" s="3">
         <v>11000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AE81" s="3">
         <v>17100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AF81" s="3">
         <v>-17200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6213,82 +6806,85 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19800</v>
+        <v>58600</v>
       </c>
       <c r="E83" s="3">
-        <v>16000</v>
+        <v>48500</v>
       </c>
       <c r="F83" s="3">
-        <v>19200</v>
+        <v>18000</v>
       </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>19600</v>
       </c>
       <c r="H83" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K83" s="3">
         <v>18500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>15800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>19000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>20200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>20100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>36600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>17700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>21400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>17400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>30000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>15200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>18000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="X83" s="3">
         <v>16700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="Y83" s="3">
         <v>24400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Z83" s="3">
         <v>11700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="AA83" s="3">
         <v>42200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>2600</v>
       </c>
       <c r="AB83" s="3">
         <v>2500</v>
@@ -6296,8 +6892,17 @@
       <c r="AC83" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6379,8 +6984,17 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6462,8 +7076,17 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6545,8 +7168,17 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6628,8 +7260,17 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6711,91 +7352,109 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36900</v>
+        <v>81200</v>
       </c>
       <c r="E89" s="3">
-        <v>22000</v>
+        <v>40900</v>
       </c>
       <c r="F89" s="3">
-        <v>42400</v>
+        <v>4500</v>
       </c>
       <c r="G89" s="3">
-        <v>15100</v>
+        <v>36500</v>
       </c>
       <c r="H89" s="3">
+        <v>21700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K89" s="3">
         <v>28500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>39100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>51300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>31200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>111300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>93000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>27600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>42600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>16700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>88000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>11000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>42200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="X89" s="3">
         <v>73600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="Y89" s="3">
         <v>131300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Z89" s="3">
         <v>69900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="AA89" s="3">
         <v>121600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AB89" s="3">
         <v>25200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AC89" s="3">
         <v>19300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AD89" s="3">
         <v>3700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AE89" s="3">
         <v>27600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AF89" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6825,91 +7484,103 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-33400000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17148000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-8918000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-15907000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-8071000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-5448000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-2300000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-10768000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-8783000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-6230000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-21500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-9700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-31500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-50800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-25800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-57700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="X91" s="3">
         <v>-25800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-37300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Z91" s="3">
         <v>-16500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="AA91" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AB91" s="3">
         <v>-24400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AC91" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AD91" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AE91" s="3">
         <v>-24800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AF91" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6991,8 +7662,17 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7074,91 +7754,109 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44000</v>
+        <v>-81400</v>
       </c>
       <c r="E94" s="3">
-        <v>-28300</v>
+        <v>-57100</v>
       </c>
       <c r="F94" s="3">
-        <v>-34600</v>
+        <v>-8200</v>
       </c>
       <c r="G94" s="3">
-        <v>-10300</v>
+        <v>-43500</v>
       </c>
       <c r="H94" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-29700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-20900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-23300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-23100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-31200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-61500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="X94" s="3">
         <v>-6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-55600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Z94" s="3">
         <v>-43500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="AA94" s="3">
         <v>-43800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AB94" s="3">
         <v>-25300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AC94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AD94" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AE94" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AF94" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7188,8 +7886,11 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7271,8 +7972,17 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7354,8 +8064,17 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7437,8 +8156,17 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7520,253 +8248,289 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12500</v>
+        <v>3900</v>
       </c>
       <c r="E100" s="3">
-        <v>9600</v>
+        <v>17400</v>
       </c>
       <c r="F100" s="3">
-        <v>-10800</v>
+        <v>16900</v>
       </c>
       <c r="G100" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>-14700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>-18800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>-6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>-15700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-15500</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>22900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-3400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AF100" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>7400</v>
       </c>
       <c r="J101" s="3">
         <v>800</v>
       </c>
       <c r="K101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>800</v>
+      </c>
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="W101" s="3">
         <v>-2000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="X101" s="3">
         <v>5200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AE101" s="3">
         <v>1200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AF101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18400</v>
+        <v>7200</v>
       </c>
       <c r="E102" s="3">
-        <v>6700</v>
+        <v>5300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1400</v>
+        <v>14400</v>
       </c>
       <c r="G102" s="3">
-        <v>5100</v>
+        <v>-18200</v>
       </c>
       <c r="H102" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-24400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-29300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>66700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>27600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-13700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>17200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-59800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>48100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>17000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Z102" s="3">
         <v>1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AD102" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AE102" s="3">
         <v>4400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AF102" s="3">
         <v>-5800</v>
       </c>
     </row>
